--- a/Image_Analysis/tissue_image_data.xlsx
+++ b/Image_Analysis/tissue_image_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tfai/Documents/GitHub/Minimal-Lung-Model/Image_Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DAFE22-AB3B-C649-A797-FB58EC472B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E063E385-31D5-E747-B49E-FA0178184AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20380"/>
   </bookViews>
@@ -431,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="true" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -446,7 +446,8 @@
     <col min="5" max="5" width="3.5703125" customWidth="true"/>
     <col min="7" max="7" width="7.140625" customWidth="true"/>
     <col min="8" max="8" width="9.28515625" customWidth="true"/>
-    <col min="9" max="9" width="13.7109375" customWidth="true"/>
+    <col min="9" max="9" width="14.7109375" customWidth="true"/>
+    <col min="11" max="11" width="9.1640625" bestFit="true" customWidth="true"/>
     <col min="6" max="6" width="3.5703125" customWidth="true"/>
   </cols>
   <sheetData>
@@ -1332,294 +1333,1657 @@
         <v>1.4527969888265994E-2</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>1</v>
-      </c>
-      <c r="B31" s="0">
+    <row r="31" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
         <v>26</v>
       </c>
-      <c r="C31" s="0">
-        <v>1</v>
-      </c>
-      <c r="D31" s="0">
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
         <v>0.18633587170605814</v>
       </c>
-      <c r="E31" s="0">
-        <v>19</v>
-      </c>
-      <c r="F31" s="0">
-        <v>19</v>
-      </c>
-      <c r="G31" s="0">
+      <c r="E31">
+        <v>19</v>
+      </c>
+      <c r="F31">
+        <v>19</v>
+      </c>
+      <c r="G31">
         <v>50330</v>
       </c>
-      <c r="H31" s="0">
+      <c r="H31">
         <v>2985047</v>
       </c>
-      <c r="I31" s="0">
-        <v>0.016860706045834454</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>1</v>
-      </c>
-      <c r="B32" s="0">
+      <c r="I31">
+        <v>1.6860706045834454E-2</v>
+      </c>
+    </row>
+    <row r="32" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
         <v>26</v>
       </c>
-      <c r="C32" s="0">
+      <c r="C32">
         <v>2</v>
       </c>
-      <c r="D32" s="0">
+      <c r="D32">
         <v>0.21482258857088068</v>
       </c>
-      <c r="E32" s="0">
-        <v>19</v>
-      </c>
-      <c r="F32" s="0">
-        <v>19</v>
-      </c>
-      <c r="G32" s="0">
+      <c r="E32">
+        <v>19</v>
+      </c>
+      <c r="F32">
+        <v>19</v>
+      </c>
+      <c r="G32">
         <v>61734</v>
       </c>
-      <c r="H32" s="0">
+      <c r="H32">
         <v>3441396</v>
       </c>
-      <c r="I32" s="0">
-        <v>0.017938650477887463</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>1</v>
-      </c>
-      <c r="B33" s="0">
+      <c r="I32">
+        <v>1.7938650477887463E-2</v>
+      </c>
+    </row>
+    <row r="33" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
         <v>26</v>
       </c>
-      <c r="C33" s="0">
+      <c r="C33">
         <v>3</v>
       </c>
-      <c r="D33" s="0">
+      <c r="D33">
         <v>0.225996384953737</v>
       </c>
-      <c r="E33" s="0">
-        <v>19</v>
-      </c>
-      <c r="F33" s="0">
-        <v>19</v>
-      </c>
-      <c r="G33" s="0">
+      <c r="E33">
+        <v>19</v>
+      </c>
+      <c r="F33">
+        <v>19</v>
+      </c>
+      <c r="G33">
         <v>60728</v>
       </c>
-      <c r="H33" s="0">
+      <c r="H33">
         <v>3620397</v>
       </c>
-      <c r="I33" s="0">
-        <v>0.016773851044512521</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>1</v>
-      </c>
-      <c r="B34" s="0">
+      <c r="I33">
+        <v>1.6773851044512521E-2</v>
+      </c>
+    </row>
+    <row r="34" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
         <v>26</v>
       </c>
-      <c r="C34" s="0">
+      <c r="C34">
         <v>4</v>
       </c>
-      <c r="D34" s="0">
+      <c r="D34">
         <v>0.23650568749300863</v>
       </c>
-      <c r="E34" s="0">
-        <v>19</v>
-      </c>
-      <c r="F34" s="0">
-        <v>19</v>
-      </c>
-      <c r="G34" s="0">
+      <c r="E34">
+        <v>19</v>
+      </c>
+      <c r="F34">
+        <v>19</v>
+      </c>
+      <c r="G34">
         <v>61119</v>
       </c>
-      <c r="H34" s="0">
+      <c r="H34">
         <v>3788753</v>
       </c>
-      <c r="I34" s="0">
-        <v>0.016131692934324302</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>1</v>
-      </c>
-      <c r="B35" s="0">
+      <c r="I34">
+        <v>1.6131692934324302E-2</v>
+      </c>
+    </row>
+    <row r="35" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
         <v>26</v>
       </c>
-      <c r="C35" s="0">
+      <c r="C35">
         <v>5</v>
       </c>
-      <c r="D35" s="0">
+      <c r="D35">
         <v>0.22585237487415505</v>
       </c>
-      <c r="E35" s="0">
-        <v>19</v>
-      </c>
-      <c r="F35" s="0">
-        <v>19</v>
-      </c>
-      <c r="G35" s="0">
+      <c r="E35">
+        <v>19</v>
+      </c>
+      <c r="F35">
+        <v>19</v>
+      </c>
+      <c r="G35">
         <v>58502</v>
       </c>
-      <c r="H35" s="0">
+      <c r="H35">
         <v>3618090</v>
       </c>
-      <c r="I35" s="0">
-        <v>0.016169304798940878</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>1</v>
-      </c>
-      <c r="B36" s="0">
+      <c r="I35">
+        <v>1.6169304798940878E-2</v>
+      </c>
+    </row>
+    <row r="36" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
         <v>26</v>
       </c>
-      <c r="C36" s="0">
+      <c r="C36">
         <v>6</v>
       </c>
-      <c r="D36" s="0">
+      <c r="D36">
         <v>0.24341723496652123</v>
       </c>
-      <c r="E36" s="0">
-        <v>19</v>
-      </c>
-      <c r="F36" s="0">
-        <v>19</v>
-      </c>
-      <c r="G36" s="0">
+      <c r="E36">
+        <v>19</v>
+      </c>
+      <c r="F36">
+        <v>19</v>
+      </c>
+      <c r="G36">
         <v>66694</v>
       </c>
-      <c r="H36" s="0">
+      <c r="H36">
         <v>3899474</v>
       </c>
-      <c r="I36" s="0">
-        <v>0.017103332398164469</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>1</v>
-      </c>
-      <c r="B37" s="0">
+      <c r="I36">
+        <v>1.7103332398164469E-2</v>
+      </c>
+    </row>
+    <row r="37" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
         <v>26</v>
       </c>
-      <c r="C37" s="0">
-        <v>7</v>
-      </c>
-      <c r="D37" s="0">
+      <c r="C37">
+        <v>7</v>
+      </c>
+      <c r="D37">
         <v>0.24415488867714974</v>
       </c>
-      <c r="E37" s="0">
-        <v>19</v>
-      </c>
-      <c r="F37" s="0">
-        <v>19</v>
-      </c>
-      <c r="G37" s="0">
+      <c r="E37">
+        <v>19</v>
+      </c>
+      <c r="F37">
+        <v>19</v>
+      </c>
+      <c r="G37">
         <v>67779</v>
       </c>
-      <c r="H37" s="0">
+      <c r="H37">
         <v>3911291</v>
       </c>
-      <c r="I37" s="0">
-        <v>0.017329060916203884</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>1</v>
-      </c>
-      <c r="B38" s="0">
+      <c r="I37">
+        <v>1.7329060916203884E-2</v>
+      </c>
+    </row>
+    <row r="38" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
         <v>26</v>
       </c>
-      <c r="C38" s="0">
+      <c r="C38">
         <v>8</v>
       </c>
-      <c r="D38" s="0">
+      <c r="D38">
         <v>0.21468138753056235</v>
       </c>
-      <c r="E38" s="0">
-        <v>19</v>
-      </c>
-      <c r="F38" s="0">
-        <v>19</v>
-      </c>
-      <c r="G38" s="0">
+      <c r="E38">
+        <v>19</v>
+      </c>
+      <c r="F38">
+        <v>19</v>
+      </c>
+      <c r="G38">
         <v>60451</v>
       </c>
-      <c r="H38" s="0">
+      <c r="H38">
         <v>3439134</v>
       </c>
-      <c r="I38" s="0">
-        <v>0.017577390122048168</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>1</v>
-      </c>
-      <c r="B39" s="0">
+      <c r="I38">
+        <v>1.7577390122048168E-2</v>
+      </c>
+    </row>
+    <row r="39" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
         <v>26</v>
       </c>
-      <c r="C39" s="0">
+      <c r="C39">
         <v>9</v>
       </c>
-      <c r="D39" s="0">
+      <c r="D39">
         <v>0.21823369858334532</v>
       </c>
-      <c r="E39" s="0">
-        <v>19</v>
-      </c>
-      <c r="F39" s="0">
-        <v>19</v>
-      </c>
-      <c r="G39" s="0">
+      <c r="E39">
+        <v>19</v>
+      </c>
+      <c r="F39">
+        <v>19</v>
+      </c>
+      <c r="G39">
         <v>56825</v>
       </c>
-      <c r="H39" s="0">
+      <c r="H39">
         <v>3496041</v>
       </c>
-      <c r="I39" s="0">
-        <v>0.016254099994822715</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>1</v>
-      </c>
-      <c r="B40" s="0">
+      <c r="I39">
+        <v>1.6254099994822715E-2</v>
+      </c>
+    </row>
+    <row r="40" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>7</v>
+      </c>
+      <c r="B40">
+        <v>11</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>0.35518197830273102</v>
+      </c>
+      <c r="E40">
+        <v>19</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>62506</v>
+      </c>
+      <c r="H40">
+        <v>5689913</v>
+      </c>
+      <c r="I40">
+        <v>1.0985405225000805E-2</v>
+      </c>
+    </row>
+    <row r="41" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>7</v>
+      </c>
+      <c r="B41">
+        <v>11</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>0.35688987417501639</v>
+      </c>
+      <c r="E41">
+        <v>19</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>65337</v>
+      </c>
+      <c r="H41">
+        <v>5717273</v>
+      </c>
+      <c r="I41">
+        <v>1.1428000726919985E-2</v>
+      </c>
+    </row>
+    <row r="42" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>7</v>
+      </c>
+      <c r="B42">
+        <v>11</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>0.42149659119964206</v>
+      </c>
+      <c r="E42">
+        <v>19</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>77178</v>
+      </c>
+      <c r="H42">
+        <v>6752254</v>
+      </c>
+      <c r="I42">
+        <v>1.1429961017461725E-2</v>
+      </c>
+    </row>
+    <row r="43" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>7</v>
+      </c>
+      <c r="B43">
+        <v>11</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <v>0.36609590734215447</v>
+      </c>
+      <c r="E43">
+        <v>19</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>66648</v>
+      </c>
+      <c r="H43">
+        <v>5864751</v>
+      </c>
+      <c r="I43">
+        <v>1.1364165332850448E-2</v>
+      </c>
+    </row>
+    <row r="44" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>7</v>
+      </c>
+      <c r="B44">
+        <v>11</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <v>0.40625823984850662</v>
+      </c>
+      <c r="E44">
+        <v>19</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>73168</v>
+      </c>
+      <c r="H44">
+        <v>6508140</v>
+      </c>
+      <c r="I44">
+        <v>1.124253626996346E-2</v>
+      </c>
+    </row>
+    <row r="45" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>7</v>
+      </c>
+      <c r="B45">
+        <v>11</v>
+      </c>
+      <c r="C45">
+        <v>6</v>
+      </c>
+      <c r="D45">
+        <v>0.36715972172283745</v>
+      </c>
+      <c r="E45">
+        <v>19</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>65768</v>
+      </c>
+      <c r="H45">
+        <v>5881793</v>
+      </c>
+      <c r="I45">
+        <v>1.118162437882462E-2</v>
+      </c>
+    </row>
+    <row r="46" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>7</v>
+      </c>
+      <c r="B46">
+        <v>11</v>
+      </c>
+      <c r="C46">
+        <v>7</v>
+      </c>
+      <c r="D46">
+        <v>0.36726453009891813</v>
+      </c>
+      <c r="E46">
+        <v>19</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>63266</v>
+      </c>
+      <c r="H46">
+        <v>5883472</v>
+      </c>
+      <c r="I46">
+        <v>1.0753174316118101E-2</v>
+      </c>
+    </row>
+    <row r="47" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>7</v>
+      </c>
+      <c r="B47">
+        <v>11</v>
+      </c>
+      <c r="C47">
+        <v>8</v>
+      </c>
+      <c r="D47">
+        <v>0.39524574474247726</v>
+      </c>
+      <c r="E47">
+        <v>19</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>72810</v>
+      </c>
+      <c r="H47">
+        <v>6331723</v>
+      </c>
+      <c r="I47">
+        <v>1.1499239622453477E-2</v>
+      </c>
+    </row>
+    <row r="48" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>7</v>
+      </c>
+      <c r="B48">
+        <v>11</v>
+      </c>
+      <c r="C48">
+        <v>9</v>
+      </c>
+      <c r="D48">
+        <v>0.36482697067213193</v>
+      </c>
+      <c r="E48">
+        <v>19</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>65809</v>
+      </c>
+      <c r="H48">
+        <v>5844423</v>
+      </c>
+      <c r="I48">
+        <v>1.1260136372743725E-2</v>
+      </c>
+    </row>
+    <row r="49" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>7</v>
+      </c>
+      <c r="B49">
+        <v>10</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>0.48832063897278555</v>
+      </c>
+      <c r="E49">
+        <v>34</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>65890</v>
+      </c>
+      <c r="H49">
+        <v>7822756</v>
+      </c>
+      <c r="I49">
+        <v>8.4228627353326625E-3</v>
+      </c>
+    </row>
+    <row r="50" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>7</v>
+      </c>
+      <c r="B50">
+        <v>10</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>0.48857726031529158</v>
+      </c>
+      <c r="E50">
+        <v>34</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>63677</v>
+      </c>
+      <c r="H50">
+        <v>7826867</v>
+      </c>
+      <c r="I50">
+        <v>8.1356946527901906E-3</v>
+      </c>
+    </row>
+    <row r="51" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>7</v>
+      </c>
+      <c r="B51">
+        <v>10</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51">
+        <v>0.44714717717771707</v>
+      </c>
+      <c r="E51">
+        <v>34</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>53361</v>
+      </c>
+      <c r="H51">
+        <v>7163169</v>
+      </c>
+      <c r="I51">
+        <v>7.4493565627168643E-3</v>
+      </c>
+    </row>
+    <row r="52" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>7</v>
+      </c>
+      <c r="B52">
+        <v>10</v>
+      </c>
+      <c r="C52">
+        <v>4</v>
+      </c>
+      <c r="D52">
+        <v>0.52122903333093629</v>
+      </c>
+      <c r="E52">
+        <v>34</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>65891</v>
+      </c>
+      <c r="H52">
+        <v>8349939</v>
+      </c>
+      <c r="I52">
+        <v>7.89119537280452E-3</v>
+      </c>
+    </row>
+    <row r="53" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>7</v>
+      </c>
+      <c r="B53">
+        <v>10</v>
+      </c>
+      <c r="C53">
+        <v>5</v>
+      </c>
+      <c r="D53">
+        <v>0.51325080001438228</v>
+      </c>
+      <c r="E53">
+        <v>34</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>69675</v>
+      </c>
+      <c r="H53">
+        <v>8222130</v>
+      </c>
+      <c r="I53">
+        <v>8.4740815336172021E-3</v>
+      </c>
+    </row>
+    <row r="54" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>7</v>
+      </c>
+      <c r="B54">
+        <v>10</v>
+      </c>
+      <c r="C54">
+        <v>6</v>
+      </c>
+      <c r="D54">
+        <v>0.48548007604631094</v>
+      </c>
+      <c r="E54">
+        <v>34</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>68870</v>
+      </c>
+      <c r="H54">
+        <v>7777251</v>
+      </c>
+      <c r="I54">
+        <v>8.8553140434840024E-3</v>
+      </c>
+    </row>
+    <row r="55" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>7</v>
+      </c>
+      <c r="B55">
+        <v>10</v>
+      </c>
+      <c r="C55">
+        <v>7</v>
+      </c>
+      <c r="D55">
+        <v>0.54773100789826934</v>
+      </c>
+      <c r="E55">
+        <v>34</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>70035</v>
+      </c>
+      <c r="H55">
+        <v>8774493</v>
+      </c>
+      <c r="I55">
+        <v>7.9816577436439915E-3</v>
+      </c>
+    </row>
+    <row r="56" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>7</v>
+      </c>
+      <c r="B56">
+        <v>10</v>
+      </c>
+      <c r="C56">
+        <v>8</v>
+      </c>
+      <c r="D56">
+        <v>0.5247239775596465</v>
+      </c>
+      <c r="E56">
+        <v>34</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>72125</v>
+      </c>
+      <c r="H56">
+        <v>8405927</v>
+      </c>
+      <c r="I56">
+        <v>8.5802553365024459E-3</v>
+      </c>
+    </row>
+    <row r="57" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>7</v>
+      </c>
+      <c r="B57">
+        <v>10</v>
+      </c>
+      <c r="C57">
+        <v>9</v>
+      </c>
+      <c r="D57">
+        <v>0.51200327446585803</v>
+      </c>
+      <c r="E57">
+        <v>34</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>65219</v>
+      </c>
+      <c r="H57">
+        <v>8202145</v>
+      </c>
+      <c r="I57">
+        <v>7.951456600681894E-3</v>
+      </c>
+    </row>
+    <row r="58" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>7</v>
+      </c>
+      <c r="B58">
+        <v>10</v>
+      </c>
+      <c r="C58">
+        <v>10</v>
+      </c>
+      <c r="D58">
+        <v>0.45997206441663868</v>
+      </c>
+      <c r="E58">
+        <v>34</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>54717</v>
+      </c>
+      <c r="H58">
+        <v>7368620</v>
+      </c>
+      <c r="I58">
+        <v>7.4256780781204621E-3</v>
+      </c>
+    </row>
+    <row r="59" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>7</v>
+      </c>
+      <c r="B59">
+        <v>10</v>
+      </c>
+      <c r="C59">
+        <v>11</v>
+      </c>
+      <c r="D59">
+        <v>0.50375300130239542</v>
+      </c>
+      <c r="E59">
+        <v>34</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>63858</v>
+      </c>
+      <c r="H59">
+        <v>8069978</v>
+      </c>
+      <c r="I59">
+        <v>7.9130327245006127E-3</v>
+      </c>
+    </row>
+    <row r="60" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60">
+        <v>25</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>0.42371710552599195</v>
+      </c>
+      <c r="E60">
+        <v>34</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>47970</v>
+      </c>
+      <c r="H60">
+        <v>6787826</v>
+      </c>
+      <c r="I60">
+        <v>7.0670638876129113E-3</v>
+      </c>
+    </row>
+    <row r="61" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61">
+        <v>25</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>0.39332124073141889</v>
+      </c>
+      <c r="E61">
+        <v>34</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>45056</v>
+      </c>
+      <c r="H61">
+        <v>6300893</v>
+      </c>
+      <c r="I61">
+        <v>7.150732443798046E-3</v>
+      </c>
+    </row>
+    <row r="62" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62">
+        <v>25</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <v>0.37033830570736853</v>
+      </c>
+      <c r="E62">
+        <v>34</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>43962</v>
+      </c>
+      <c r="H62">
+        <v>5932713</v>
+      </c>
+      <c r="I62">
+        <v>7.4101005728745015E-3</v>
+      </c>
+    </row>
+    <row r="63" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63">
+        <v>25</v>
+      </c>
+      <c r="C63">
+        <v>4</v>
+      </c>
+      <c r="D63">
+        <v>0.42505714210093165</v>
+      </c>
+      <c r="E63">
+        <v>34</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>44843</v>
+      </c>
+      <c r="H63">
+        <v>6809293</v>
+      </c>
+      <c r="I63">
+        <v>6.5855588825447812E-3</v>
+      </c>
+    </row>
+    <row r="64" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64">
+        <v>25</v>
+      </c>
+      <c r="C64">
+        <v>5</v>
+      </c>
+      <c r="D64">
+        <v>0.40336861236956068</v>
+      </c>
+      <c r="E64">
+        <v>34</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>42739</v>
+      </c>
+      <c r="H64">
+        <v>6461849</v>
+      </c>
+      <c r="I64">
+        <v>6.6140511794689104E-3</v>
+      </c>
+    </row>
+    <row r="65" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65">
+        <v>25</v>
+      </c>
+      <c r="C65">
+        <v>6</v>
+      </c>
+      <c r="D65">
+        <v>0.37741664769004585</v>
+      </c>
+      <c r="E65">
+        <v>34</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>44218</v>
+      </c>
+      <c r="H65">
+        <v>6046106</v>
+      </c>
+      <c r="I65">
+        <v>7.3134675442342563E-3</v>
+      </c>
+    </row>
+    <row r="66" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <v>25</v>
+      </c>
+      <c r="C66">
+        <v>7</v>
+      </c>
+      <c r="D66">
+        <v>0.38257572920162358</v>
+      </c>
+      <c r="E66">
+        <v>34</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>44272</v>
+      </c>
+      <c r="H66">
+        <v>6128753</v>
+      </c>
+      <c r="I66">
+        <v>7.2236554483432434E-3</v>
+      </c>
+    </row>
+    <row r="67" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67">
+        <v>25</v>
+      </c>
+      <c r="C67">
+        <v>8</v>
+      </c>
+      <c r="D67">
+        <v>0.40279163570481169</v>
+      </c>
+      <c r="E67">
+        <v>34</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>46936</v>
+      </c>
+      <c r="H67">
+        <v>6452606</v>
+      </c>
+      <c r="I67">
+        <v>7.273960319288052E-3</v>
+      </c>
+    </row>
+    <row r="68" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68">
+        <v>25</v>
+      </c>
+      <c r="C68">
+        <v>9</v>
+      </c>
+      <c r="D68">
+        <v>0.41184741648289308</v>
+      </c>
+      <c r="E68">
+        <v>34</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>46336</v>
+      </c>
+      <c r="H68">
+        <v>6597677</v>
+      </c>
+      <c r="I68">
+        <v>7.0230779712313895E-3</v>
+      </c>
+    </row>
+    <row r="69" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69">
         <v>26</v>
       </c>
-      <c r="C40" s="0">
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>0.33173037068331818</v>
+      </c>
+      <c r="E69">
+        <v>34</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>43837</v>
+      </c>
+      <c r="H69">
+        <v>5314225</v>
+      </c>
+      <c r="I69">
+        <v>8.2489920919795456E-3</v>
+      </c>
+    </row>
+    <row r="70" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70">
+        <v>26</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="D70">
+        <v>0.38444230458075651</v>
+      </c>
+      <c r="E70">
+        <v>34</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>53752</v>
+      </c>
+      <c r="H70">
+        <v>6158655</v>
+      </c>
+      <c r="I70">
+        <v>8.727879707501069E-3</v>
+      </c>
+    </row>
+    <row r="71" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71">
+        <v>26</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="D71">
+        <v>0.39497701331959029</v>
+      </c>
+      <c r="E71">
+        <v>34</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>51384</v>
+      </c>
+      <c r="H71">
+        <v>6327418</v>
+      </c>
+      <c r="I71">
+        <v>8.120848029954714E-3</v>
+      </c>
+    </row>
+    <row r="72" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72">
+        <v>26</v>
+      </c>
+      <c r="C72">
+        <v>4</v>
+      </c>
+      <c r="D72">
+        <v>0.39624376518129667</v>
+      </c>
+      <c r="E72">
+        <v>34</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>50254</v>
+      </c>
+      <c r="H72">
+        <v>6347711</v>
+      </c>
+      <c r="I72">
+        <v>7.9168695613269103E-3</v>
+      </c>
+    </row>
+    <row r="73" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73">
+        <v>26</v>
+      </c>
+      <c r="C73">
+        <v>5</v>
+      </c>
+      <c r="D73">
+        <v>0.3815489941392205</v>
+      </c>
+      <c r="E73">
+        <v>34</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>49571</v>
+      </c>
+      <c r="H73">
+        <v>6112305</v>
+      </c>
+      <c r="I73">
+        <v>8.1100337761286449E-3</v>
+      </c>
+    </row>
+    <row r="74" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74">
+        <v>26</v>
+      </c>
+      <c r="C74">
+        <v>6</v>
+      </c>
+      <c r="D74">
+        <v>0.41231284307732874</v>
+      </c>
+      <c r="E74">
+        <v>34</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>52995</v>
+      </c>
+      <c r="H74">
+        <v>6605133</v>
+      </c>
+      <c r="I74">
+        <v>8.0233055110321017E-3</v>
+      </c>
+    </row>
+    <row r="75" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75">
+        <v>26</v>
+      </c>
+      <c r="C75">
+        <v>7</v>
+      </c>
+      <c r="D75">
+        <v>0.41782267995829137</v>
+      </c>
+      <c r="E75">
+        <v>34</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>55330</v>
+      </c>
+      <c r="H75">
+        <v>6693399</v>
+      </c>
+      <c r="I75">
+        <v>8.266353163766272E-3</v>
+      </c>
+    </row>
+    <row r="76" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="B76">
+        <v>26</v>
+      </c>
+      <c r="C76">
+        <v>8</v>
+      </c>
+      <c r="D76">
+        <v>0.38518039525304826</v>
+      </c>
+      <c r="E76">
+        <v>34</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>52430</v>
+      </c>
+      <c r="H76">
+        <v>6170479</v>
+      </c>
+      <c r="I76">
+        <v>8.4969092350853145E-3</v>
+      </c>
+    </row>
+    <row r="77" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77">
+        <v>26</v>
+      </c>
+      <c r="C77">
+        <v>9</v>
+      </c>
+      <c r="D77">
+        <v>0.37843376959585789</v>
+      </c>
+      <c r="E77">
+        <v>34</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>47585</v>
+      </c>
+      <c r="H77">
+        <v>6062400</v>
+      </c>
+      <c r="I77">
+        <v>7.8492016363156513E-3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0">
+        <v>1</v>
+      </c>
+      <c r="B78" s="0">
+        <v>27</v>
+      </c>
+      <c r="C78" s="0">
+        <v>1</v>
+      </c>
+      <c r="D78" s="0">
+        <v>0.51110800244099275</v>
+      </c>
+      <c r="E78" s="0">
+        <v>34</v>
+      </c>
+      <c r="F78" s="0">
+        <v>0</v>
+      </c>
+      <c r="G78" s="0">
+        <v>58407</v>
+      </c>
+      <c r="H78" s="0">
+        <v>8187803</v>
+      </c>
+      <c r="I78" s="0">
+        <v>0.0071334153984896802</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0">
+        <v>1</v>
+      </c>
+      <c r="B79" s="0">
+        <v>27</v>
+      </c>
+      <c r="C79" s="0">
+        <v>2</v>
+      </c>
+      <c r="D79" s="0">
+        <v>0.50151463397094775</v>
+      </c>
+      <c r="E79" s="0">
+        <v>34</v>
+      </c>
+      <c r="F79" s="0">
+        <v>0</v>
+      </c>
+      <c r="G79" s="0">
+        <v>55170</v>
+      </c>
+      <c r="H79" s="0">
+        <v>8034120</v>
+      </c>
+      <c r="I79" s="0">
+        <v>0.0068669624053412197</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0">
+        <v>1</v>
+      </c>
+      <c r="B80" s="0">
+        <v>27</v>
+      </c>
+      <c r="C80" s="0">
+        <v>3</v>
+      </c>
+      <c r="D80" s="0">
+        <v>0.50242857050114265</v>
+      </c>
+      <c r="E80" s="0">
+        <v>34</v>
+      </c>
+      <c r="F80" s="0">
+        <v>0</v>
+      </c>
+      <c r="G80" s="0">
+        <v>53873</v>
+      </c>
+      <c r="H80" s="0">
+        <v>8048761</v>
+      </c>
+      <c r="I80" s="0">
+        <v>0.0066933283271797981</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0">
+        <v>1</v>
+      </c>
+      <c r="B81" s="0">
+        <v>27</v>
+      </c>
+      <c r="C81" s="0">
+        <v>4</v>
+      </c>
+      <c r="D81" s="0">
+        <v>0.51807273439123003</v>
+      </c>
+      <c r="E81" s="0">
+        <v>34</v>
+      </c>
+      <c r="F81" s="0">
+        <v>0</v>
+      </c>
+      <c r="G81" s="0">
+        <v>57493</v>
+      </c>
+      <c r="H81" s="0">
+        <v>8299376</v>
+      </c>
+      <c r="I81" s="0">
+        <v>0.0069273882759378538</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0">
+        <v>1</v>
+      </c>
+      <c r="B82" s="0">
+        <v>27</v>
+      </c>
+      <c r="C82" s="0">
+        <v>5</v>
+      </c>
+      <c r="D82" s="0">
+        <v>0.56778779793294665</v>
+      </c>
+      <c r="E82" s="0">
+        <v>34</v>
+      </c>
+      <c r="F82" s="0">
+        <v>0</v>
+      </c>
+      <c r="G82" s="0">
+        <v>65056</v>
+      </c>
+      <c r="H82" s="0">
+        <v>9095797</v>
+      </c>
+      <c r="I82" s="0">
+        <v>0.0071523144151084284</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0">
+        <v>1</v>
+      </c>
+      <c r="B83" s="0">
+        <v>27</v>
+      </c>
+      <c r="C83" s="0">
+        <v>6</v>
+      </c>
+      <c r="D83" s="0">
+        <v>0.44775330542771308</v>
+      </c>
+      <c r="E83" s="0">
+        <v>34</v>
+      </c>
+      <c r="F83" s="0">
+        <v>0</v>
+      </c>
+      <c r="G83" s="0">
+        <v>52776</v>
+      </c>
+      <c r="H83" s="0">
+        <v>7172879</v>
+      </c>
+      <c r="I83" s="0">
+        <v>0.0073577150820472509</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0">
+        <v>1</v>
+      </c>
+      <c r="B84" s="0">
+        <v>27</v>
+      </c>
+      <c r="C84" s="0">
+        <v>7</v>
+      </c>
+      <c r="D84" s="0">
+        <v>0.6288651131805616</v>
+      </c>
+      <c r="E84" s="0">
+        <v>34</v>
+      </c>
+      <c r="F84" s="0">
+        <v>0</v>
+      </c>
+      <c r="G84" s="0">
+        <v>72308</v>
+      </c>
+      <c r="H84" s="0">
+        <v>10074238</v>
+      </c>
+      <c r="I84" s="0">
+        <v>0.007177515559985778</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0">
+        <v>1</v>
+      </c>
+      <c r="B85" s="0">
+        <v>27</v>
+      </c>
+      <c r="C85" s="0">
+        <v>8</v>
+      </c>
+      <c r="D85" s="0">
+        <v>0.52252949366380619</v>
+      </c>
+      <c r="E85" s="0">
+        <v>34</v>
+      </c>
+      <c r="F85" s="0">
+        <v>0</v>
+      </c>
+      <c r="G85" s="0">
+        <v>52304</v>
+      </c>
+      <c r="H85" s="0">
+        <v>8370772</v>
+      </c>
+      <c r="I85" s="0">
+        <v>0.006248408151601788</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0">
+        <v>1</v>
+      </c>
+      <c r="B86" s="0">
+        <v>27</v>
+      </c>
+      <c r="C86" s="0">
+        <v>9</v>
+      </c>
+      <c r="D86" s="0">
+        <v>0.52777234696853481</v>
+      </c>
+      <c r="E86" s="0">
+        <v>34</v>
+      </c>
+      <c r="F86" s="0">
+        <v>0</v>
+      </c>
+      <c r="G86" s="0">
+        <v>54247</v>
+      </c>
+      <c r="H86" s="0">
+        <v>8454761</v>
+      </c>
+      <c r="I86" s="0">
+        <v>0.0064161482506720179</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0">
+        <v>1</v>
+      </c>
+      <c r="B87" s="0">
+        <v>27</v>
+      </c>
+      <c r="C87" s="0">
         <v>10</v>
       </c>
-      <c r="D40" s="0">
-        <v>0.20605226860507855</v>
-      </c>
-      <c r="E40" s="0">
-        <v>19</v>
-      </c>
-      <c r="F40" s="0">
-        <v>19</v>
-      </c>
-      <c r="G40" s="0">
-        <v>51899</v>
-      </c>
-      <c r="H40" s="0">
-        <v>3300898</v>
-      </c>
-      <c r="I40" s="0">
-        <v>0.015722691219177326</v>
+      <c r="D87" s="0">
+        <v>0.51841281541141315</v>
+      </c>
+      <c r="E87" s="0">
+        <v>34</v>
+      </c>
+      <c r="F87" s="0">
+        <v>0</v>
+      </c>
+      <c r="G87" s="0">
+        <v>57839</v>
+      </c>
+      <c r="H87" s="0">
+        <v>8304824</v>
+      </c>
+      <c r="I87" s="0">
+        <v>0.0069645064121768262</v>
       </c>
     </row>
   </sheetData>

--- a/Image_Analysis/tissue_image_data.xlsx
+++ b/Image_Analysis/tissue_image_data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791EEAC1-B583-8640-8F4E-3A55DD9CA72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="MLI_old" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -201,25 +201,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59996337778862885"/>
+        <fgColor theme="8" tint="0.59996337778863"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59996337778862885"/>
+        <fgColor theme="7" tint="0.59996337778863"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59996337778862885"/>
+        <fgColor theme="9" tint="0.59996337778863"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59996337778862885"/>
+        <fgColor theme="5" tint="0.59996337778863"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,19 +279,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79995117038483843"/>
+        <fgColor theme="7" tint="0.79995117038484"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79995117038483843"/>
+        <fgColor theme="5" tint="0.79995117038484"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79995117038483843"/>
+        <fgColor theme="5" tint="0.79995117038484"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,12 +303,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79995117038483843"/>
+        <fgColor theme="9" tint="0.79995117038484"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -484,93 +484,95 @@
       </bottom>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="11" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="false" diagonalDown="false">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -592,7 +594,7 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="false" diagonalDown="false">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -614,7 +616,7 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="false" diagonalDown="false">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -636,7 +638,7 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="false" diagonalDown="false">
         <left/>
         <right style="thin">
           <color indexed="64"/>
@@ -663,7 +665,7 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="false" diagonalDown="false">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -686,7 +688,7 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="false" diagonalDown="false">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -705,10 +707,10 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor auto="true"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="false" diagonalDown="false">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -729,10 +731,10 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="0.59996337778863"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="false" diagonalDown="false">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -754,7 +756,7 @@
           <bgColor rgb="FFC8FFFE"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="false" diagonalDown="false">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -773,10 +775,10 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor auto="true"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="false" diagonalDown="false">
         <left/>
         <right style="thin">
           <color indexed="64"/>
@@ -803,7 +805,7 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="false" diagonalDown="false">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -822,7 +824,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor auto="true"/>
         </patternFill>
       </fill>
     </dxf>
@@ -834,7 +836,7 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="false" diagonalDown="false">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -870,31 +872,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{36E7EB3B-F743-C64E-BCA9-2E0C77662A2B}" name="Table1" displayName="Table1" ref="A1:D26" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" id="1" name="Table1" displayName="Table1" ref="A1:D26" totalsRowShown="false" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12" mc:Ignorable="xr xr3" xr:uid="{36E7EB3B-F743-C64E-BCA9-2E0C77662A2B}">
   <autoFilter ref="A1:D26" xr:uid="{36E7EB3B-F743-C64E-BCA9-2E0C77662A2B}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{9AD57965-9742-CB4B-8E96-592068280CA3}" name="Animal Number" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{07DB2A3C-D279-B448-B505-D1853BF97753}" name="AN Tx" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{4C6FC9D7-5647-444C-A345-DCEBD5C77DA7}" name="Ventilation" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{5EFB8D54-3B69-0645-A689-2E8216A3F563}" name="MLI" dataDxfId="8"/>
+    <tableColumn id="1" name="Animal Number" dataDxfId="11" xr3:uid="{9AD57965-9742-CB4B-8E96-592068280CA3}"/>
+    <tableColumn id="3" name="AN Tx" dataDxfId="10" xr3:uid="{07DB2A3C-D279-B448-B505-D1853BF97753}"/>
+    <tableColumn id="4" name="Ventilation" dataDxfId="9" xr3:uid="{4C6FC9D7-5647-444C-A345-DCEBD5C77DA7}"/>
+    <tableColumn id="6" name="MLI" dataDxfId="8" xr3:uid="{5EFB8D54-3B69-0645-A689-2E8216A3F563}"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1E97165A-1D31-404A-8377-3C3333100517}" name="Table24" displayName="Table24" ref="K1:N25" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" id="2" name="Table24" displayName="Table24" ref="K1:N25" totalsRowShown="false" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4" mc:Ignorable="xr xr3" xr:uid="{1E97165A-1D31-404A-8377-3C3333100517}">
   <autoFilter ref="K1:N25" xr:uid="{1E97165A-1D31-404A-8377-3C3333100517}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K2:N25">
+  <sortState ref="K2:N25">
     <sortCondition ref="L2:L26"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{3E0B4F09-7EB2-7249-96C7-FE9DC2F779EF}" name="Animal Number" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{E58C99C6-4B57-8744-B1BB-33BC8708C0E8}" name="AN Tx" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{6705FA7A-B3E9-7F49-A9C2-9E3036EF21D4}" name="Ventilation" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{0CAB2C8F-82C8-1A41-8BB4-268B883EFD78}" name="MLI" dataDxfId="0"/>
+    <tableColumn id="1" name="Animal Number" dataDxfId="3" xr3:uid="{3E0B4F09-7EB2-7249-96C7-FE9DC2F779EF}"/>
+    <tableColumn id="3" name="AN Tx" dataDxfId="2" xr3:uid="{E58C99C6-4B57-8744-B1BB-33BC8708C0E8}"/>
+    <tableColumn id="4" name="Ventilation" dataDxfId="1" xr3:uid="{6705FA7A-B3E9-7F49-A9C2-9E3036EF21D4}"/>
+    <tableColumn id="6" name="MLI" dataDxfId="0" xr3:uid="{0CAB2C8F-82C8-1A41-8BB4-268B883EFD78}"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
 </table>
 </file>
 
@@ -1195,29 +1197,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z193"/>
+  <dimension ref="A1:Z289"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView tabSelected="true" zoomScale="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.5" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
-    <col min="5" max="6" width="3.1640625" customWidth="1"/>
-    <col min="7" max="7" width="7.1640625" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" customWidth="1"/>
-    <col min="9" max="9" width="22.6640625" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1"/>
-    <col min="11" max="11" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" customWidth="true"/>
+    <col min="2" max="2" width="5.7109375" customWidth="true"/>
+    <col min="3" max="3" width="9" customWidth="true"/>
+    <col min="4" max="4" width="19.28515625" customWidth="true"/>
+    <col min="5" max="5" width="3.140625" customWidth="true"/>
+    <col min="7" max="7" width="19.85546875" customWidth="true"/>
+    <col min="8" max="8" width="20.42578125" customWidth="true"/>
+    <col min="9" max="9" width="19.140625" customWidth="true"/>
+    <col min="10" max="10" width="14.6640625" customWidth="true"/>
+    <col min="11" max="11" width="9.1640625" bestFit="true" customWidth="true"/>
+    <col min="14" max="14" width="20" customWidth="true"/>
+    <col min="6" max="6" width="3.140625" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1273,7 +1276,7 @@
       <c r="Y1" s="72"/>
       <c r="Z1" s="72"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1318,7 +1321,7 @@
         <v>16.085750398747635</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1363,7 +1366,7 @@
         <v>16.085750398747635</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1408,7 +1411,7 @@
         <v>16.085750398747599</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1453,7 +1456,7 @@
         <v>16.085750398747599</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1498,7 +1501,7 @@
         <v>16.085750398747599</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1543,7 +1546,7 @@
         <v>16.085750398747599</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1588,7 +1591,7 @@
         <v>16.085750398747599</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1633,7 +1636,7 @@
         <v>16.085750398747599</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1678,7 +1681,7 @@
         <v>16.085750398747599</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1723,7 +1726,7 @@
         <v>18.337374858653217</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0</v>
       </c>
@@ -1768,7 +1771,7 @@
         <v>18.337374858653217</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0</v>
       </c>
@@ -1813,7 +1816,7 @@
         <v>18.337374858653199</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0</v>
       </c>
@@ -1858,7 +1861,7 @@
         <v>18.337374858653199</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0</v>
       </c>
@@ -1903,7 +1906,7 @@
         <v>18.337374858653199</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0</v>
       </c>
@@ -1948,7 +1951,7 @@
         <v>18.337374858653199</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0</v>
       </c>
@@ -1993,7 +1996,7 @@
         <v>18.337374858653199</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0</v>
       </c>
@@ -2038,7 +2041,7 @@
         <v>18.337374858653199</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0</v>
       </c>
@@ -2083,7 +2086,7 @@
         <v>18.337374858653199</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0</v>
       </c>
@@ -2128,7 +2131,7 @@
         <v>10.927999498069793</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0</v>
       </c>
@@ -2173,7 +2176,7 @@
         <v>10.927999498069793</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0</v>
       </c>
@@ -2218,7 +2221,7 @@
         <v>10.9279994980698</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0</v>
       </c>
@@ -2263,7 +2266,7 @@
         <v>10.9279994980698</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0</v>
       </c>
@@ -2308,7 +2311,7 @@
         <v>10.9279994980698</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0</v>
       </c>
@@ -2353,7 +2356,7 @@
         <v>10.9279994980698</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0</v>
       </c>
@@ -2398,7 +2401,7 @@
         <v>10.9279994980698</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0</v>
       </c>
@@ -2443,7 +2446,7 @@
         <v>10.9279994980698</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0</v>
       </c>
@@ -2488,7 +2491,7 @@
         <v>10.9279994980698</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>0</v>
       </c>
@@ -2533,7 +2536,7 @@
         <v>10.9279994980698</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0</v>
       </c>
@@ -2566,7 +2569,7 @@
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0</v>
       </c>
@@ -2599,7 +2602,7 @@
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0</v>
       </c>
@@ -2632,7 +2635,7 @@
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0</v>
       </c>
@@ -2665,7 +2668,7 @@
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0</v>
       </c>
@@ -2698,7 +2701,7 @@
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0</v>
       </c>
@@ -2731,7 +2734,7 @@
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0</v>
       </c>
@@ -2764,7 +2767,7 @@
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>0</v>
       </c>
@@ -2797,7 +2800,7 @@
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>0</v>
       </c>
@@ -2830,7 +2833,7 @@
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>0</v>
       </c>
@@ -2863,7 +2866,7 @@
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>0</v>
       </c>
@@ -2896,7 +2899,7 @@
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>0</v>
       </c>
@@ -2929,7 +2932,7 @@
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>0</v>
       </c>
@@ -2962,7 +2965,7 @@
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>0</v>
       </c>
@@ -2995,7 +2998,7 @@
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>0</v>
       </c>
@@ -3028,7 +3031,7 @@
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>0</v>
       </c>
@@ -3061,7 +3064,7 @@
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>0</v>
       </c>
@@ -3094,7 +3097,7 @@
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>0</v>
       </c>
@@ -3127,7 +3130,7 @@
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>0</v>
       </c>
@@ -3160,7 +3163,7 @@
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>0</v>
       </c>
@@ -3193,7 +3196,7 @@
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>0</v>
       </c>
@@ -3226,7 +3229,7 @@
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>0</v>
       </c>
@@ -3259,7 +3262,7 @@
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>0</v>
       </c>
@@ -3292,7 +3295,7 @@
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>0</v>
       </c>
@@ -3325,7 +3328,7 @@
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>0</v>
       </c>
@@ -3358,7 +3361,7 @@
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>0</v>
       </c>
@@ -3391,7 +3394,7 @@
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>0</v>
       </c>
@@ -3424,7 +3427,7 @@
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>0</v>
       </c>
@@ -3457,7 +3460,7 @@
       <c r="M57" s="9"/>
       <c r="N57" s="9"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>0</v>
       </c>
@@ -3490,7 +3493,7 @@
       <c r="M58" s="9"/>
       <c r="N58" s="9"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>0</v>
       </c>
@@ -3523,7 +3526,7 @@
       <c r="M59" s="9"/>
       <c r="N59" s="9"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>0</v>
       </c>
@@ -3556,7 +3559,7 @@
       <c r="M60" s="9"/>
       <c r="N60" s="9"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>0</v>
       </c>
@@ -3589,7 +3592,7 @@
       <c r="M61" s="9"/>
       <c r="N61" s="9"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>0</v>
       </c>
@@ -3622,7 +3625,7 @@
       <c r="M62" s="9"/>
       <c r="N62" s="9"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>0</v>
       </c>
@@ -3655,7 +3658,7 @@
       <c r="M63" s="9"/>
       <c r="N63" s="9"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>0</v>
       </c>
@@ -3688,7 +3691,7 @@
       <c r="M64" s="9"/>
       <c r="N64" s="9"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>0</v>
       </c>
@@ -3721,7 +3724,7 @@
       <c r="M65" s="9"/>
       <c r="N65" s="9"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>0</v>
       </c>
@@ -3754,7 +3757,7 @@
       <c r="M66" s="9"/>
       <c r="N66" s="9"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>0</v>
       </c>
@@ -3787,7 +3790,7 @@
       <c r="M67" s="9"/>
       <c r="N67" s="9"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>0</v>
       </c>
@@ -3820,7 +3823,7 @@
       <c r="M68" s="9"/>
       <c r="N68" s="9"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>0</v>
       </c>
@@ -3853,7 +3856,7 @@
       <c r="M69" s="9"/>
       <c r="N69" s="9"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>0</v>
       </c>
@@ -3886,7 +3889,7 @@
       <c r="M70" s="9"/>
       <c r="N70" s="9"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>0</v>
       </c>
@@ -3919,7 +3922,7 @@
       <c r="M71" s="9"/>
       <c r="N71" s="9"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>0</v>
       </c>
@@ -3952,7 +3955,7 @@
       <c r="M72" s="9"/>
       <c r="N72" s="9"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>0</v>
       </c>
@@ -3985,7 +3988,7 @@
       <c r="M73" s="9"/>
       <c r="N73" s="9"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>0</v>
       </c>
@@ -4018,7 +4021,7 @@
       <c r="M74" s="9"/>
       <c r="N74" s="9"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>0</v>
       </c>
@@ -4051,7 +4054,7 @@
       <c r="M75" s="9"/>
       <c r="N75" s="9"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>0</v>
       </c>
@@ -4084,7 +4087,7 @@
       <c r="M76" s="9"/>
       <c r="N76" s="9"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>0</v>
       </c>
@@ -4117,7 +4120,7 @@
       <c r="M77" s="9"/>
       <c r="N77" s="9"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>0</v>
       </c>
@@ -4150,7 +4153,7 @@
       <c r="M78" s="9"/>
       <c r="N78" s="9"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>0</v>
       </c>
@@ -4183,7 +4186,7 @@
       <c r="M79" s="9"/>
       <c r="N79" s="9"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>0</v>
       </c>
@@ -4216,7 +4219,7 @@
       <c r="M80" s="9"/>
       <c r="N80" s="9"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>0</v>
       </c>
@@ -4249,7 +4252,7 @@
       <c r="M81" s="9"/>
       <c r="N81" s="9"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>0</v>
       </c>
@@ -4282,7 +4285,7 @@
       <c r="M82" s="9"/>
       <c r="N82" s="9"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>0</v>
       </c>
@@ -4315,7 +4318,7 @@
       <c r="M83" s="9"/>
       <c r="N83" s="9"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>0</v>
       </c>
@@ -4348,7 +4351,7 @@
       <c r="M84" s="9"/>
       <c r="N84" s="9"/>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>0</v>
       </c>
@@ -4381,7 +4384,7 @@
       <c r="M85" s="9"/>
       <c r="N85" s="9"/>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="86" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>0</v>
       </c>
@@ -4414,7 +4417,7 @@
       <c r="M86" s="9"/>
       <c r="N86" s="9"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="87" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>0</v>
       </c>
@@ -4447,7 +4450,7 @@
       <c r="M87" s="9"/>
       <c r="N87" s="9"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="88" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>0</v>
       </c>
@@ -4480,7 +4483,7 @@
       <c r="M88" s="9"/>
       <c r="N88" s="9"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="89" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>0</v>
       </c>
@@ -4513,7 +4516,7 @@
       <c r="M89" s="9"/>
       <c r="N89" s="9"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="90" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>0</v>
       </c>
@@ -4546,7 +4549,7 @@
       <c r="M90" s="9"/>
       <c r="N90" s="9"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="91" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>0</v>
       </c>
@@ -4579,7 +4582,7 @@
       <c r="M91" s="9"/>
       <c r="N91" s="9"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="92" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>0</v>
       </c>
@@ -4612,7 +4615,7 @@
       <c r="M92" s="9"/>
       <c r="N92" s="9"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="93" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>0</v>
       </c>
@@ -4645,7 +4648,7 @@
       <c r="M93" s="9"/>
       <c r="N93" s="9"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="94" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>0</v>
       </c>
@@ -4678,7 +4681,7 @@
       <c r="M94" s="9"/>
       <c r="N94" s="9"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="95" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>0</v>
       </c>
@@ -4711,7 +4714,7 @@
       <c r="M95" s="9"/>
       <c r="N95" s="9"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="96" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>0</v>
       </c>
@@ -4744,7 +4747,7 @@
       <c r="M96" s="9"/>
       <c r="N96" s="9"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="97" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>0</v>
       </c>
@@ -4777,7 +4780,7 @@
       <c r="M97" s="9"/>
       <c r="N97" s="9"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="98" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>0</v>
       </c>
@@ -4810,7 +4813,7 @@
       <c r="M98" s="9"/>
       <c r="N98" s="9"/>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="99" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>0</v>
       </c>
@@ -4843,7 +4846,7 @@
       <c r="M99" s="9"/>
       <c r="N99" s="9"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="100" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>0</v>
       </c>
@@ -4876,7 +4879,7 @@
       <c r="M100" s="9"/>
       <c r="N100" s="9"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="101" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>0</v>
       </c>
@@ -4909,7 +4912,7 @@
       <c r="M101" s="9"/>
       <c r="N101" s="9"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="102" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>0</v>
       </c>
@@ -4942,7 +4945,7 @@
       <c r="M102" s="9"/>
       <c r="N102" s="9"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="103" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>0</v>
       </c>
@@ -4975,7 +4978,7 @@
       <c r="M103" s="9"/>
       <c r="N103" s="9"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="104" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>0</v>
       </c>
@@ -5008,7 +5011,7 @@
       <c r="M104" s="9"/>
       <c r="N104" s="9"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="105" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>0</v>
       </c>
@@ -5037,7 +5040,7 @@
         <v>132.77709376901831</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="106" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>0</v>
       </c>
@@ -5066,7 +5069,7 @@
         <v>126.76030966484217</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="107" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>0</v>
       </c>
@@ -5095,7 +5098,7 @@
         <v>135.49956933677865</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="108" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>0</v>
       </c>
@@ -5124,7 +5127,7 @@
         <v>139.95765511684127</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="109" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>0</v>
       </c>
@@ -5153,7 +5156,7 @@
         <v>143.75792291220557</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="110" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>0</v>
       </c>
@@ -5182,7 +5185,7 @@
         <v>141.22201017811705</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="111" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>0</v>
       </c>
@@ -5211,7 +5214,7 @@
         <v>131.85931424531637</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="112" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>0</v>
       </c>
@@ -5240,7 +5243,7 @@
         <v>137.65942518683414</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="113" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>0</v>
       </c>
@@ -5269,7 +5272,7 @@
         <v>137.27905600355109</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="114" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>0</v>
       </c>
@@ -5298,7 +5301,7 @@
         <v>134.85438800107133</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="115" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>0</v>
       </c>
@@ -5327,7 +5330,7 @@
         <v>126.03324316628702</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="116" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>0</v>
       </c>
@@ -5356,7 +5359,7 @@
         <v>137.68601293103447</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="117" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>0</v>
       </c>
@@ -5385,7 +5388,7 @@
         <v>120.98883810110763</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="118" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>0</v>
       </c>
@@ -5414,7 +5417,7 @@
         <v>120.98883810110763</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="119" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>7</v>
       </c>
@@ -5459,7 +5462,7 @@
         <v>28.857949839922696</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="120" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>7</v>
       </c>
@@ -5504,7 +5507,7 @@
         <v>28.857949839922696</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="121" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>7</v>
       </c>
@@ -5549,7 +5552,7 @@
         <v>28.8579498399227</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="122" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>7</v>
       </c>
@@ -5594,7 +5597,7 @@
         <v>28.8579498399227</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="123" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>7</v>
       </c>
@@ -5639,7 +5642,7 @@
         <v>28.8579498399227</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="124" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>7</v>
       </c>
@@ -5684,7 +5687,7 @@
         <v>28.8579498399227</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="125" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>7</v>
       </c>
@@ -5729,7 +5732,7 @@
         <v>16.803710988831707</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="126" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>7</v>
       </c>
@@ -5774,7 +5777,7 @@
         <v>16.803710988831707</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="127" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>7</v>
       </c>
@@ -5819,7 +5822,7 @@
         <v>16.8037109888317</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="128" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>7</v>
       </c>
@@ -5864,7 +5867,7 @@
         <v>16.8037109888317</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="129" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>7</v>
       </c>
@@ -5909,7 +5912,7 @@
         <v>16.8037109888317</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="130" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>7</v>
       </c>
@@ -5954,7 +5957,7 @@
         <v>16.8037109888317</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="131" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>7</v>
       </c>
@@ -5999,7 +6002,7 @@
         <v>16.8037109888317</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="132" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>7</v>
       </c>
@@ -6044,7 +6047,7 @@
         <v>16.8037109888317</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="133" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>7</v>
       </c>
@@ -6089,7 +6092,7 @@
         <v>16.8037109888317</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="134" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>7</v>
       </c>
@@ -6134,7 +6137,7 @@
         <v>16.8037109888317</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="135" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>7</v>
       </c>
@@ -6179,7 +6182,7 @@
         <v>16.8037109888317</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="136" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>7</v>
       </c>
@@ -6224,7 +6227,7 @@
         <v>13.47767513842691</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="137" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>7</v>
       </c>
@@ -6269,7 +6272,7 @@
         <v>13.47767513842691</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="138" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>7</v>
       </c>
@@ -6314,7 +6317,7 @@
         <v>13.4776751384269</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="139" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>7</v>
       </c>
@@ -6359,7 +6362,7 @@
         <v>13.4776751384269</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="140" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>7</v>
       </c>
@@ -6404,7 +6407,7 @@
         <v>13.4776751384269</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="141" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>7</v>
       </c>
@@ -6449,7 +6452,7 @@
         <v>13.4776751384269</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="142" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>7</v>
       </c>
@@ -6494,7 +6497,7 @@
         <v>13.4776751384269</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="143" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>7</v>
       </c>
@@ -6539,7 +6542,7 @@
         <v>13.4776751384269</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="144" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>7</v>
       </c>
@@ -6584,7 +6587,7 @@
         <v>13.4776751384269</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="145" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>7</v>
       </c>
@@ -6629,7 +6632,7 @@
         <v>13.4776751384269</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="146" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>7</v>
       </c>
@@ -6674,7 +6677,7 @@
         <v>13.4776751384269</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="147" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>7</v>
       </c>
@@ -6719,7 +6722,7 @@
         <v>13.420825268418511</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="148" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>7</v>
       </c>
@@ -6764,7 +6767,7 @@
         <v>13.420825268418511</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="149" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>7</v>
       </c>
@@ -6809,7 +6812,7 @@
         <v>13.420825268418501</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="150" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>7</v>
       </c>
@@ -6854,7 +6857,7 @@
         <v>13.420825268418501</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="151" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>7</v>
       </c>
@@ -6899,7 +6902,7 @@
         <v>13.420825268418501</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="152" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>7</v>
       </c>
@@ -6944,7 +6947,7 @@
         <v>13.420825268418501</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="153" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>7</v>
       </c>
@@ -6989,7 +6992,7 @@
         <v>13.420825268418501</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="154" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>7</v>
       </c>
@@ -7034,7 +7037,7 @@
         <v>13.420825268418501</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="155" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>7</v>
       </c>
@@ -7079,7 +7082,7 @@
         <v>13.420825268418501</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="156" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>7</v>
       </c>
@@ -7124,7 +7127,7 @@
         <v>13.420825268418501</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="157" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>7</v>
       </c>
@@ -7169,7 +7172,7 @@
         <v>12.677881754313882</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="158" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>7</v>
       </c>
@@ -7214,7 +7217,7 @@
         <v>12.677881754313882</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="159" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>7</v>
       </c>
@@ -7259,7 +7262,7 @@
         <v>12.6778817543139</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="160" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>7</v>
       </c>
@@ -7304,7 +7307,7 @@
         <v>12.6778817543139</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="161" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>7</v>
       </c>
@@ -7349,7 +7352,7 @@
         <v>12.6778817543139</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="162" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>7</v>
       </c>
@@ -7394,7 +7397,7 @@
         <v>12.6778817543139</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="163" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>7</v>
       </c>
@@ -7439,7 +7442,7 @@
         <v>12.291954267803135</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="164" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>7</v>
       </c>
@@ -7484,7 +7487,7 @@
         <v>12.291954267803135</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="165" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>7</v>
       </c>
@@ -7529,7 +7532,7 @@
         <v>12.291954267803099</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="166" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>7</v>
       </c>
@@ -7574,7 +7577,7 @@
         <v>12.291954267803099</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="167" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>7</v>
       </c>
@@ -7619,7 +7622,7 @@
         <v>12.291954267803099</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="168" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>7</v>
       </c>
@@ -7664,7 +7667,7 @@
         <v>12.291954267803099</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="169" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>7</v>
       </c>
@@ -7709,7 +7712,7 @@
         <v>12.291954267803099</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="170" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>7</v>
       </c>
@@ -7754,7 +7757,7 @@
         <v>12.291954267803099</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="171" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>7</v>
       </c>
@@ -7799,7 +7802,7 @@
         <v>12.291954267803099</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="172" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>7</v>
       </c>
@@ -7844,7 +7847,7 @@
         <v>12.291954267803099</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="173" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>7</v>
       </c>
@@ -7889,7 +7892,7 @@
         <v>11.425130911221268</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="174" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>7</v>
       </c>
@@ -7934,7 +7937,7 @@
         <v>11.425130911221268</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="175" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>7</v>
       </c>
@@ -7979,7 +7982,7 @@
         <v>11.4251309112213</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="176" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>7</v>
       </c>
@@ -8024,7 +8027,7 @@
         <v>11.4251309112213</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="177" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>7</v>
       </c>
@@ -8069,7 +8072,7 @@
         <v>11.4251309112213</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="178" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>7</v>
       </c>
@@ -8114,7 +8117,7 @@
         <v>11.4251309112213</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="179" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>7</v>
       </c>
@@ -8159,7 +8162,7 @@
         <v>11.4251309112213</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="180" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>7</v>
       </c>
@@ -8204,7 +8207,7 @@
         <v>11.4251309112213</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="181" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>7</v>
       </c>
@@ -8249,7 +8252,7 @@
         <v>11.4251309112213</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="182" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>7</v>
       </c>
@@ -8294,7 +8297,7 @@
         <v>11.4251309112213</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="183" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>7</v>
       </c>
@@ -8339,7 +8342,7 @@
         <v>11.4251309112213</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="184" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>7</v>
       </c>
@@ -8384,7 +8387,7 @@
         <v>14.636954289225409</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="185" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>7</v>
       </c>
@@ -8429,7 +8432,7 @@
         <v>14.636954289225409</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="186" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>7</v>
       </c>
@@ -8474,7 +8477,7 @@
         <v>14.6369542892254</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="187" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>7</v>
       </c>
@@ -8519,7 +8522,7 @@
         <v>14.6369542892254</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="188" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>7</v>
       </c>
@@ -8564,7 +8567,7 @@
         <v>14.6369542892254</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="189" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>7</v>
       </c>
@@ -8609,7 +8612,7 @@
         <v>14.6369542892254</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="190" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>7</v>
       </c>
@@ -8654,7 +8657,7 @@
         <v>14.6369542892254</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="191" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>7</v>
       </c>
@@ -8699,7 +8702,7 @@
         <v>14.6369542892254</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="192" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>7</v>
       </c>
@@ -8744,7 +8747,7 @@
         <v>14.6369542892254</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="193" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>7</v>
       </c>
@@ -8789,8 +8792,2763 @@
         <v>14.6369542892254</v>
       </c>
     </row>
+    <row r="195">
+      <c r="A195" s="0">
+        <v>0</v>
+      </c>
+      <c r="B195" s="0">
+        <v>28</v>
+      </c>
+      <c r="C195" s="0">
+        <v>1</v>
+      </c>
+      <c r="D195" s="0">
+        <v>0.43322426770219091</v>
+      </c>
+      <c r="E195" s="0">
+        <v>34</v>
+      </c>
+      <c r="F195" s="0">
+        <v>0</v>
+      </c>
+      <c r="G195" s="0">
+        <v>53053</v>
+      </c>
+      <c r="H195" s="0">
+        <v>6940128</v>
+      </c>
+      <c r="I195" s="0">
+        <v>130.8149963244303</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="0">
+        <v>0</v>
+      </c>
+      <c r="B196" s="0">
+        <v>28</v>
+      </c>
+      <c r="C196" s="0">
+        <v>2</v>
+      </c>
+      <c r="D196" s="0">
+        <v>0.3576642326653563</v>
+      </c>
+      <c r="E196" s="0">
+        <v>34</v>
+      </c>
+      <c r="F196" s="0">
+        <v>0</v>
+      </c>
+      <c r="G196" s="0">
+        <v>46888</v>
+      </c>
+      <c r="H196" s="0">
+        <v>5729678</v>
+      </c>
+      <c r="I196" s="0">
+        <v>122.19924074390036</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="0">
+        <v>0</v>
+      </c>
+      <c r="B197" s="0">
+        <v>28</v>
+      </c>
+      <c r="C197" s="0">
+        <v>3</v>
+      </c>
+      <c r="D197" s="0">
+        <v>0.33601496706058137</v>
+      </c>
+      <c r="E197" s="0">
+        <v>34</v>
+      </c>
+      <c r="F197" s="0">
+        <v>0</v>
+      </c>
+      <c r="G197" s="0">
+        <v>40215</v>
+      </c>
+      <c r="H197" s="0">
+        <v>5382863</v>
+      </c>
+      <c r="I197" s="0">
+        <v>133.85211985577521</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="0">
+        <v>0</v>
+      </c>
+      <c r="B198" s="0">
+        <v>28</v>
+      </c>
+      <c r="C198" s="0">
+        <v>4</v>
+      </c>
+      <c r="D198" s="0">
+        <v>0.37055054422950923</v>
+      </c>
+      <c r="E198" s="0">
+        <v>34</v>
+      </c>
+      <c r="F198" s="0">
+        <v>0</v>
+      </c>
+      <c r="G198" s="0">
+        <v>43183</v>
+      </c>
+      <c r="H198" s="0">
+        <v>5936113</v>
+      </c>
+      <c r="I198" s="0">
+        <v>137.46411782414376</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="0">
+        <v>0</v>
+      </c>
+      <c r="B199" s="0">
+        <v>28</v>
+      </c>
+      <c r="C199" s="0">
+        <v>5</v>
+      </c>
+      <c r="D199" s="0">
+        <v>0.32226634286558958</v>
+      </c>
+      <c r="E199" s="0">
+        <v>34</v>
+      </c>
+      <c r="F199" s="0">
+        <v>0</v>
+      </c>
+      <c r="G199" s="0">
+        <v>40668</v>
+      </c>
+      <c r="H199" s="0">
+        <v>5162614</v>
+      </c>
+      <c r="I199" s="0">
+        <v>126.94536244713288</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="0">
+        <v>0</v>
+      </c>
+      <c r="B200" s="0">
+        <v>29</v>
+      </c>
+      <c r="C200" s="0">
+        <v>1</v>
+      </c>
+      <c r="D200" s="0">
+        <v>0.37069917361810251</v>
+      </c>
+      <c r="E200" s="0">
+        <v>34</v>
+      </c>
+      <c r="F200" s="0">
+        <v>0</v>
+      </c>
+      <c r="G200" s="0">
+        <v>46768</v>
+      </c>
+      <c r="H200" s="0">
+        <v>5938494</v>
+      </c>
+      <c r="I200" s="0">
+        <v>126.97771980841601</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="0">
+        <v>0</v>
+      </c>
+      <c r="B201" s="0">
+        <v>29</v>
+      </c>
+      <c r="C201" s="0">
+        <v>2</v>
+      </c>
+      <c r="D201" s="0">
+        <v>0.3908048409359669</v>
+      </c>
+      <c r="E201" s="0">
+        <v>34</v>
+      </c>
+      <c r="F201" s="0">
+        <v>0</v>
+      </c>
+      <c r="G201" s="0">
+        <v>46131</v>
+      </c>
+      <c r="H201" s="0">
+        <v>6260581</v>
+      </c>
+      <c r="I201" s="0">
+        <v>135.71309965099391</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="0">
+        <v>0</v>
+      </c>
+      <c r="B202" s="0">
+        <v>29</v>
+      </c>
+      <c r="C202" s="0">
+        <v>3</v>
+      </c>
+      <c r="D202" s="0">
+        <v>0.36375098378797321</v>
+      </c>
+      <c r="E202" s="0">
+        <v>34</v>
+      </c>
+      <c r="F202" s="0">
+        <v>0</v>
+      </c>
+      <c r="G202" s="0">
+        <v>47802</v>
+      </c>
+      <c r="H202" s="0">
+        <v>5827186</v>
+      </c>
+      <c r="I202" s="0">
+        <v>121.90255637839421</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="0">
+        <v>0</v>
+      </c>
+      <c r="B203" s="0">
+        <v>29</v>
+      </c>
+      <c r="C203" s="0">
+        <v>4</v>
+      </c>
+      <c r="D203" s="0">
+        <v>0.38790116826070281</v>
+      </c>
+      <c r="E203" s="0">
+        <v>34</v>
+      </c>
+      <c r="F203" s="0">
+        <v>0</v>
+      </c>
+      <c r="G203" s="0">
+        <v>48661</v>
+      </c>
+      <c r="H203" s="0">
+        <v>6214065</v>
+      </c>
+      <c r="I203" s="0">
+        <v>127.70113643369433</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="0">
+        <v>0</v>
+      </c>
+      <c r="B204" s="0">
+        <v>29</v>
+      </c>
+      <c r="C204" s="0">
+        <v>5</v>
+      </c>
+      <c r="D204" s="0">
+        <v>0.37318679636687602</v>
+      </c>
+      <c r="E204" s="0">
+        <v>34</v>
+      </c>
+      <c r="F204" s="0">
+        <v>0</v>
+      </c>
+      <c r="G204" s="0">
+        <v>47256</v>
+      </c>
+      <c r="H204" s="0">
+        <v>5978345</v>
+      </c>
+      <c r="I204" s="0">
+        <v>126.50975537497884</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="0">
+        <v>7</v>
+      </c>
+      <c r="B205" s="0">
+        <v>12</v>
+      </c>
+      <c r="C205" s="0">
+        <v>1</v>
+      </c>
+      <c r="D205" s="0">
+        <v>0.39357573968870352</v>
+      </c>
+      <c r="E205" s="0">
+        <v>34</v>
+      </c>
+      <c r="F205" s="0">
+        <v>0</v>
+      </c>
+      <c r="G205" s="0">
+        <v>50783</v>
+      </c>
+      <c r="H205" s="0">
+        <v>6304970</v>
+      </c>
+      <c r="I205" s="0">
+        <v>124.15513065395901</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="0">
+        <v>7</v>
+      </c>
+      <c r="B206" s="0">
+        <v>12</v>
+      </c>
+      <c r="C206" s="0">
+        <v>2</v>
+      </c>
+      <c r="D206" s="0">
+        <v>0.39696038230899533</v>
+      </c>
+      <c r="E206" s="0">
+        <v>34</v>
+      </c>
+      <c r="F206" s="0">
+        <v>0</v>
+      </c>
+      <c r="G206" s="0">
+        <v>55412</v>
+      </c>
+      <c r="H206" s="0">
+        <v>6359191</v>
+      </c>
+      <c r="I206" s="0">
+        <v>114.76198296397892</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="0">
+        <v>7</v>
+      </c>
+      <c r="B207" s="0">
+        <v>12</v>
+      </c>
+      <c r="C207" s="0">
+        <v>3</v>
+      </c>
+      <c r="D207" s="0">
+        <v>0.41878343380954663</v>
+      </c>
+      <c r="E207" s="0">
+        <v>34</v>
+      </c>
+      <c r="F207" s="0">
+        <v>0</v>
+      </c>
+      <c r="G207" s="0">
+        <v>54978</v>
+      </c>
+      <c r="H207" s="0">
+        <v>6708790</v>
+      </c>
+      <c r="I207" s="0">
+        <v>122.02681072428972</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="0">
+        <v>7</v>
+      </c>
+      <c r="B208" s="0">
+        <v>12</v>
+      </c>
+      <c r="C208" s="0">
+        <v>4</v>
+      </c>
+      <c r="D208" s="0">
+        <v>0.43431236466673057</v>
+      </c>
+      <c r="E208" s="0">
+        <v>34</v>
+      </c>
+      <c r="F208" s="0">
+        <v>0</v>
+      </c>
+      <c r="G208" s="0">
+        <v>57195</v>
+      </c>
+      <c r="H208" s="0">
+        <v>6957559</v>
+      </c>
+      <c r="I208" s="0">
+        <v>121.64628026925431</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="0">
+        <v>7</v>
+      </c>
+      <c r="B209" s="0">
+        <v>12</v>
+      </c>
+      <c r="C209" s="0">
+        <v>5</v>
+      </c>
+      <c r="D209" s="0">
+        <v>0.36216649837400322</v>
+      </c>
+      <c r="E209" s="0">
+        <v>34</v>
+      </c>
+      <c r="F209" s="0">
+        <v>0</v>
+      </c>
+      <c r="G209" s="0">
+        <v>48544</v>
+      </c>
+      <c r="H209" s="0">
+        <v>5801803</v>
+      </c>
+      <c r="I209" s="0">
+        <v>119.51637689518788</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="0">
+        <v>7</v>
+      </c>
+      <c r="B210" s="0">
+        <v>13</v>
+      </c>
+      <c r="C210" s="0">
+        <v>1</v>
+      </c>
+      <c r="D210" s="0">
+        <v>0.44913784966920756</v>
+      </c>
+      <c r="E210" s="0">
+        <v>34</v>
+      </c>
+      <c r="F210" s="0">
+        <v>0</v>
+      </c>
+      <c r="G210" s="0">
+        <v>58125</v>
+      </c>
+      <c r="H210" s="0">
+        <v>7195059</v>
+      </c>
+      <c r="I210" s="0">
+        <v>123.78596129032258</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="0">
+        <v>7</v>
+      </c>
+      <c r="B211" s="0">
+        <v>13</v>
+      </c>
+      <c r="C211" s="0">
+        <v>2</v>
+      </c>
+      <c r="D211" s="0">
+        <v>0.52081217190421403</v>
+      </c>
+      <c r="E211" s="0">
+        <v>34</v>
+      </c>
+      <c r="F211" s="0">
+        <v>0</v>
+      </c>
+      <c r="G211" s="0">
+        <v>67005</v>
+      </c>
+      <c r="H211" s="0">
+        <v>8343261</v>
+      </c>
+      <c r="I211" s="0">
+        <v>124.51699126930826</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="0">
+        <v>7</v>
+      </c>
+      <c r="B212" s="0">
+        <v>13</v>
+      </c>
+      <c r="C212" s="0">
+        <v>3</v>
+      </c>
+      <c r="D212" s="0">
+        <v>0.51602869015373065</v>
+      </c>
+      <c r="E212" s="0">
+        <v>34</v>
+      </c>
+      <c r="F212" s="0">
+        <v>0</v>
+      </c>
+      <c r="G212" s="0">
+        <v>68324</v>
+      </c>
+      <c r="H212" s="0">
+        <v>8266631</v>
+      </c>
+      <c r="I212" s="0">
+        <v>120.99161348867162</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="0">
+        <v>7</v>
+      </c>
+      <c r="B213" s="0">
+        <v>13</v>
+      </c>
+      <c r="C213" s="0">
+        <v>4</v>
+      </c>
+      <c r="D213" s="0">
+        <v>0.4703824263507359</v>
+      </c>
+      <c r="E213" s="0">
+        <v>34</v>
+      </c>
+      <c r="F213" s="0">
+        <v>0</v>
+      </c>
+      <c r="G213" s="0">
+        <v>59639</v>
+      </c>
+      <c r="H213" s="0">
+        <v>7535391</v>
+      </c>
+      <c r="I213" s="0">
+        <v>126.35005617129731</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="0">
+        <v>7</v>
+      </c>
+      <c r="B214" s="0">
+        <v>13</v>
+      </c>
+      <c r="C214" s="0">
+        <v>5</v>
+      </c>
+      <c r="D214" s="0">
+        <v>0.44928984990491716</v>
+      </c>
+      <c r="E214" s="0">
+        <v>34</v>
+      </c>
+      <c r="F214" s="0">
+        <v>0</v>
+      </c>
+      <c r="G214" s="0">
+        <v>57201</v>
+      </c>
+      <c r="H214" s="0">
+        <v>7197494</v>
+      </c>
+      <c r="I214" s="0">
+        <v>125.82811489309627</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="0">
+        <v>7</v>
+      </c>
+      <c r="B215" s="0">
+        <v>14</v>
+      </c>
+      <c r="C215" s="0">
+        <v>1</v>
+      </c>
+      <c r="D215" s="0">
+        <v>0.47358710318887132</v>
+      </c>
+      <c r="E215" s="0">
+        <v>34</v>
+      </c>
+      <c r="F215" s="0">
+        <v>0</v>
+      </c>
+      <c r="G215" s="0">
+        <v>72250</v>
+      </c>
+      <c r="H215" s="0">
+        <v>7586729</v>
+      </c>
+      <c r="I215" s="0">
+        <v>105.00662975778546</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="0">
+        <v>7</v>
+      </c>
+      <c r="B216" s="0">
+        <v>14</v>
+      </c>
+      <c r="C216" s="0">
+        <v>2</v>
+      </c>
+      <c r="D216" s="0">
+        <v>0.4565909799127475</v>
+      </c>
+      <c r="E216" s="0">
+        <v>34</v>
+      </c>
+      <c r="F216" s="0">
+        <v>0</v>
+      </c>
+      <c r="G216" s="0">
+        <v>73567</v>
+      </c>
+      <c r="H216" s="0">
+        <v>7314456</v>
+      </c>
+      <c r="I216" s="0">
+        <v>99.42577514374652</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="0">
+        <v>7</v>
+      </c>
+      <c r="B217" s="0">
+        <v>14</v>
+      </c>
+      <c r="C217" s="0">
+        <v>3</v>
+      </c>
+      <c r="D217" s="0">
+        <v>0.46251636733544271</v>
+      </c>
+      <c r="E217" s="0">
+        <v>34</v>
+      </c>
+      <c r="F217" s="0">
+        <v>0</v>
+      </c>
+      <c r="G217" s="0">
+        <v>71964</v>
+      </c>
+      <c r="H217" s="0">
+        <v>7409379</v>
+      </c>
+      <c r="I217" s="0">
+        <v>102.95952142738035</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="0">
+        <v>7</v>
+      </c>
+      <c r="B218" s="0">
+        <v>14</v>
+      </c>
+      <c r="C218" s="0">
+        <v>4</v>
+      </c>
+      <c r="D218" s="0">
+        <v>0.41654100897694041</v>
+      </c>
+      <c r="E218" s="0">
+        <v>34</v>
+      </c>
+      <c r="F218" s="0">
+        <v>0</v>
+      </c>
+      <c r="G218" s="0">
+        <v>61291</v>
+      </c>
+      <c r="H218" s="0">
+        <v>6672867</v>
+      </c>
+      <c r="I218" s="0">
+        <v>108.87188983700706</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="0">
+        <v>7</v>
+      </c>
+      <c r="B219" s="0">
+        <v>14</v>
+      </c>
+      <c r="C219" s="0">
+        <v>5</v>
+      </c>
+      <c r="D219" s="0">
+        <v>0.41762423694008982</v>
+      </c>
+      <c r="E219" s="0">
+        <v>34</v>
+      </c>
+      <c r="F219" s="0">
+        <v>0</v>
+      </c>
+      <c r="G219" s="0">
+        <v>63148</v>
+      </c>
+      <c r="H219" s="0">
+        <v>6690220</v>
+      </c>
+      <c r="I219" s="0">
+        <v>105.94508139608538</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="0">
+        <v>7</v>
+      </c>
+      <c r="B220" s="0">
+        <v>15</v>
+      </c>
+      <c r="C220" s="0">
+        <v>1</v>
+      </c>
+      <c r="D220" s="0">
+        <v>0.39819748320069676</v>
+      </c>
+      <c r="E220" s="0">
+        <v>34</v>
+      </c>
+      <c r="F220" s="0">
+        <v>0</v>
+      </c>
+      <c r="G220" s="0">
+        <v>53621</v>
+      </c>
+      <c r="H220" s="0">
+        <v>6379009</v>
+      </c>
+      <c r="I220" s="0">
+        <v>118.96475261557971</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="0">
+        <v>7</v>
+      </c>
+      <c r="B221" s="0">
+        <v>15</v>
+      </c>
+      <c r="C221" s="0">
+        <v>2</v>
+      </c>
+      <c r="D221" s="0">
+        <v>0.42635142254742159</v>
+      </c>
+      <c r="E221" s="0">
+        <v>34</v>
+      </c>
+      <c r="F221" s="0">
+        <v>0</v>
+      </c>
+      <c r="G221" s="0">
+        <v>53821</v>
+      </c>
+      <c r="H221" s="0">
+        <v>6830027</v>
+      </c>
+      <c r="I221" s="0">
+        <v>126.90264023336616</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="0">
+        <v>7</v>
+      </c>
+      <c r="B222" s="0">
+        <v>15</v>
+      </c>
+      <c r="C222" s="0">
+        <v>3</v>
+      </c>
+      <c r="D222" s="0">
+        <v>0.48297666025456637</v>
+      </c>
+      <c r="E222" s="0">
+        <v>34</v>
+      </c>
+      <c r="F222" s="0">
+        <v>0</v>
+      </c>
+      <c r="G222" s="0">
+        <v>58597</v>
+      </c>
+      <c r="H222" s="0">
+        <v>7737147</v>
+      </c>
+      <c r="I222" s="0">
+        <v>132.03998498216632</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="0">
+        <v>7</v>
+      </c>
+      <c r="B223" s="0">
+        <v>15</v>
+      </c>
+      <c r="C223" s="0">
+        <v>4</v>
+      </c>
+      <c r="D223" s="0">
+        <v>0.45397445347332088</v>
+      </c>
+      <c r="E223" s="0">
+        <v>34</v>
+      </c>
+      <c r="F223" s="0">
+        <v>0</v>
+      </c>
+      <c r="G223" s="0">
+        <v>60617</v>
+      </c>
+      <c r="H223" s="0">
+        <v>7272540</v>
+      </c>
+      <c r="I223" s="0">
+        <v>119.97525446656879</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="0">
+        <v>7</v>
+      </c>
+      <c r="B224" s="0">
+        <v>15</v>
+      </c>
+      <c r="C224" s="0">
+        <v>5</v>
+      </c>
+      <c r="D224" s="0">
+        <v>0.42840863805791263</v>
+      </c>
+      <c r="E224" s="0">
+        <v>34</v>
+      </c>
+      <c r="F224" s="0">
+        <v>0</v>
+      </c>
+      <c r="G224" s="0">
+        <v>55304</v>
+      </c>
+      <c r="H224" s="0">
+        <v>6862983</v>
+      </c>
+      <c r="I224" s="0">
+        <v>124.09559887169101</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="0">
+        <v>7</v>
+      </c>
+      <c r="B225" s="0">
+        <v>16</v>
+      </c>
+      <c r="C225" s="0">
+        <v>1</v>
+      </c>
+      <c r="D225" s="0">
+        <v>0.49024233394458028</v>
+      </c>
+      <c r="E225" s="0">
+        <v>34</v>
+      </c>
+      <c r="F225" s="0">
+        <v>0</v>
+      </c>
+      <c r="G225" s="0">
+        <v>56976</v>
+      </c>
+      <c r="H225" s="0">
+        <v>7853541</v>
+      </c>
+      <c r="I225" s="0">
+        <v>137.83945871946082</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="0">
+        <v>7</v>
+      </c>
+      <c r="B226" s="0">
+        <v>16</v>
+      </c>
+      <c r="C226" s="0">
+        <v>2</v>
+      </c>
+      <c r="D226" s="0">
+        <v>0.48172576385892579</v>
+      </c>
+      <c r="E226" s="0">
+        <v>34</v>
+      </c>
+      <c r="F226" s="0">
+        <v>0</v>
+      </c>
+      <c r="G226" s="0">
+        <v>64945</v>
+      </c>
+      <c r="H226" s="0">
+        <v>7717108</v>
+      </c>
+      <c r="I226" s="0">
+        <v>118.82528293171144</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="0">
+        <v>7</v>
+      </c>
+      <c r="B227" s="0">
+        <v>16</v>
+      </c>
+      <c r="C227" s="0">
+        <v>3</v>
+      </c>
+      <c r="D227" s="0">
+        <v>0.46595650408696487</v>
+      </c>
+      <c r="E227" s="0">
+        <v>34</v>
+      </c>
+      <c r="F227" s="0">
+        <v>0</v>
+      </c>
+      <c r="G227" s="0">
+        <v>57985</v>
+      </c>
+      <c r="H227" s="0">
+        <v>7464489</v>
+      </c>
+      <c r="I227" s="0">
+        <v>128.73137880486334</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="0">
+        <v>7</v>
+      </c>
+      <c r="B228" s="0">
+        <v>16</v>
+      </c>
+      <c r="C228" s="0">
+        <v>4</v>
+      </c>
+      <c r="D228" s="0">
+        <v>0.53513003230020617</v>
+      </c>
+      <c r="E228" s="0">
+        <v>34</v>
+      </c>
+      <c r="F228" s="0">
+        <v>0</v>
+      </c>
+      <c r="G228" s="0">
+        <v>54870</v>
+      </c>
+      <c r="H228" s="0">
+        <v>8572629</v>
+      </c>
+      <c r="I228" s="0">
+        <v>156.23526517222527</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="0">
+        <v>7</v>
+      </c>
+      <c r="B229" s="0">
+        <v>16</v>
+      </c>
+      <c r="C229" s="0">
+        <v>5</v>
+      </c>
+      <c r="D229" s="0">
+        <v>0.55882977172123949</v>
+      </c>
+      <c r="E229" s="0">
+        <v>34</v>
+      </c>
+      <c r="F229" s="0">
+        <v>0</v>
+      </c>
+      <c r="G229" s="0">
+        <v>73546</v>
+      </c>
+      <c r="H229" s="0">
+        <v>8952292</v>
+      </c>
+      <c r="I229" s="0">
+        <v>121.72371033094934</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="0">
+        <v>7</v>
+      </c>
+      <c r="B230" s="0">
+        <v>17</v>
+      </c>
+      <c r="C230" s="0">
+        <v>1</v>
+      </c>
+      <c r="D230" s="0">
+        <v>0.47628840019096474</v>
+      </c>
+      <c r="E230" s="0">
+        <v>34</v>
+      </c>
+      <c r="F230" s="0">
+        <v>0</v>
+      </c>
+      <c r="G230" s="0">
+        <v>72093</v>
+      </c>
+      <c r="H230" s="0">
+        <v>7630003</v>
+      </c>
+      <c r="I230" s="0">
+        <v>105.83555962437407</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="0">
+        <v>7</v>
+      </c>
+      <c r="B231" s="0">
+        <v>17</v>
+      </c>
+      <c r="C231" s="0">
+        <v>2</v>
+      </c>
+      <c r="D231" s="0">
+        <v>0.44441148505041789</v>
+      </c>
+      <c r="E231" s="0">
+        <v>34</v>
+      </c>
+      <c r="F231" s="0">
+        <v>0</v>
+      </c>
+      <c r="G231" s="0">
+        <v>64251</v>
+      </c>
+      <c r="H231" s="0">
+        <v>7119344</v>
+      </c>
+      <c r="I231" s="0">
+        <v>110.80518591150333</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="0">
+        <v>7</v>
+      </c>
+      <c r="B232" s="0">
+        <v>17</v>
+      </c>
+      <c r="C232" s="0">
+        <v>3</v>
+      </c>
+      <c r="D232" s="0">
+        <v>0.4223359945547086</v>
+      </c>
+      <c r="E232" s="0">
+        <v>34</v>
+      </c>
+      <c r="F232" s="0">
+        <v>0</v>
+      </c>
+      <c r="G232" s="0">
+        <v>63185</v>
+      </c>
+      <c r="H232" s="0">
+        <v>6765701</v>
+      </c>
+      <c r="I232" s="0">
+        <v>107.07764501068291</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="0">
+        <v>7</v>
+      </c>
+      <c r="B233" s="0">
+        <v>17</v>
+      </c>
+      <c r="C233" s="0">
+        <v>4</v>
+      </c>
+      <c r="D233" s="0">
+        <v>0.42324287727519694</v>
+      </c>
+      <c r="E233" s="0">
+        <v>34</v>
+      </c>
+      <c r="F233" s="0">
+        <v>0</v>
+      </c>
+      <c r="G233" s="0">
+        <v>62351</v>
+      </c>
+      <c r="H233" s="0">
+        <v>6780229</v>
+      </c>
+      <c r="I233" s="0">
+        <v>108.74290709050376</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="0">
+        <v>7</v>
+      </c>
+      <c r="B234" s="0">
+        <v>17</v>
+      </c>
+      <c r="C234" s="0">
+        <v>5</v>
+      </c>
+      <c r="D234" s="0">
+        <v>0.45076884028876424</v>
+      </c>
+      <c r="E234" s="0">
+        <v>34</v>
+      </c>
+      <c r="F234" s="0">
+        <v>0</v>
+      </c>
+      <c r="G234" s="0">
+        <v>60849</v>
+      </c>
+      <c r="H234" s="0">
+        <v>7221187</v>
+      </c>
+      <c r="I234" s="0">
+        <v>118.67388124702131</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="0">
+        <v>7</v>
+      </c>
+      <c r="B235" s="0">
+        <v>18</v>
+      </c>
+      <c r="C235" s="0">
+        <v>1</v>
+      </c>
+      <c r="D235" s="0">
+        <v>0.48911771946961341</v>
+      </c>
+      <c r="E235" s="0">
+        <v>34</v>
+      </c>
+      <c r="F235" s="0">
+        <v>0</v>
+      </c>
+      <c r="G235" s="0">
+        <v>60649</v>
+      </c>
+      <c r="H235" s="0">
+        <v>7835525</v>
+      </c>
+      <c r="I235" s="0">
+        <v>129.19462810598691</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="0">
+        <v>7</v>
+      </c>
+      <c r="B236" s="0">
+        <v>18</v>
+      </c>
+      <c r="C236" s="0">
+        <v>2</v>
+      </c>
+      <c r="D236" s="0">
+        <v>0.51163972236204991</v>
+      </c>
+      <c r="E236" s="0">
+        <v>34</v>
+      </c>
+      <c r="F236" s="0">
+        <v>0</v>
+      </c>
+      <c r="G236" s="0">
+        <v>63075</v>
+      </c>
+      <c r="H236" s="0">
+        <v>8196321</v>
+      </c>
+      <c r="I236" s="0">
+        <v>129.94563614744351</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="0">
+        <v>7</v>
+      </c>
+      <c r="B237" s="0">
+        <v>18</v>
+      </c>
+      <c r="C237" s="0">
+        <v>3</v>
+      </c>
+      <c r="D237" s="0">
+        <v>0.52948960630503217</v>
+      </c>
+      <c r="E237" s="0">
+        <v>34</v>
+      </c>
+      <c r="F237" s="0">
+        <v>0</v>
+      </c>
+      <c r="G237" s="0">
+        <v>67598</v>
+      </c>
+      <c r="H237" s="0">
+        <v>8482271</v>
+      </c>
+      <c r="I237" s="0">
+        <v>125.48109411521051</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="0">
+        <v>7</v>
+      </c>
+      <c r="B238" s="0">
+        <v>18</v>
+      </c>
+      <c r="C238" s="0">
+        <v>4</v>
+      </c>
+      <c r="D238" s="0">
+        <v>0.53263429454911548</v>
+      </c>
+      <c r="E238" s="0">
+        <v>34</v>
+      </c>
+      <c r="F238" s="0">
+        <v>0</v>
+      </c>
+      <c r="G238" s="0">
+        <v>65531</v>
+      </c>
+      <c r="H238" s="0">
+        <v>8532648</v>
+      </c>
+      <c r="I238" s="0">
+        <v>130.20781004410125</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="0">
+        <v>7</v>
+      </c>
+      <c r="B239" s="0">
+        <v>18</v>
+      </c>
+      <c r="C239" s="0">
+        <v>5</v>
+      </c>
+      <c r="D239" s="0">
+        <v>0.47381288752257217</v>
+      </c>
+      <c r="E239" s="0">
+        <v>34</v>
+      </c>
+      <c r="F239" s="0">
+        <v>0</v>
+      </c>
+      <c r="G239" s="0">
+        <v>65226</v>
+      </c>
+      <c r="H239" s="0">
+        <v>7590346</v>
+      </c>
+      <c r="I239" s="0">
+        <v>116.36994450065924</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="0">
+        <v>7</v>
+      </c>
+      <c r="B240" s="0">
+        <v>19</v>
+      </c>
+      <c r="C240" s="0">
+        <v>1</v>
+      </c>
+      <c r="D240" s="0">
+        <v>0.53566212675983194</v>
+      </c>
+      <c r="E240" s="0">
+        <v>34</v>
+      </c>
+      <c r="F240" s="0">
+        <v>0</v>
+      </c>
+      <c r="G240" s="0">
+        <v>66656</v>
+      </c>
+      <c r="H240" s="0">
+        <v>8581153</v>
+      </c>
+      <c r="I240" s="0">
+        <v>128.73789306289007</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="0">
+        <v>7</v>
+      </c>
+      <c r="B241" s="0">
+        <v>19</v>
+      </c>
+      <c r="C241" s="0">
+        <v>2</v>
+      </c>
+      <c r="D241" s="0">
+        <v>0.50444533584623741</v>
+      </c>
+      <c r="E241" s="0">
+        <v>34</v>
+      </c>
+      <c r="F241" s="0">
+        <v>0</v>
+      </c>
+      <c r="G241" s="0">
+        <v>64647</v>
+      </c>
+      <c r="H241" s="0">
+        <v>8081069</v>
+      </c>
+      <c r="I241" s="0">
+        <v>125.00300091264869</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="0">
+        <v>7</v>
+      </c>
+      <c r="B242" s="0">
+        <v>19</v>
+      </c>
+      <c r="C242" s="0">
+        <v>3</v>
+      </c>
+      <c r="D242" s="0">
+        <v>0.48986417483660133</v>
+      </c>
+      <c r="E242" s="0">
+        <v>34</v>
+      </c>
+      <c r="F242" s="0">
+        <v>0</v>
+      </c>
+      <c r="G242" s="0">
+        <v>61285</v>
+      </c>
+      <c r="H242" s="0">
+        <v>7847483</v>
+      </c>
+      <c r="I242" s="0">
+        <v>128.04900057110223</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="0">
+        <v>7</v>
+      </c>
+      <c r="B243" s="0">
+        <v>19</v>
+      </c>
+      <c r="C243" s="0">
+        <v>4</v>
+      </c>
+      <c r="D243" s="0">
+        <v>0.47712112427489334</v>
+      </c>
+      <c r="E243" s="0">
+        <v>34</v>
+      </c>
+      <c r="F243" s="0">
+        <v>0</v>
+      </c>
+      <c r="G243" s="0">
+        <v>60976</v>
+      </c>
+      <c r="H243" s="0">
+        <v>7643343</v>
+      </c>
+      <c r="I243" s="0">
+        <v>125.35002295985306</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="0">
+        <v>7</v>
+      </c>
+      <c r="B244" s="0">
+        <v>19</v>
+      </c>
+      <c r="C244" s="0">
+        <v>5</v>
+      </c>
+      <c r="D244" s="0">
+        <v>0.56104510493072535</v>
+      </c>
+      <c r="E244" s="0">
+        <v>34</v>
+      </c>
+      <c r="F244" s="0">
+        <v>0</v>
+      </c>
+      <c r="G244" s="0">
+        <v>69237</v>
+      </c>
+      <c r="H244" s="0">
+        <v>8987781</v>
+      </c>
+      <c r="I244" s="0">
+        <v>129.81182026950907</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="0">
+        <v>7</v>
+      </c>
+      <c r="B245" s="0">
+        <v>20</v>
+      </c>
+      <c r="C245" s="0">
+        <v>1</v>
+      </c>
+      <c r="D245" s="0">
+        <v>0.41936858789970755</v>
+      </c>
+      <c r="E245" s="0">
+        <v>34</v>
+      </c>
+      <c r="F245" s="0">
+        <v>0</v>
+      </c>
+      <c r="G245" s="0">
+        <v>57612</v>
+      </c>
+      <c r="H245" s="0">
+        <v>6718164</v>
+      </c>
+      <c r="I245" s="0">
+        <v>116.61049781295563</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="0">
+        <v>7</v>
+      </c>
+      <c r="B246" s="0">
+        <v>20</v>
+      </c>
+      <c r="C246" s="0">
+        <v>2</v>
+      </c>
+      <c r="D246" s="0">
+        <v>0.41570741096968533</v>
+      </c>
+      <c r="E246" s="0">
+        <v>34</v>
+      </c>
+      <c r="F246" s="0">
+        <v>0</v>
+      </c>
+      <c r="G246" s="0">
+        <v>57258</v>
+      </c>
+      <c r="H246" s="0">
+        <v>6659513</v>
+      </c>
+      <c r="I246" s="0">
+        <v>116.30711865590834</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="0">
+        <v>7</v>
+      </c>
+      <c r="B247" s="0">
+        <v>20</v>
+      </c>
+      <c r="C247" s="0">
+        <v>3</v>
+      </c>
+      <c r="D247" s="0">
+        <v>0.43310753651501349</v>
+      </c>
+      <c r="E247" s="0">
+        <v>34</v>
+      </c>
+      <c r="F247" s="0">
+        <v>0</v>
+      </c>
+      <c r="G247" s="0">
+        <v>60802</v>
+      </c>
+      <c r="H247" s="0">
+        <v>6938258</v>
+      </c>
+      <c r="I247" s="0">
+        <v>114.11233183118976</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="0">
+        <v>7</v>
+      </c>
+      <c r="B248" s="0">
+        <v>20</v>
+      </c>
+      <c r="C248" s="0">
+        <v>4</v>
+      </c>
+      <c r="D248" s="0">
+        <v>0.3946604033830321</v>
+      </c>
+      <c r="E248" s="0">
+        <v>34</v>
+      </c>
+      <c r="F248" s="0">
+        <v>0</v>
+      </c>
+      <c r="G248" s="0">
+        <v>51813</v>
+      </c>
+      <c r="H248" s="0">
+        <v>6322346</v>
+      </c>
+      <c r="I248" s="0">
+        <v>122.02238820373266</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="0">
+        <v>7</v>
+      </c>
+      <c r="B249" s="0">
+        <v>20</v>
+      </c>
+      <c r="C249" s="0">
+        <v>5</v>
+      </c>
+      <c r="D249" s="0">
+        <v>0.36797590368665806</v>
+      </c>
+      <c r="E249" s="0">
+        <v>34</v>
+      </c>
+      <c r="F249" s="0">
+        <v>0</v>
+      </c>
+      <c r="G249" s="0">
+        <v>49744</v>
+      </c>
+      <c r="H249" s="0">
+        <v>5894868</v>
+      </c>
+      <c r="I249" s="0">
+        <v>118.50410099710518</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="0">
+        <v>7</v>
+      </c>
+      <c r="B250" s="0">
+        <v>21</v>
+      </c>
+      <c r="C250" s="0">
+        <v>1</v>
+      </c>
+      <c r="D250" s="0">
+        <v>0.51268050262077125</v>
+      </c>
+      <c r="E250" s="0">
+        <v>34</v>
+      </c>
+      <c r="F250" s="0">
+        <v>0</v>
+      </c>
+      <c r="G250" s="0">
+        <v>68081</v>
+      </c>
+      <c r="H250" s="0">
+        <v>8212994</v>
+      </c>
+      <c r="I250" s="0">
+        <v>120.63562521114555</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="0">
+        <v>7</v>
+      </c>
+      <c r="B251" s="0">
+        <v>21</v>
+      </c>
+      <c r="C251" s="0">
+        <v>2</v>
+      </c>
+      <c r="D251" s="0">
+        <v>0.44394630814836122</v>
+      </c>
+      <c r="E251" s="0">
+        <v>34</v>
+      </c>
+      <c r="F251" s="0">
+        <v>0</v>
+      </c>
+      <c r="G251" s="0">
+        <v>55815</v>
+      </c>
+      <c r="H251" s="0">
+        <v>7111892</v>
+      </c>
+      <c r="I251" s="0">
+        <v>127.41900922691033</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="0">
+        <v>7</v>
+      </c>
+      <c r="B252" s="0">
+        <v>21</v>
+      </c>
+      <c r="C252" s="0">
+        <v>3</v>
+      </c>
+      <c r="D252" s="0">
+        <v>0.45641207532320183</v>
+      </c>
+      <c r="E252" s="0">
+        <v>34</v>
+      </c>
+      <c r="F252" s="0">
+        <v>0</v>
+      </c>
+      <c r="G252" s="0">
+        <v>58008</v>
+      </c>
+      <c r="H252" s="0">
+        <v>7311590</v>
+      </c>
+      <c r="I252" s="0">
+        <v>126.04451110191698</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="0">
+        <v>7</v>
+      </c>
+      <c r="B253" s="0">
+        <v>21</v>
+      </c>
+      <c r="C253" s="0">
+        <v>4</v>
+      </c>
+      <c r="D253" s="0">
+        <v>0.44830643647026863</v>
+      </c>
+      <c r="E253" s="0">
+        <v>34</v>
+      </c>
+      <c r="F253" s="0">
+        <v>0</v>
+      </c>
+      <c r="G253" s="0">
+        <v>56099</v>
+      </c>
+      <c r="H253" s="0">
+        <v>7181740</v>
+      </c>
+      <c r="I253" s="0">
+        <v>128.01903777250931</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="0">
+        <v>7</v>
+      </c>
+      <c r="B254" s="0">
+        <v>21</v>
+      </c>
+      <c r="C254" s="0">
+        <v>5</v>
+      </c>
+      <c r="D254" s="0">
+        <v>0.50777579522028859</v>
+      </c>
+      <c r="E254" s="0">
+        <v>34</v>
+      </c>
+      <c r="F254" s="0">
+        <v>0</v>
+      </c>
+      <c r="G254" s="0">
+        <v>62982</v>
+      </c>
+      <c r="H254" s="0">
+        <v>8134422</v>
+      </c>
+      <c r="I254" s="0">
+        <v>129.15471086977232</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="0">
+        <v>7</v>
+      </c>
+      <c r="B255" s="0">
+        <v>22</v>
+      </c>
+      <c r="C255" s="0">
+        <v>1</v>
+      </c>
+      <c r="D255" s="0">
+        <v>0.45175737241718206</v>
+      </c>
+      <c r="E255" s="0">
+        <v>34</v>
+      </c>
+      <c r="F255" s="0">
+        <v>0</v>
+      </c>
+      <c r="G255" s="0">
+        <v>70128</v>
+      </c>
+      <c r="H255" s="0">
+        <v>7237023</v>
+      </c>
+      <c r="I255" s="0">
+        <v>103.19733915126626</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="0">
+        <v>7</v>
+      </c>
+      <c r="B256" s="0">
+        <v>22</v>
+      </c>
+      <c r="C256" s="0">
+        <v>2</v>
+      </c>
+      <c r="D256" s="0">
+        <v>0.45464138181760072</v>
+      </c>
+      <c r="E256" s="0">
+        <v>34</v>
+      </c>
+      <c r="F256" s="0">
+        <v>0</v>
+      </c>
+      <c r="G256" s="0">
+        <v>64936</v>
+      </c>
+      <c r="H256" s="0">
+        <v>7283224</v>
+      </c>
+      <c r="I256" s="0">
+        <v>112.16003449550327</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="0">
+        <v>7</v>
+      </c>
+      <c r="B257" s="0">
+        <v>22</v>
+      </c>
+      <c r="C257" s="0">
+        <v>3</v>
+      </c>
+      <c r="D257" s="0">
+        <v>0.46434879728174888</v>
+      </c>
+      <c r="E257" s="0">
+        <v>34</v>
+      </c>
+      <c r="F257" s="0">
+        <v>0</v>
+      </c>
+      <c r="G257" s="0">
+        <v>70671</v>
+      </c>
+      <c r="H257" s="0">
+        <v>7438734</v>
+      </c>
+      <c r="I257" s="0">
+        <v>105.2586492337734</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="0">
+        <v>7</v>
+      </c>
+      <c r="B258" s="0">
+        <v>22</v>
+      </c>
+      <c r="C258" s="0">
+        <v>4</v>
+      </c>
+      <c r="D258" s="0">
+        <v>0.41102293224747111</v>
+      </c>
+      <c r="E258" s="0">
+        <v>34</v>
+      </c>
+      <c r="F258" s="0">
+        <v>0</v>
+      </c>
+      <c r="G258" s="0">
+        <v>63469</v>
+      </c>
+      <c r="H258" s="0">
+        <v>6584469</v>
+      </c>
+      <c r="I258" s="0">
+        <v>103.74307142069357</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="0">
+        <v>7</v>
+      </c>
+      <c r="B259" s="0">
+        <v>22</v>
+      </c>
+      <c r="C259" s="0">
+        <v>5</v>
+      </c>
+      <c r="D259" s="0">
+        <v>0.40701967675823386</v>
+      </c>
+      <c r="E259" s="0">
+        <v>34</v>
+      </c>
+      <c r="F259" s="0">
+        <v>0</v>
+      </c>
+      <c r="G259" s="0">
+        <v>63111</v>
+      </c>
+      <c r="H259" s="0">
+        <v>6520338</v>
+      </c>
+      <c r="I259" s="0">
+        <v>103.31539668203641</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="0">
+        <v>7</v>
+      </c>
+      <c r="B260" s="0">
+        <v>23</v>
+      </c>
+      <c r="C260" s="0">
+        <v>1</v>
+      </c>
+      <c r="D260" s="0">
+        <v>0.44254228790130556</v>
+      </c>
+      <c r="E260" s="0">
+        <v>34</v>
+      </c>
+      <c r="F260" s="0">
+        <v>0</v>
+      </c>
+      <c r="G260" s="0">
+        <v>56878</v>
+      </c>
+      <c r="H260" s="0">
+        <v>7089400</v>
+      </c>
+      <c r="I260" s="0">
+        <v>124.64221667428531</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="0">
+        <v>7</v>
+      </c>
+      <c r="B261" s="0">
+        <v>23</v>
+      </c>
+      <c r="C261" s="0">
+        <v>2</v>
+      </c>
+      <c r="D261" s="0">
+        <v>0.49708490389839716</v>
+      </c>
+      <c r="E261" s="0">
+        <v>34</v>
+      </c>
+      <c r="F261" s="0">
+        <v>0</v>
+      </c>
+      <c r="G261" s="0">
+        <v>61511</v>
+      </c>
+      <c r="H261" s="0">
+        <v>7963157</v>
+      </c>
+      <c r="I261" s="0">
+        <v>129.45907236104111</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="0">
+        <v>7</v>
+      </c>
+      <c r="B262" s="0">
+        <v>23</v>
+      </c>
+      <c r="C262" s="0">
+        <v>3</v>
+      </c>
+      <c r="D262" s="0">
+        <v>0.45766646741214823</v>
+      </c>
+      <c r="E262" s="0">
+        <v>34</v>
+      </c>
+      <c r="F262" s="0">
+        <v>0</v>
+      </c>
+      <c r="G262" s="0">
+        <v>53913</v>
+      </c>
+      <c r="H262" s="0">
+        <v>7331685</v>
+      </c>
+      <c r="I262" s="0">
+        <v>135.99104112180737</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="0">
+        <v>7</v>
+      </c>
+      <c r="B263" s="0">
+        <v>23</v>
+      </c>
+      <c r="C263" s="0">
+        <v>4</v>
+      </c>
+      <c r="D263" s="0">
+        <v>0.43219915564025119</v>
+      </c>
+      <c r="E263" s="0">
+        <v>34</v>
+      </c>
+      <c r="F263" s="0">
+        <v>0</v>
+      </c>
+      <c r="G263" s="0">
+        <v>52680</v>
+      </c>
+      <c r="H263" s="0">
+        <v>6923706</v>
+      </c>
+      <c r="I263" s="0">
+        <v>131.42949886104785</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="0">
+        <v>7</v>
+      </c>
+      <c r="B264" s="0">
+        <v>23</v>
+      </c>
+      <c r="C264" s="0">
+        <v>5</v>
+      </c>
+      <c r="D264" s="0">
+        <v>0.44639010988462213</v>
+      </c>
+      <c r="E264" s="0">
+        <v>34</v>
+      </c>
+      <c r="F264" s="0">
+        <v>0</v>
+      </c>
+      <c r="G264" s="0">
+        <v>52047</v>
+      </c>
+      <c r="H264" s="0">
+        <v>7151041</v>
+      </c>
+      <c r="I264" s="0">
+        <v>137.39583453417103</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="0">
+        <v>7</v>
+      </c>
+      <c r="B265" s="0">
+        <v>24</v>
+      </c>
+      <c r="C265" s="0">
+        <v>1</v>
+      </c>
+      <c r="D265" s="0">
+        <v>0.50773784197868221</v>
+      </c>
+      <c r="E265" s="0">
+        <v>34</v>
+      </c>
+      <c r="F265" s="0">
+        <v>0</v>
+      </c>
+      <c r="G265" s="0">
+        <v>62335</v>
+      </c>
+      <c r="H265" s="0">
+        <v>8133814</v>
+      </c>
+      <c r="I265" s="0">
+        <v>130.48550573514078</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="0">
+        <v>7</v>
+      </c>
+      <c r="B266" s="0">
+        <v>24</v>
+      </c>
+      <c r="C266" s="0">
+        <v>2</v>
+      </c>
+      <c r="D266" s="0">
+        <v>0.42721623210205029</v>
+      </c>
+      <c r="E266" s="0">
+        <v>34</v>
+      </c>
+      <c r="F266" s="0">
+        <v>0</v>
+      </c>
+      <c r="G266" s="0">
+        <v>49827</v>
+      </c>
+      <c r="H266" s="0">
+        <v>6843881</v>
+      </c>
+      <c r="I266" s="0">
+        <v>137.35286089870954</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="0">
+        <v>7</v>
+      </c>
+      <c r="B267" s="0">
+        <v>24</v>
+      </c>
+      <c r="C267" s="0">
+        <v>3</v>
+      </c>
+      <c r="D267" s="0">
+        <v>0.44454344747271363</v>
+      </c>
+      <c r="E267" s="0">
+        <v>34</v>
+      </c>
+      <c r="F267" s="0">
+        <v>0</v>
+      </c>
+      <c r="G267" s="0">
+        <v>49293</v>
+      </c>
+      <c r="H267" s="0">
+        <v>7121458</v>
+      </c>
+      <c r="I267" s="0">
+        <v>144.47199399509057</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="0">
+        <v>7</v>
+      </c>
+      <c r="B268" s="0">
+        <v>24</v>
+      </c>
+      <c r="C268" s="0">
+        <v>4</v>
+      </c>
+      <c r="D268" s="0">
+        <v>0.52314717018633039</v>
+      </c>
+      <c r="E268" s="0">
+        <v>34</v>
+      </c>
+      <c r="F268" s="0">
+        <v>0</v>
+      </c>
+      <c r="G268" s="0">
+        <v>55642</v>
+      </c>
+      <c r="H268" s="0">
+        <v>8380667</v>
+      </c>
+      <c r="I268" s="0">
+        <v>150.61764494446641</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="0">
+        <v>7</v>
+      </c>
+      <c r="B269" s="0">
+        <v>24</v>
+      </c>
+      <c r="C269" s="0">
+        <v>5</v>
+      </c>
+      <c r="D269" s="0">
+        <v>0.57858206189973949</v>
+      </c>
+      <c r="E269" s="0">
+        <v>34</v>
+      </c>
+      <c r="F269" s="0">
+        <v>0</v>
+      </c>
+      <c r="G269" s="0">
+        <v>63489</v>
+      </c>
+      <c r="H269" s="0">
+        <v>9268718</v>
+      </c>
+      <c r="I269" s="0">
+        <v>145.98935248625747</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="0">
+        <v>7</v>
+      </c>
+      <c r="B270" s="0">
+        <v>2</v>
+      </c>
+      <c r="C270" s="0">
+        <v>1</v>
+      </c>
+      <c r="D270" s="0">
+        <v>0.48581441414177734</v>
+      </c>
+      <c r="E270" s="0">
+        <v>34</v>
+      </c>
+      <c r="F270" s="0">
+        <v>0</v>
+      </c>
+      <c r="G270" s="0">
+        <v>69311</v>
+      </c>
+      <c r="H270" s="0">
+        <v>7782607</v>
+      </c>
+      <c r="I270" s="0">
+        <v>112.28530824833</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="0">
+        <v>7</v>
+      </c>
+      <c r="B271" s="0">
+        <v>2</v>
+      </c>
+      <c r="C271" s="0">
+        <v>2</v>
+      </c>
+      <c r="D271" s="0">
+        <v>0.48995362713137414</v>
+      </c>
+      <c r="E271" s="0">
+        <v>34</v>
+      </c>
+      <c r="F271" s="0">
+        <v>0</v>
+      </c>
+      <c r="G271" s="0">
+        <v>65530</v>
+      </c>
+      <c r="H271" s="0">
+        <v>7848916</v>
+      </c>
+      <c r="I271" s="0">
+        <v>119.775919426217</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="0">
+        <v>7</v>
+      </c>
+      <c r="B272" s="0">
+        <v>2</v>
+      </c>
+      <c r="C272" s="0">
+        <v>3</v>
+      </c>
+      <c r="D272" s="0">
+        <v>0.46645938453824887</v>
+      </c>
+      <c r="E272" s="0">
+        <v>34</v>
+      </c>
+      <c r="F272" s="0">
+        <v>0</v>
+      </c>
+      <c r="G272" s="0">
+        <v>57594</v>
+      </c>
+      <c r="H272" s="0">
+        <v>7472545</v>
+      </c>
+      <c r="I272" s="0">
+        <v>129.74519915268951</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="0">
+        <v>7</v>
+      </c>
+      <c r="B273" s="0">
+        <v>2</v>
+      </c>
+      <c r="C273" s="0">
+        <v>4</v>
+      </c>
+      <c r="D273" s="0">
+        <v>0.50021716994662579</v>
+      </c>
+      <c r="E273" s="0">
+        <v>34</v>
+      </c>
+      <c r="F273" s="0">
+        <v>0</v>
+      </c>
+      <c r="G273" s="0">
+        <v>63939</v>
+      </c>
+      <c r="H273" s="0">
+        <v>8013335</v>
+      </c>
+      <c r="I273" s="0">
+        <v>125.32781244623781</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="0">
+        <v>7</v>
+      </c>
+      <c r="B274" s="0">
+        <v>2</v>
+      </c>
+      <c r="C274" s="0">
+        <v>5</v>
+      </c>
+      <c r="D274" s="0">
+        <v>0.45513358791968295</v>
+      </c>
+      <c r="E274" s="0">
+        <v>34</v>
+      </c>
+      <c r="F274" s="0">
+        <v>0</v>
+      </c>
+      <c r="G274" s="0">
+        <v>59252</v>
+      </c>
+      <c r="H274" s="0">
+        <v>7291109</v>
+      </c>
+      <c r="I274" s="0">
+        <v>123.05253831094309</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="0">
+        <v>7</v>
+      </c>
+      <c r="B275" s="0">
+        <v>4</v>
+      </c>
+      <c r="C275" s="0">
+        <v>1</v>
+      </c>
+      <c r="D275" s="0">
+        <v>0.35386647400402704</v>
+      </c>
+      <c r="E275" s="0">
+        <v>34</v>
+      </c>
+      <c r="F275" s="0">
+        <v>0</v>
+      </c>
+      <c r="G275" s="0">
+        <v>57138</v>
+      </c>
+      <c r="H275" s="0">
+        <v>5668839</v>
+      </c>
+      <c r="I275" s="0">
+        <v>99.213115614827259</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="0">
+        <v>7</v>
+      </c>
+      <c r="B276" s="0">
+        <v>4</v>
+      </c>
+      <c r="C276" s="0">
+        <v>2</v>
+      </c>
+      <c r="D276" s="0">
+        <v>0.40205004933921407</v>
+      </c>
+      <c r="E276" s="0">
+        <v>34</v>
+      </c>
+      <c r="F276" s="0">
+        <v>0</v>
+      </c>
+      <c r="G276" s="0">
+        <v>62287</v>
+      </c>
+      <c r="H276" s="0">
+        <v>6440726</v>
+      </c>
+      <c r="I276" s="0">
+        <v>103.40401688955961</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="0">
+        <v>7</v>
+      </c>
+      <c r="B277" s="0">
+        <v>4</v>
+      </c>
+      <c r="C277" s="0">
+        <v>3</v>
+      </c>
+      <c r="D277" s="0">
+        <v>0.4048226335155089</v>
+      </c>
+      <c r="E277" s="0">
+        <v>34</v>
+      </c>
+      <c r="F277" s="0">
+        <v>0</v>
+      </c>
+      <c r="G277" s="0">
+        <v>64272</v>
+      </c>
+      <c r="H277" s="0">
+        <v>6485142</v>
+      </c>
+      <c r="I277" s="0">
+        <v>100.90151232262883</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="0">
+        <v>7</v>
+      </c>
+      <c r="B278" s="0">
+        <v>4</v>
+      </c>
+      <c r="C278" s="0">
+        <v>4</v>
+      </c>
+      <c r="D278" s="0">
+        <v>0.44574627808539879</v>
+      </c>
+      <c r="E278" s="0">
+        <v>34</v>
+      </c>
+      <c r="F278" s="0">
+        <v>0</v>
+      </c>
+      <c r="G278" s="0">
+        <v>70626</v>
+      </c>
+      <c r="H278" s="0">
+        <v>7140727</v>
+      </c>
+      <c r="I278" s="0">
+        <v>101.10620734573669</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="0">
+        <v>7</v>
+      </c>
+      <c r="B279" s="0">
+        <v>4</v>
+      </c>
+      <c r="C279" s="0">
+        <v>5</v>
+      </c>
+      <c r="D279" s="0">
+        <v>0.40575436062770665</v>
+      </c>
+      <c r="E279" s="0">
+        <v>34</v>
+      </c>
+      <c r="F279" s="0">
+        <v>0</v>
+      </c>
+      <c r="G279" s="0">
+        <v>68117</v>
+      </c>
+      <c r="H279" s="0">
+        <v>6500068</v>
+      </c>
+      <c r="I279" s="0">
+        <v>95.425048079040479</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="0">
+        <v>7</v>
+      </c>
+      <c r="B280" s="0">
+        <v>9</v>
+      </c>
+      <c r="C280" s="0">
+        <v>1</v>
+      </c>
+      <c r="D280" s="0">
+        <v>0.63592641365837288</v>
+      </c>
+      <c r="E280" s="0">
+        <v>34</v>
+      </c>
+      <c r="F280" s="0">
+        <v>0</v>
+      </c>
+      <c r="G280" s="0">
+        <v>78551</v>
+      </c>
+      <c r="H280" s="0">
+        <v>10187358</v>
+      </c>
+      <c r="I280" s="0">
+        <v>129.6910032972209</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="0">
+        <v>7</v>
+      </c>
+      <c r="B281" s="0">
+        <v>9</v>
+      </c>
+      <c r="C281" s="0">
+        <v>2</v>
+      </c>
+      <c r="D281" s="0">
+        <v>0.57619955964252045</v>
+      </c>
+      <c r="E281" s="0">
+        <v>34</v>
+      </c>
+      <c r="F281" s="0">
+        <v>0</v>
+      </c>
+      <c r="G281" s="0">
+        <v>67112</v>
+      </c>
+      <c r="H281" s="0">
+        <v>9230551</v>
+      </c>
+      <c r="I281" s="0">
+        <v>137.53950113243533</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="0">
+        <v>7</v>
+      </c>
+      <c r="B282" s="0">
+        <v>9</v>
+      </c>
+      <c r="C282" s="0">
+        <v>3</v>
+      </c>
+      <c r="D282" s="0">
+        <v>0.55953777446186304</v>
+      </c>
+      <c r="E282" s="0">
+        <v>34</v>
+      </c>
+      <c r="F282" s="0">
+        <v>0</v>
+      </c>
+      <c r="G282" s="0">
+        <v>64072</v>
+      </c>
+      <c r="H282" s="0">
+        <v>8963634</v>
+      </c>
+      <c r="I282" s="0">
+        <v>139.89939443126482</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="0">
+        <v>7</v>
+      </c>
+      <c r="B283" s="0">
+        <v>9</v>
+      </c>
+      <c r="C283" s="0">
+        <v>4</v>
+      </c>
+      <c r="D283" s="0">
+        <v>0.53128907685731175</v>
+      </c>
+      <c r="E283" s="0">
+        <v>34</v>
+      </c>
+      <c r="F283" s="0">
+        <v>0</v>
+      </c>
+      <c r="G283" s="0">
+        <v>61490</v>
+      </c>
+      <c r="H283" s="0">
+        <v>8511098</v>
+      </c>
+      <c r="I283" s="0">
+        <v>138.41434379573914</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="0">
+        <v>7</v>
+      </c>
+      <c r="B284" s="0">
+        <v>9</v>
+      </c>
+      <c r="C284" s="0">
+        <v>5</v>
+      </c>
+      <c r="D284" s="0">
+        <v>0.62628547879013052</v>
+      </c>
+      <c r="E284" s="0">
+        <v>34</v>
+      </c>
+      <c r="F284" s="0">
+        <v>0</v>
+      </c>
+      <c r="G284" s="0">
+        <v>66784</v>
+      </c>
+      <c r="H284" s="0">
+        <v>10032913</v>
+      </c>
+      <c r="I284" s="0">
+        <v>150.22929144705319</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="0">
+        <v>7</v>
+      </c>
+      <c r="B285" s="0">
+        <v>10</v>
+      </c>
+      <c r="C285" s="0">
+        <v>1</v>
+      </c>
+      <c r="D285" s="0">
+        <v>0.48832063897278555</v>
+      </c>
+      <c r="E285" s="0">
+        <v>34</v>
+      </c>
+      <c r="F285" s="0">
+        <v>0</v>
+      </c>
+      <c r="G285" s="0">
+        <v>65890</v>
+      </c>
+      <c r="H285" s="0">
+        <v>7822756</v>
+      </c>
+      <c r="I285" s="0">
+        <v>118.72448019426317</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="0">
+        <v>7</v>
+      </c>
+      <c r="B286" s="0">
+        <v>10</v>
+      </c>
+      <c r="C286" s="0">
+        <v>2</v>
+      </c>
+      <c r="D286" s="0">
+        <v>0.48857726031529158</v>
+      </c>
+      <c r="E286" s="0">
+        <v>34</v>
+      </c>
+      <c r="F286" s="0">
+        <v>0</v>
+      </c>
+      <c r="G286" s="0">
+        <v>63677</v>
+      </c>
+      <c r="H286" s="0">
+        <v>7826867</v>
+      </c>
+      <c r="I286" s="0">
+        <v>122.91513419287969</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="0">
+        <v>7</v>
+      </c>
+      <c r="B287" s="0">
+        <v>10</v>
+      </c>
+      <c r="C287" s="0">
+        <v>3</v>
+      </c>
+      <c r="D287" s="0">
+        <v>0.44714717717771707</v>
+      </c>
+      <c r="E287" s="0">
+        <v>34</v>
+      </c>
+      <c r="F287" s="0">
+        <v>0</v>
+      </c>
+      <c r="G287" s="0">
+        <v>53361</v>
+      </c>
+      <c r="H287" s="0">
+        <v>7163169</v>
+      </c>
+      <c r="I287" s="0">
+        <v>134.2397818631585</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="0">
+        <v>7</v>
+      </c>
+      <c r="B288" s="0">
+        <v>10</v>
+      </c>
+      <c r="C288" s="0">
+        <v>4</v>
+      </c>
+      <c r="D288" s="0">
+        <v>0.52122903333093629</v>
+      </c>
+      <c r="E288" s="0">
+        <v>34</v>
+      </c>
+      <c r="F288" s="0">
+        <v>0</v>
+      </c>
+      <c r="G288" s="0">
+        <v>65891</v>
+      </c>
+      <c r="H288" s="0">
+        <v>8349939</v>
+      </c>
+      <c r="I288" s="0">
+        <v>126.72351307462324</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="0">
+        <v>7</v>
+      </c>
+      <c r="B289" s="0">
+        <v>10</v>
+      </c>
+      <c r="C289" s="0">
+        <v>5</v>
+      </c>
+      <c r="D289" s="0">
+        <v>0.51325080001438228</v>
+      </c>
+      <c r="E289" s="0">
+        <v>34</v>
+      </c>
+      <c r="F289" s="0">
+        <v>0</v>
+      </c>
+      <c r="G289" s="0">
+        <v>69675</v>
+      </c>
+      <c r="H289" s="0">
+        <v>8222130</v>
+      </c>
+      <c r="I289" s="0">
+        <v>118.00688912809473</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N268">
+  <sortState ref="A2:N268">
     <sortCondition ref="A2:A268"/>
     <sortCondition ref="B2:B268"/>
     <sortCondition ref="C2:C268"/>
@@ -8810,7 +11568,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="16" thickBot="true" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -8848,7 +11606,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>217</v>
       </c>
@@ -8889,7 +11647,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>218</v>
       </c>
@@ -8930,7 +11688,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>219</v>
       </c>
@@ -8971,7 +11729,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>208</v>
       </c>
@@ -9012,7 +11770,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>209</v>
       </c>
@@ -9053,7 +11811,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>207</v>
       </c>
@@ -9091,7 +11849,7 @@
         <v>14.720949160232598</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>220</v>
       </c>
@@ -9129,7 +11887,7 @@
         <v>18.421045373317131</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>213</v>
       </c>
@@ -9167,7 +11925,7 @@
         <v>10.927999498069793</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>212</v>
       </c>
@@ -9205,7 +11963,7 @@
         <v>13.95401098646094</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>199</v>
       </c>
@@ -9243,7 +12001,7 @@
         <v>15.420216090510136</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>203</v>
       </c>
@@ -9281,7 +12039,7 @@
         <v>18.337374858653217</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>202</v>
       </c>
@@ -9319,7 +12077,7 @@
         <v>17.866595414461671</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>216</v>
       </c>
@@ -9357,7 +12115,7 @@
         <v>9.9570764158111853</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>215</v>
       </c>
@@ -9395,7 +12153,7 @@
         <v>14.060836152911216</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>214</v>
       </c>
@@ -9433,7 +12191,7 @@
         <v>18.192307051083571</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>206</v>
       </c>
@@ -9471,7 +12229,7 @@
         <v>21.573363295670738</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>210</v>
       </c>
@@ -9509,7 +12267,7 @@
         <v>14.613959584011379</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>205</v>
       </c>
@@ -9545,7 +12303,7 @@
         <v>20.616310010007961</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>317</v>
       </c>
@@ -9583,7 +12341,7 @@
         <v>14.115362655943249</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>318</v>
       </c>
@@ -9621,7 +12379,7 @@
         <v>21.343022174092379</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>211</v>
       </c>
@@ -9659,7 +12417,7 @@
         <v>15.2939192827381</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>201</v>
       </c>
@@ -9697,7 +12455,7 @@
         <v>15.48794895712108</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>200</v>
       </c>
@@ -9735,7 +12493,7 @@
         <v>18.170848434635761</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" x14ac:dyDescent="0.2">
       <c r="A25" s="17">
         <v>204</v>
       </c>
@@ -9763,7 +12521,7 @@
       <c r="M25" s="18"/>
       <c r="N25" s="18"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" x14ac:dyDescent="0.2">
       <c r="A26" s="17"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
@@ -9776,7 +12534,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" x14ac:dyDescent="0.2">
       <c r="I28" t="s">
         <v>33</v>
       </c>
@@ -9800,7 +12558,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="17" thickBot="true" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>9</v>
       </c>
@@ -9845,7 +12603,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="27">
         <v>217</v>
       </c>
@@ -9890,7 +12648,7 @@
         <v>36.349373589999999</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="34">
         <v>218</v>
       </c>
@@ -9935,7 +12693,7 @@
         <v>25.26471154</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="34">
         <v>219</v>
       </c>
@@ -9980,7 +12738,7 @@
         <v>18.980193509999999</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="34">
         <v>208</v>
       </c>
@@ -10025,7 +12783,7 @@
         <v>30.515518459999999</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="34">
         <v>209</v>
       </c>
@@ -10070,7 +12828,7 @@
         <v>22.066696230000002</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="34">
         <v>207</v>
       </c>
@@ -10115,7 +12873,7 @@
         <v>29.31375418</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="34">
         <v>220</v>
       </c>
@@ -10160,7 +12918,7 @@
         <v>29.078108709999999</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="34">
         <v>213</v>
       </c>
@@ -10205,7 +12963,7 @@
         <v>22.563280850000002</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="34">
         <v>212</v>
       </c>
@@ -10250,7 +13008,7 @@
         <v>20.997673219999999</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="34">
         <v>199</v>
       </c>
@@ -10295,7 +13053,7 @@
         <v>23.512876210000002</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="34">
         <v>203</v>
       </c>
@@ -10340,7 +13098,7 @@
         <v>32.109248440000002</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="34">
         <v>202</v>
       </c>
@@ -10385,7 +13143,7 @@
         <v>15.89621037</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="34">
         <v>216</v>
       </c>
@@ -10430,7 +13188,7 @@
         <v>38.263251840000002</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="34">
         <v>215</v>
       </c>
@@ -10475,7 +13233,7 @@
         <v>35.393663490000002</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="34">
         <v>214</v>
       </c>
@@ -10520,7 +13278,7 @@
         <v>21.516547580000001</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="34">
         <v>206</v>
       </c>
@@ -10565,7 +13323,7 @@
         <v>33.930421510000002</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="34">
         <v>210</v>
       </c>
@@ -10610,7 +13368,7 @@
         <v>28.414697029999999</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="34">
         <v>205</v>
       </c>
@@ -10655,7 +13413,7 @@
         <v>34.975110540000003</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="34">
         <v>317</v>
       </c>
@@ -10700,7 +13458,7 @@
         <v>21.896100820000001</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="34">
         <v>318</v>
       </c>
@@ -10745,7 +13503,7 @@
         <v>37.771244889999998</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="34">
         <v>211</v>
       </c>
@@ -10790,7 +13548,7 @@
         <v>39.789910079999999</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="34">
         <v>201</v>
       </c>
@@ -10835,7 +13593,7 @@
         <v>36.066911660000002</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="34">
         <v>200</v>
       </c>
@@ -10880,7 +13638,7 @@
         <v>14.898635609999999</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="45">
         <v>204</v>
       </c>
@@ -10911,7 +13669,7 @@
       <c r="N25" s="46"/>
       <c r="O25" s="46"/>
     </row>
-    <row r="26" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="45"/>
       <c r="B26" s="46"/>
       <c r="C26" s="46"/>
@@ -10943,7 +13701,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="17" thickBot="true" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -10987,7 +13745,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>7</v>
       </c>
@@ -11032,7 +13790,7 @@
         <v>14.636954289225409</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>7</v>
       </c>
@@ -11077,7 +13835,7 @@
         <v>14.636954289225409</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>7</v>
       </c>
@@ -11122,7 +13880,7 @@
         <v>14.6369542892254</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>7</v>
       </c>
@@ -11167,7 +13925,7 @@
         <v>14.6369542892254</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>7</v>
       </c>
@@ -11212,7 +13970,7 @@
         <v>14.6369542892254</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -11257,7 +14015,7 @@
         <v>14.6369542892254</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -11302,7 +14060,7 @@
         <v>14.6369542892254</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -11347,7 +14105,7 @@
         <v>14.6369542892254</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -11392,7 +14150,7 @@
         <v>14.6369542892254</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -11437,7 +14195,7 @@
         <v>16.085750398747635</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -11482,7 +14240,7 @@
         <v>16.085750398747635</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -11527,7 +14285,7 @@
         <v>16.085750398747599</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -11572,7 +14330,7 @@
         <v>16.085750398747599</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -11617,7 +14375,7 @@
         <v>16.085750398747599</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -11662,7 +14420,7 @@
         <v>16.085750398747599</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -11707,7 +14465,7 @@
         <v>16.085750398747599</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -11752,7 +14510,7 @@
         <v>16.085750398747599</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -11797,7 +14555,7 @@
         <v>16.085750398747599</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>7</v>
       </c>
@@ -11842,7 +14600,7 @@
         <v>11.425130911221268</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>7</v>
       </c>
@@ -11887,7 +14645,7 @@
         <v>11.425130911221268</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>7</v>
       </c>
@@ -11932,7 +14690,7 @@
         <v>11.4251309112213</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>7</v>
       </c>
@@ -11977,7 +14735,7 @@
         <v>11.4251309112213</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>7</v>
       </c>
@@ -12022,7 +14780,7 @@
         <v>11.4251309112213</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>7</v>
       </c>
@@ -12067,7 +14825,7 @@
         <v>11.4251309112213</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>7</v>
       </c>
@@ -12112,7 +14870,7 @@
         <v>11.4251309112213</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>7</v>
       </c>
@@ -12157,7 +14915,7 @@
         <v>11.4251309112213</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>7</v>
       </c>
@@ -12202,7 +14960,7 @@
         <v>11.4251309112213</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>7</v>
       </c>
@@ -12247,7 +15005,7 @@
         <v>11.4251309112213</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>7</v>
       </c>
@@ -12292,7 +15050,7 @@
         <v>11.4251309112213</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1</v>
       </c>
@@ -12337,7 +15095,7 @@
         <v>18.337374858653217</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1</v>
       </c>
@@ -12382,7 +15140,7 @@
         <v>18.337374858653217</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1</v>
       </c>
@@ -12427,7 +15185,7 @@
         <v>18.337374858653199</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1</v>
       </c>
@@ -12472,7 +15230,7 @@
         <v>18.337374858653199</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1</v>
       </c>
@@ -12517,7 +15275,7 @@
         <v>18.337374858653199</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1</v>
       </c>
@@ -12562,7 +15320,7 @@
         <v>18.337374858653199</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1</v>
       </c>
@@ -12607,7 +15365,7 @@
         <v>18.337374858653199</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1</v>
       </c>
@@ -12652,7 +15410,7 @@
         <v>18.337374858653199</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1</v>
       </c>
@@ -12697,7 +15455,7 @@
         <v>18.337374858653199</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1</v>
       </c>
@@ -12742,7 +15500,7 @@
         <v>18.337374858653199</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>7</v>
       </c>
@@ -12787,7 +15545,7 @@
         <v>14.636954289225409</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>7</v>
       </c>
@@ -12832,7 +15590,7 @@
         <v>14.636954289225409</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>7</v>
       </c>
@@ -12877,7 +15635,7 @@
         <v>14.6369542892254</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>7</v>
       </c>
@@ -12922,7 +15680,7 @@
         <v>14.6369542892254</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>7</v>
       </c>
@@ -12967,7 +15725,7 @@
         <v>14.6369542892254</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>7</v>
       </c>
@@ -13012,7 +15770,7 @@
         <v>14.6369542892254</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>7</v>
       </c>
@@ -13057,7 +15815,7 @@
         <v>14.6369542892254</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>7</v>
       </c>
@@ -13102,7 +15860,7 @@
         <v>14.6369542892254</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>7</v>
       </c>

--- a/Image_Analysis/tissue_image_data.xlsx
+++ b/Image_Analysis/tissue_image_data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tfai/Documents/GitHub/Minimal-Lung-Model/Image_Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791EEAC1-B583-8640-8F4E-3A55DD9CA72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C1C421-787D-9242-909E-2544B81A75C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20380"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="MLI_new" sheetId="2" r:id="rId2"/>
-    <sheet name="MLI_old" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
+    <sheet name="MLI_old" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="true"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="38">
   <si>
     <t>slide</t>
   </si>
@@ -201,25 +202,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59996337778863"/>
+        <fgColor theme="8" tint="0.59996337778862885"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59996337778863"/>
+        <fgColor theme="7" tint="0.59996337778862885"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59996337778863"/>
+        <fgColor theme="9" tint="0.59996337778862885"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59996337778863"/>
+        <fgColor theme="5" tint="0.59996337778862885"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,19 +280,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79995117038484"/>
+        <fgColor theme="7" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79995117038484"/>
+        <fgColor theme="5" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79995117038484"/>
+        <fgColor theme="5" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,12 +304,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79995117038484"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -484,95 +485,93 @@
       </bottom>
       <diagonal/>
     </border>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true" applyBorder="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="11" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
-      <border diagonalUp="false" diagonalDown="false">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -594,7 +593,7 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="false" diagonalDown="false">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -616,7 +615,7 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="false" diagonalDown="false">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -638,7 +637,7 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="false" diagonalDown="false">
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
           <color indexed="64"/>
@@ -665,7 +664,7 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="false" diagonalDown="false">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -688,7 +687,7 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="false" diagonalDown="false">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -707,10 +706,10 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="true"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <border diagonalUp="false" diagonalDown="false">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -731,10 +730,10 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59996337778863"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
-      <border diagonalUp="false" diagonalDown="false">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -756,7 +755,7 @@
           <bgColor rgb="FFC8FFFE"/>
         </patternFill>
       </fill>
-      <border diagonalUp="false" diagonalDown="false">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -775,10 +774,10 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="true"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <border diagonalUp="false" diagonalDown="false">
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
           <color indexed="64"/>
@@ -805,7 +804,7 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="false" diagonalDown="false">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -824,7 +823,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="true"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -836,7 +835,7 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="false" diagonalDown="false">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -872,31 +871,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" id="1" name="Table1" displayName="Table1" ref="A1:D26" totalsRowShown="false" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12" mc:Ignorable="xr xr3" xr:uid="{36E7EB3B-F743-C64E-BCA9-2E0C77662A2B}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{36E7EB3B-F743-C64E-BCA9-2E0C77662A2B}" name="Table1" displayName="Table1" ref="A1:D26" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
   <autoFilter ref="A1:D26" xr:uid="{36E7EB3B-F743-C64E-BCA9-2E0C77662A2B}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Animal Number" dataDxfId="11" xr3:uid="{9AD57965-9742-CB4B-8E96-592068280CA3}"/>
-    <tableColumn id="3" name="AN Tx" dataDxfId="10" xr3:uid="{07DB2A3C-D279-B448-B505-D1853BF97753}"/>
-    <tableColumn id="4" name="Ventilation" dataDxfId="9" xr3:uid="{4C6FC9D7-5647-444C-A345-DCEBD5C77DA7}"/>
-    <tableColumn id="6" name="MLI" dataDxfId="8" xr3:uid="{5EFB8D54-3B69-0645-A689-2E8216A3F563}"/>
+    <tableColumn id="1" xr3:uid="{9AD57965-9742-CB4B-8E96-592068280CA3}" name="Animal Number" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{07DB2A3C-D279-B448-B505-D1853BF97753}" name="AN Tx" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{4C6FC9D7-5647-444C-A345-DCEBD5C77DA7}" name="Ventilation" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{5EFB8D54-3B69-0645-A689-2E8216A3F563}" name="MLI" dataDxfId="8"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" id="2" name="Table24" displayName="Table24" ref="K1:N25" totalsRowShown="false" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4" mc:Ignorable="xr xr3" xr:uid="{1E97165A-1D31-404A-8377-3C3333100517}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1E97165A-1D31-404A-8377-3C3333100517}" name="Table24" displayName="Table24" ref="K1:N25" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <autoFilter ref="K1:N25" xr:uid="{1E97165A-1D31-404A-8377-3C3333100517}"/>
-  <sortState ref="K2:N25">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K2:N25">
     <sortCondition ref="L2:L26"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" name="Animal Number" dataDxfId="3" xr3:uid="{3E0B4F09-7EB2-7249-96C7-FE9DC2F779EF}"/>
-    <tableColumn id="3" name="AN Tx" dataDxfId="2" xr3:uid="{E58C99C6-4B57-8744-B1BB-33BC8708C0E8}"/>
-    <tableColumn id="4" name="Ventilation" dataDxfId="1" xr3:uid="{6705FA7A-B3E9-7F49-A9C2-9E3036EF21D4}"/>
-    <tableColumn id="6" name="MLI" dataDxfId="0" xr3:uid="{0CAB2C8F-82C8-1A41-8BB4-268B883EFD78}"/>
+    <tableColumn id="1" xr3:uid="{3E0B4F09-7EB2-7249-96C7-FE9DC2F779EF}" name="Animal Number" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{E58C99C6-4B57-8744-B1BB-33BC8708C0E8}" name="AN Tx" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{6705FA7A-B3E9-7F49-A9C2-9E3036EF21D4}" name="Ventilation" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{0CAB2C8F-82C8-1A41-8BB4-268B883EFD78}" name="MLI" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1197,30 +1196,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z289"/>
+  <dimension ref="A1:Z288"/>
   <sheetViews>
-    <sheetView tabSelected="true" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:Z1"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A280" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H295" sqref="H295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" customWidth="true"/>
-    <col min="2" max="2" width="5.7109375" customWidth="true"/>
-    <col min="3" max="3" width="9" customWidth="true"/>
-    <col min="4" max="4" width="19.28515625" customWidth="true"/>
-    <col min="5" max="5" width="3.140625" customWidth="true"/>
-    <col min="7" max="7" width="19.85546875" customWidth="true"/>
-    <col min="8" max="8" width="20.42578125" customWidth="true"/>
-    <col min="9" max="9" width="19.140625" customWidth="true"/>
-    <col min="10" max="10" width="14.6640625" customWidth="true"/>
-    <col min="11" max="11" width="9.1640625" bestFit="true" customWidth="true"/>
-    <col min="14" max="14" width="20" customWidth="true"/>
-    <col min="6" max="6" width="3.140625" customWidth="true"/>
+    <col min="1" max="1" width="2.5" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="6" width="3.1640625" customWidth="1"/>
+    <col min="7" max="7" width="19.83203125" customWidth="1"/>
+    <col min="8" max="8" width="20.5" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1276,7 +1274,7 @@
       <c r="Y1" s="72"/>
       <c r="Z1" s="72"/>
     </row>
-    <row r="2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1302,7 +1300,7 @@
         <v>6787826</v>
       </c>
       <c r="I2">
-        <f>1/J2</f>
+        <f t="shared" ref="I2:I29" si="0">1/J2</f>
         <v>141.50148009172401</v>
       </c>
       <c r="J2">
@@ -1321,7 +1319,7 @@
         <v>16.085750398747635</v>
       </c>
     </row>
-    <row r="3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1347,7 +1345,7 @@
         <v>6300893</v>
       </c>
       <c r="I3">
-        <f>1/J3</f>
+        <f t="shared" si="0"/>
         <v>139.84581409801135</v>
       </c>
       <c r="J3">
@@ -1366,7 +1364,7 @@
         <v>16.085750398747635</v>
       </c>
     </row>
-    <row r="4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1392,7 +1390,7 @@
         <v>5932713</v>
       </c>
       <c r="I4">
-        <f>1/J4</f>
+        <f t="shared" si="0"/>
         <v>134.95093489832126</v>
       </c>
       <c r="J4">
@@ -1411,7 +1409,7 @@
         <v>16.085750398747599</v>
       </c>
     </row>
-    <row r="5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1437,7 +1435,7 @@
         <v>6809293</v>
       </c>
       <c r="I5">
-        <f>1/J5</f>
+        <f t="shared" si="0"/>
         <v>151.84740093214103</v>
       </c>
       <c r="J5">
@@ -1456,7 +1454,7 @@
         <v>16.085750398747599</v>
       </c>
     </row>
-    <row r="6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1482,7 +1480,7 @@
         <v>6461849</v>
       </c>
       <c r="I6">
-        <f>1/J6</f>
+        <f t="shared" si="0"/>
         <v>151.19326610355881</v>
       </c>
       <c r="J6">
@@ -1501,7 +1499,7 @@
         <v>16.085750398747599</v>
       </c>
     </row>
-    <row r="7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1527,7 +1525,7 @@
         <v>6046106</v>
       </c>
       <c r="I7">
-        <f>1/J7</f>
+        <f t="shared" si="0"/>
         <v>136.73404495906644</v>
       </c>
       <c r="J7">
@@ -1546,7 +1544,7 @@
         <v>16.085750398747599</v>
       </c>
     </row>
-    <row r="8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1572,7 +1570,7 @@
         <v>6128753</v>
       </c>
       <c r="I8">
-        <f>1/J8</f>
+        <f t="shared" si="0"/>
         <v>138.43406667871341</v>
       </c>
       <c r="J8">
@@ -1591,7 +1589,7 @@
         <v>16.085750398747599</v>
       </c>
     </row>
-    <row r="9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1617,7 +1615,7 @@
         <v>6452606</v>
       </c>
       <c r="I9">
-        <f>1/J9</f>
+        <f t="shared" si="0"/>
         <v>137.47669166524628</v>
       </c>
       <c r="J9">
@@ -1636,7 +1634,7 @@
         <v>16.085750398747599</v>
       </c>
     </row>
-    <row r="10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1662,7 +1660,7 @@
         <v>6597677</v>
       </c>
       <c r="I10">
-        <f>1/J10</f>
+        <f t="shared" si="0"/>
         <v>142.38771149861878</v>
       </c>
       <c r="J10">
@@ -1681,7 +1679,7 @@
         <v>16.085750398747599</v>
       </c>
     </row>
-    <row r="11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1707,7 +1705,7 @@
         <v>5314225</v>
       </c>
       <c r="I11">
-        <f>1/J11</f>
+        <f t="shared" si="0"/>
         <v>121.22693158747177</v>
       </c>
       <c r="J11">
@@ -1726,7 +1724,7 @@
         <v>18.337374858653217</v>
       </c>
     </row>
-    <row r="12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0</v>
       </c>
@@ -1752,7 +1750,7 @@
         <v>6158655</v>
       </c>
       <c r="I12">
-        <f>1/J12</f>
+        <f t="shared" si="0"/>
         <v>114.57536463759489</v>
       </c>
       <c r="J12">
@@ -1771,7 +1769,7 @@
         <v>18.337374858653217</v>
       </c>
     </row>
-    <row r="13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0</v>
       </c>
@@ -1797,7 +1795,7 @@
         <v>6327418</v>
       </c>
       <c r="I13">
-        <f>1/J13</f>
+        <f t="shared" si="0"/>
         <v>123.13984898022731</v>
       </c>
       <c r="J13">
@@ -1816,7 +1814,7 @@
         <v>18.337374858653199</v>
       </c>
     </row>
-    <row r="14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0</v>
       </c>
@@ -1842,7 +1840,7 @@
         <v>6347711</v>
       </c>
       <c r="I14">
-        <f>1/J14</f>
+        <f t="shared" si="0"/>
         <v>126.31255223464798</v>
       </c>
       <c r="J14">
@@ -1861,7 +1859,7 @@
         <v>18.337374858653199</v>
       </c>
     </row>
-    <row r="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0</v>
       </c>
@@ -1887,7 +1885,7 @@
         <v>6112305</v>
       </c>
       <c r="I15">
-        <f>1/J15</f>
+        <f t="shared" si="0"/>
         <v>123.30404873817353</v>
       </c>
       <c r="J15">
@@ -1906,7 +1904,7 @@
         <v>18.337374858653199</v>
       </c>
     </row>
-    <row r="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0</v>
       </c>
@@ -1932,7 +1930,7 @@
         <v>6605133</v>
       </c>
       <c r="I16">
-        <f>1/J16</f>
+        <f t="shared" si="0"/>
         <v>124.63690914237192</v>
       </c>
       <c r="J16">
@@ -1951,7 +1949,7 @@
         <v>18.337374858653199</v>
       </c>
     </row>
-    <row r="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0</v>
       </c>
@@ -1977,7 +1975,7 @@
         <v>6693399</v>
       </c>
       <c r="I17">
-        <f>1/J17</f>
+        <f t="shared" si="0"/>
         <v>120.97232965841316</v>
       </c>
       <c r="J17">
@@ -1996,7 +1994,7 @@
         <v>18.337374858653199</v>
       </c>
     </row>
-    <row r="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0</v>
       </c>
@@ -2022,7 +2020,7 @@
         <v>6170479</v>
       </c>
       <c r="I18">
-        <f>1/J18</f>
+        <f t="shared" si="0"/>
         <v>117.68985313751669</v>
       </c>
       <c r="J18">
@@ -2041,7 +2039,7 @@
         <v>18.337374858653199</v>
       </c>
     </row>
-    <row r="19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0</v>
       </c>
@@ -2067,7 +2065,7 @@
         <v>6062400</v>
       </c>
       <c r="I19">
-        <f>1/J19</f>
+        <f t="shared" si="0"/>
         <v>127.40149206682777</v>
       </c>
       <c r="J19">
@@ -2086,7 +2084,7 @@
         <v>18.337374858653199</v>
       </c>
     </row>
-    <row r="20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0</v>
       </c>
@@ -2112,7 +2110,7 @@
         <v>8187803</v>
       </c>
       <c r="I20">
-        <f>1/J20</f>
+        <f t="shared" si="0"/>
         <v>140.18530313147397</v>
       </c>
       <c r="J20">
@@ -2131,7 +2129,7 @@
         <v>10.927999498069793</v>
       </c>
     </row>
-    <row r="21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0</v>
       </c>
@@ -2157,7 +2155,7 @@
         <v>8034120</v>
       </c>
       <c r="I21">
-        <f>1/J21</f>
+        <f t="shared" si="0"/>
         <v>145.62479608482872</v>
       </c>
       <c r="J21">
@@ -2176,7 +2174,7 @@
         <v>10.927999498069793</v>
       </c>
     </row>
-    <row r="22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0</v>
       </c>
@@ -2202,7 +2200,7 @@
         <v>8048761</v>
       </c>
       <c r="I22">
-        <f>1/J22</f>
+        <f t="shared" si="0"/>
         <v>149.40250218105544</v>
       </c>
       <c r="J22">
@@ -2221,7 +2219,7 @@
         <v>10.9279994980698</v>
       </c>
     </row>
-    <row r="23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0</v>
       </c>
@@ -2247,7 +2245,7 @@
         <v>8299376</v>
       </c>
       <c r="I23">
-        <f>1/J23</f>
+        <f t="shared" si="0"/>
         <v>144.35454751013165</v>
       </c>
       <c r="J23">
@@ -2266,7 +2264,7 @@
         <v>10.9279994980698</v>
       </c>
     </row>
-    <row r="24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0</v>
       </c>
@@ -2292,7 +2290,7 @@
         <v>9095797</v>
       </c>
       <c r="I24">
-        <f>1/J24</f>
+        <f t="shared" si="0"/>
         <v>139.81488256271521</v>
       </c>
       <c r="J24">
@@ -2311,7 +2309,7 @@
         <v>10.9279994980698</v>
       </c>
     </row>
-    <row r="25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0</v>
       </c>
@@ -2337,7 +2335,7 @@
         <v>7172879</v>
       </c>
       <c r="I25">
-        <f>1/J25</f>
+        <f t="shared" si="0"/>
         <v>135.91175913293921</v>
       </c>
       <c r="J25">
@@ -2356,7 +2354,7 @@
         <v>10.9279994980698</v>
       </c>
     </row>
-    <row r="26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0</v>
       </c>
@@ -2382,7 +2380,7 @@
         <v>10074238</v>
       </c>
       <c r="I26">
-        <f>1/J26</f>
+        <f t="shared" si="0"/>
         <v>139.32397521712673</v>
       </c>
       <c r="J26">
@@ -2401,7 +2399,7 @@
         <v>10.9279994980698</v>
       </c>
     </row>
-    <row r="27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0</v>
       </c>
@@ -2427,7 +2425,7 @@
         <v>8370772</v>
       </c>
       <c r="I27">
-        <f>1/J27</f>
+        <f t="shared" si="0"/>
         <v>160.04076170082593</v>
       </c>
       <c r="J27">
@@ -2446,7 +2444,7 @@
         <v>10.9279994980698</v>
       </c>
     </row>
-    <row r="28" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0</v>
       </c>
@@ -2472,7 +2470,7 @@
         <v>8454761</v>
       </c>
       <c r="I28">
-        <f>1/J28</f>
+        <f t="shared" si="0"/>
         <v>155.85674783859014</v>
       </c>
       <c r="J28">
@@ -2491,7 +2489,7 @@
         <v>10.9279994980698</v>
       </c>
     </row>
-    <row r="29" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>0</v>
       </c>
@@ -2517,7 +2515,7 @@
         <v>8304824</v>
       </c>
       <c r="I29">
-        <f>1/J29</f>
+        <f t="shared" si="0"/>
         <v>143.58519338162833</v>
       </c>
       <c r="J29">
@@ -2536,7 +2534,7 @@
         <v>10.9279994980698</v>
       </c>
     </row>
-    <row r="30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0</v>
       </c>
@@ -2569,7 +2567,7 @@
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
     </row>
-    <row r="31" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0</v>
       </c>
@@ -2602,7 +2600,7 @@
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
     </row>
-    <row r="32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0</v>
       </c>
@@ -2635,7 +2633,7 @@
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
     </row>
-    <row r="33" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0</v>
       </c>
@@ -2668,7 +2666,7 @@
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
     </row>
-    <row r="34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0</v>
       </c>
@@ -2701,7 +2699,7 @@
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
     </row>
-    <row r="35" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0</v>
       </c>
@@ -2734,7 +2732,7 @@
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
     </row>
-    <row r="36" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0</v>
       </c>
@@ -2767,7 +2765,7 @@
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
     </row>
-    <row r="37" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>0</v>
       </c>
@@ -2800,7 +2798,7 @@
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
     </row>
-    <row r="38" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>0</v>
       </c>
@@ -2833,7 +2831,7 @@
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
     </row>
-    <row r="39" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>0</v>
       </c>
@@ -2866,7 +2864,7 @@
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
     </row>
-    <row r="40" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>0</v>
       </c>
@@ -2899,7 +2897,7 @@
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
     </row>
-    <row r="41" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>0</v>
       </c>
@@ -2932,7 +2930,7 @@
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
     </row>
-    <row r="42" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>0</v>
       </c>
@@ -2965,7 +2963,7 @@
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
     </row>
-    <row r="43" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>0</v>
       </c>
@@ -2998,7 +2996,7 @@
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
     </row>
-    <row r="44" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>0</v>
       </c>
@@ -3031,7 +3029,7 @@
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
     </row>
-    <row r="45" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>0</v>
       </c>
@@ -3064,7 +3062,7 @@
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
     </row>
-    <row r="46" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>0</v>
       </c>
@@ -3097,7 +3095,7 @@
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
     </row>
-    <row r="47" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>0</v>
       </c>
@@ -3130,7 +3128,7 @@
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
     </row>
-    <row r="48" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>0</v>
       </c>
@@ -3163,7 +3161,7 @@
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
     </row>
-    <row r="49" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>0</v>
       </c>
@@ -3196,7 +3194,7 @@
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
     </row>
-    <row r="50" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>0</v>
       </c>
@@ -3229,7 +3227,7 @@
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
     </row>
-    <row r="51" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>0</v>
       </c>
@@ -3262,7 +3260,7 @@
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
     </row>
-    <row r="52" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>0</v>
       </c>
@@ -3295,7 +3293,7 @@
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
     </row>
-    <row r="53" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>0</v>
       </c>
@@ -3328,7 +3326,7 @@
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
     </row>
-    <row r="54" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>0</v>
       </c>
@@ -3361,7 +3359,7 @@
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
     </row>
-    <row r="55" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>0</v>
       </c>
@@ -3394,7 +3392,7 @@
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
     </row>
-    <row r="56" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>0</v>
       </c>
@@ -3427,7 +3425,7 @@
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
     </row>
-    <row r="57" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>0</v>
       </c>
@@ -3460,7 +3458,7 @@
       <c r="M57" s="9"/>
       <c r="N57" s="9"/>
     </row>
-    <row r="58" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>0</v>
       </c>
@@ -3493,7 +3491,7 @@
       <c r="M58" s="9"/>
       <c r="N58" s="9"/>
     </row>
-    <row r="59" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>0</v>
       </c>
@@ -3526,7 +3524,7 @@
       <c r="M59" s="9"/>
       <c r="N59" s="9"/>
     </row>
-    <row r="60" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>0</v>
       </c>
@@ -3559,7 +3557,7 @@
       <c r="M60" s="9"/>
       <c r="N60" s="9"/>
     </row>
-    <row r="61" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>0</v>
       </c>
@@ -3592,7 +3590,7 @@
       <c r="M61" s="9"/>
       <c r="N61" s="9"/>
     </row>
-    <row r="62" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>0</v>
       </c>
@@ -3625,7 +3623,7 @@
       <c r="M62" s="9"/>
       <c r="N62" s="9"/>
     </row>
-    <row r="63" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>0</v>
       </c>
@@ -3658,7 +3656,7 @@
       <c r="M63" s="9"/>
       <c r="N63" s="9"/>
     </row>
-    <row r="64" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>0</v>
       </c>
@@ -3691,7 +3689,7 @@
       <c r="M64" s="9"/>
       <c r="N64" s="9"/>
     </row>
-    <row r="65" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>0</v>
       </c>
@@ -3724,7 +3722,7 @@
       <c r="M65" s="9"/>
       <c r="N65" s="9"/>
     </row>
-    <row r="66" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>0</v>
       </c>
@@ -3757,7 +3755,7 @@
       <c r="M66" s="9"/>
       <c r="N66" s="9"/>
     </row>
-    <row r="67" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>0</v>
       </c>
@@ -3790,7 +3788,7 @@
       <c r="M67" s="9"/>
       <c r="N67" s="9"/>
     </row>
-    <row r="68" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>0</v>
       </c>
@@ -3823,7 +3821,7 @@
       <c r="M68" s="9"/>
       <c r="N68" s="9"/>
     </row>
-    <row r="69" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>0</v>
       </c>
@@ -3856,7 +3854,7 @@
       <c r="M69" s="9"/>
       <c r="N69" s="9"/>
     </row>
-    <row r="70" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>0</v>
       </c>
@@ -3889,7 +3887,7 @@
       <c r="M70" s="9"/>
       <c r="N70" s="9"/>
     </row>
-    <row r="71" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>0</v>
       </c>
@@ -3922,7 +3920,7 @@
       <c r="M71" s="9"/>
       <c r="N71" s="9"/>
     </row>
-    <row r="72" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>0</v>
       </c>
@@ -3955,7 +3953,7 @@
       <c r="M72" s="9"/>
       <c r="N72" s="9"/>
     </row>
-    <row r="73" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>0</v>
       </c>
@@ -3988,7 +3986,7 @@
       <c r="M73" s="9"/>
       <c r="N73" s="9"/>
     </row>
-    <row r="74" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>0</v>
       </c>
@@ -4021,7 +4019,7 @@
       <c r="M74" s="9"/>
       <c r="N74" s="9"/>
     </row>
-    <row r="75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>0</v>
       </c>
@@ -4054,7 +4052,7 @@
       <c r="M75" s="9"/>
       <c r="N75" s="9"/>
     </row>
-    <row r="76" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>0</v>
       </c>
@@ -4087,7 +4085,7 @@
       <c r="M76" s="9"/>
       <c r="N76" s="9"/>
     </row>
-    <row r="77" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>0</v>
       </c>
@@ -4120,7 +4118,7 @@
       <c r="M77" s="9"/>
       <c r="N77" s="9"/>
     </row>
-    <row r="78" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>0</v>
       </c>
@@ -4153,7 +4151,7 @@
       <c r="M78" s="9"/>
       <c r="N78" s="9"/>
     </row>
-    <row r="79" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>0</v>
       </c>
@@ -4186,7 +4184,7 @@
       <c r="M79" s="9"/>
       <c r="N79" s="9"/>
     </row>
-    <row r="80" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>0</v>
       </c>
@@ -4219,7 +4217,7 @@
       <c r="M80" s="9"/>
       <c r="N80" s="9"/>
     </row>
-    <row r="81" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>0</v>
       </c>
@@ -4252,7 +4250,7 @@
       <c r="M81" s="9"/>
       <c r="N81" s="9"/>
     </row>
-    <row r="82" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>0</v>
       </c>
@@ -4285,7 +4283,7 @@
       <c r="M82" s="9"/>
       <c r="N82" s="9"/>
     </row>
-    <row r="83" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>0</v>
       </c>
@@ -4318,7 +4316,7 @@
       <c r="M83" s="9"/>
       <c r="N83" s="9"/>
     </row>
-    <row r="84" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>0</v>
       </c>
@@ -4351,7 +4349,7 @@
       <c r="M84" s="9"/>
       <c r="N84" s="9"/>
     </row>
-    <row r="85" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>0</v>
       </c>
@@ -4384,7 +4382,7 @@
       <c r="M85" s="9"/>
       <c r="N85" s="9"/>
     </row>
-    <row r="86" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>0</v>
       </c>
@@ -4417,7 +4415,7 @@
       <c r="M86" s="9"/>
       <c r="N86" s="9"/>
     </row>
-    <row r="87" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>0</v>
       </c>
@@ -4450,7 +4448,7 @@
       <c r="M87" s="9"/>
       <c r="N87" s="9"/>
     </row>
-    <row r="88" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>0</v>
       </c>
@@ -4483,7 +4481,7 @@
       <c r="M88" s="9"/>
       <c r="N88" s="9"/>
     </row>
-    <row r="89" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>0</v>
       </c>
@@ -4516,7 +4514,7 @@
       <c r="M89" s="9"/>
       <c r="N89" s="9"/>
     </row>
-    <row r="90" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>0</v>
       </c>
@@ -4549,7 +4547,7 @@
       <c r="M90" s="9"/>
       <c r="N90" s="9"/>
     </row>
-    <row r="91" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>0</v>
       </c>
@@ -4582,7 +4580,7 @@
       <c r="M91" s="9"/>
       <c r="N91" s="9"/>
     </row>
-    <row r="92" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>0</v>
       </c>
@@ -4615,7 +4613,7 @@
       <c r="M92" s="9"/>
       <c r="N92" s="9"/>
     </row>
-    <row r="93" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>0</v>
       </c>
@@ -4648,7 +4646,7 @@
       <c r="M93" s="9"/>
       <c r="N93" s="9"/>
     </row>
-    <row r="94" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>0</v>
       </c>
@@ -4681,7 +4679,7 @@
       <c r="M94" s="9"/>
       <c r="N94" s="9"/>
     </row>
-    <row r="95" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>0</v>
       </c>
@@ -4714,7 +4712,7 @@
       <c r="M95" s="9"/>
       <c r="N95" s="9"/>
     </row>
-    <row r="96" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>0</v>
       </c>
@@ -4747,7 +4745,7 @@
       <c r="M96" s="9"/>
       <c r="N96" s="9"/>
     </row>
-    <row r="97" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>0</v>
       </c>
@@ -4780,7 +4778,7 @@
       <c r="M97" s="9"/>
       <c r="N97" s="9"/>
     </row>
-    <row r="98" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>0</v>
       </c>
@@ -4813,7 +4811,7 @@
       <c r="M98" s="9"/>
       <c r="N98" s="9"/>
     </row>
-    <row r="99" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>0</v>
       </c>
@@ -4846,7 +4844,7 @@
       <c r="M99" s="9"/>
       <c r="N99" s="9"/>
     </row>
-    <row r="100" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>0</v>
       </c>
@@ -4879,7 +4877,7 @@
       <c r="M100" s="9"/>
       <c r="N100" s="9"/>
     </row>
-    <row r="101" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>0</v>
       </c>
@@ -4912,7 +4910,7 @@
       <c r="M101" s="9"/>
       <c r="N101" s="9"/>
     </row>
-    <row r="102" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>0</v>
       </c>
@@ -4945,7 +4943,7 @@
       <c r="M102" s="9"/>
       <c r="N102" s="9"/>
     </row>
-    <row r="103" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>0</v>
       </c>
@@ -4978,7 +4976,7 @@
       <c r="M103" s="9"/>
       <c r="N103" s="9"/>
     </row>
-    <row r="104" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>0</v>
       </c>
@@ -5011,7 +5009,7 @@
       <c r="M104" s="9"/>
       <c r="N104" s="9"/>
     </row>
-    <row r="105" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>0</v>
       </c>
@@ -5040,7 +5038,7 @@
         <v>132.77709376901831</v>
       </c>
     </row>
-    <row r="106" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>0</v>
       </c>
@@ -5069,7 +5067,7 @@
         <v>126.76030966484217</v>
       </c>
     </row>
-    <row r="107" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>0</v>
       </c>
@@ -5098,7 +5096,7 @@
         <v>135.49956933677865</v>
       </c>
     </row>
-    <row r="108" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>0</v>
       </c>
@@ -5127,7 +5125,7 @@
         <v>139.95765511684127</v>
       </c>
     </row>
-    <row r="109" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>0</v>
       </c>
@@ -5156,7 +5154,7 @@
         <v>143.75792291220557</v>
       </c>
     </row>
-    <row r="110" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>0</v>
       </c>
@@ -5185,7 +5183,7 @@
         <v>141.22201017811705</v>
       </c>
     </row>
-    <row r="111" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>0</v>
       </c>
@@ -5214,7 +5212,7 @@
         <v>131.85931424531637</v>
       </c>
     </row>
-    <row r="112" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>0</v>
       </c>
@@ -5243,7 +5241,7 @@
         <v>137.65942518683414</v>
       </c>
     </row>
-    <row r="113" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>0</v>
       </c>
@@ -5272,7 +5270,7 @@
         <v>137.27905600355109</v>
       </c>
     </row>
-    <row r="114" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>0</v>
       </c>
@@ -5301,7 +5299,7 @@
         <v>134.85438800107133</v>
       </c>
     </row>
-    <row r="115" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>0</v>
       </c>
@@ -5330,7 +5328,7 @@
         <v>126.03324316628702</v>
       </c>
     </row>
-    <row r="116" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>0</v>
       </c>
@@ -5359,7 +5357,7 @@
         <v>137.68601293103447</v>
       </c>
     </row>
-    <row r="117" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>0</v>
       </c>
@@ -5388,7 +5386,7 @@
         <v>120.98883810110763</v>
       </c>
     </row>
-    <row r="118" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>0</v>
       </c>
@@ -5417,7 +5415,7 @@
         <v>120.98883810110763</v>
       </c>
     </row>
-    <row r="119" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>7</v>
       </c>
@@ -5446,7 +5444,7 @@
         <v>103.40496622525941</v>
       </c>
       <c r="J119">
-        <f>1/I119</f>
+        <f t="shared" ref="J119:J150" si="1">1/I119</f>
         <v>9.6707154066621934E-3</v>
       </c>
       <c r="K119" s="65">
@@ -5462,7 +5460,7 @@
         <v>28.857949839922696</v>
       </c>
     </row>
-    <row r="120" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>7</v>
       </c>
@@ -5491,7 +5489,7 @@
         <v>104.32371942021381</v>
       </c>
       <c r="J120">
-        <f>1/I120</f>
+        <f t="shared" si="1"/>
         <v>9.5855478078961161E-3</v>
       </c>
       <c r="K120" s="65">
@@ -5507,7 +5505,7 @@
         <v>28.857949839922696</v>
       </c>
     </row>
-    <row r="121" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>7</v>
       </c>
@@ -5536,7 +5534,7 @@
         <v>105.44028459273798</v>
       </c>
       <c r="J121">
-        <f>1/I121</f>
+        <f t="shared" si="1"/>
         <v>9.484041169487447E-3</v>
       </c>
       <c r="K121" s="65">
@@ -5552,7 +5550,7 @@
         <v>28.8579498399227</v>
       </c>
     </row>
-    <row r="122" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>7</v>
       </c>
@@ -5581,7 +5579,7 @@
         <v>98.449088604538872</v>
       </c>
       <c r="J122">
-        <f>1/I122</f>
+        <f t="shared" si="1"/>
         <v>1.0157534357853834E-2</v>
       </c>
       <c r="K122" s="65">
@@ -5597,7 +5595,7 @@
         <v>28.8579498399227</v>
       </c>
     </row>
-    <row r="123" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>7</v>
       </c>
@@ -5626,7 +5624,7 @@
         <v>99.953036955401103</v>
       </c>
       <c r="J123">
-        <f>1/I123</f>
+        <f t="shared" si="1"/>
         <v>1.0004698511023718E-2</v>
       </c>
       <c r="K123" s="65">
@@ -5642,7 +5640,7 @@
         <v>28.8579498399227</v>
       </c>
     </row>
-    <row r="124" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>7</v>
       </c>
@@ -5671,7 +5669,7 @@
         <v>101.27445428806284</v>
       </c>
       <c r="J124">
-        <f>1/I124</f>
+        <f t="shared" si="1"/>
         <v>9.8741583653032764E-3</v>
       </c>
       <c r="K124" s="65">
@@ -5687,7 +5685,7 @@
         <v>28.8579498399227</v>
       </c>
     </row>
-    <row r="125" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>7</v>
       </c>
@@ -5716,7 +5714,7 @@
         <v>133.13749627532778</v>
       </c>
       <c r="J125">
-        <f>1/I125</f>
+        <f t="shared" si="1"/>
         <v>7.511032038126992E-3</v>
       </c>
       <c r="K125" s="65">
@@ -5732,7 +5730,7 @@
         <v>16.803710988831707</v>
       </c>
     </row>
-    <row r="126" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>7</v>
       </c>
@@ -5761,7 +5759,7 @@
         <v>129.69304560455532</v>
       </c>
       <c r="J126">
-        <f>1/I126</f>
+        <f t="shared" si="1"/>
         <v>7.7105136619975874E-3</v>
       </c>
       <c r="K126" s="65">
@@ -5777,7 +5775,7 @@
         <v>16.803710988831707</v>
       </c>
     </row>
-    <row r="127" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>7</v>
       </c>
@@ -5806,7 +5804,7 @@
         <v>132.68252090556803</v>
       </c>
       <c r="J127">
-        <f>1/I127</f>
+        <f t="shared" si="1"/>
         <v>7.5367877635646808E-3</v>
       </c>
       <c r="K127" s="65">
@@ -5822,7 +5820,7 @@
         <v>16.8037109888317</v>
       </c>
     </row>
-    <row r="128" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>7</v>
       </c>
@@ -5851,7 +5849,7 @@
         <v>136.94837087552526</v>
       </c>
       <c r="J128">
-        <f>1/I128</f>
+        <f t="shared" si="1"/>
         <v>7.3020218758857473E-3</v>
       </c>
       <c r="K128" s="65">
@@ -5867,7 +5865,7 @@
         <v>16.8037109888317</v>
       </c>
     </row>
-    <row r="129" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>7</v>
       </c>
@@ -5896,7 +5894,7 @@
         <v>134.46366884074595</v>
       </c>
       <c r="J129">
-        <f>1/I129</f>
+        <f t="shared" si="1"/>
         <v>7.4369531087565737E-3</v>
       </c>
       <c r="K129" s="65">
@@ -5912,7 +5910,7 @@
         <v>16.8037109888317</v>
       </c>
     </row>
-    <row r="130" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>7</v>
       </c>
@@ -5941,7 +5939,7 @@
         <v>137.55971119387254</v>
       </c>
       <c r="J130">
-        <f>1/I130</f>
+        <f t="shared" si="1"/>
         <v>7.269570365632928E-3</v>
       </c>
       <c r="K130" s="65">
@@ -5957,7 +5955,7 @@
         <v>16.8037109888317</v>
       </c>
     </row>
-    <row r="131" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>7</v>
       </c>
@@ -5986,7 +5984,7 @@
         <v>140.86431568872857</v>
       </c>
       <c r="J131">
-        <f>1/I131</f>
+        <f t="shared" si="1"/>
         <v>7.0990299786762552E-3</v>
       </c>
       <c r="K131" s="65">
@@ -6002,7 +6000,7 @@
         <v>16.8037109888317</v>
       </c>
     </row>
-    <row r="132" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>7</v>
       </c>
@@ -6031,7 +6029,7 @@
         <v>139.73661853488517</v>
       </c>
       <c r="J132">
-        <f>1/I132</f>
+        <f t="shared" si="1"/>
         <v>7.156320300897725E-3</v>
       </c>
       <c r="K132" s="65">
@@ -6047,7 +6045,7 @@
         <v>16.8037109888317</v>
       </c>
     </row>
-    <row r="133" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>7</v>
       </c>
@@ -6076,7 +6074,7 @@
         <v>117.69042434633519</v>
       </c>
       <c r="J133">
-        <f>1/I133</f>
+        <f t="shared" si="1"/>
         <v>8.4968679954559052E-3</v>
       </c>
       <c r="K133" s="65">
@@ -6092,7 +6090,7 @@
         <v>16.8037109888317</v>
       </c>
     </row>
-    <row r="134" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>7</v>
       </c>
@@ -6121,7 +6119,7 @@
         <v>124.15144821219565</v>
       </c>
       <c r="J134">
-        <f>1/I134</f>
+        <f t="shared" si="1"/>
         <v>8.0546784946949005E-3</v>
       </c>
       <c r="K134" s="65">
@@ -6137,7 +6135,7 @@
         <v>16.8037109888317</v>
       </c>
     </row>
-    <row r="135" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>7</v>
       </c>
@@ -6166,7 +6164,7 @@
         <v>130.27017199491578</v>
       </c>
       <c r="J135">
-        <f>1/I135</f>
+        <f t="shared" si="1"/>
         <v>7.6763543387278884E-3</v>
       </c>
       <c r="K135" s="65">
@@ -6182,7 +6180,7 @@
         <v>16.8037109888317</v>
       </c>
     </row>
-    <row r="136" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>7</v>
       </c>
@@ -6211,7 +6209,7 @@
         <v>113.18774083991902</v>
       </c>
       <c r="J136">
-        <f>1/I136</f>
+        <f t="shared" si="1"/>
         <v>8.8348790476726283E-3</v>
       </c>
       <c r="K136" s="65">
@@ -6227,7 +6225,7 @@
         <v>13.47767513842691</v>
       </c>
     </row>
-    <row r="137" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>7</v>
       </c>
@@ -6256,7 +6254,7 @@
         <v>107.84982366499125</v>
       </c>
       <c r="J137">
-        <f>1/I137</f>
+        <f t="shared" si="1"/>
         <v>9.2721523876223687E-3</v>
       </c>
       <c r="K137" s="65">
@@ -6272,7 +6270,7 @@
         <v>13.47767513842691</v>
       </c>
     </row>
-    <row r="138" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>7</v>
       </c>
@@ -6301,7 +6299,7 @@
         <v>109.68703690635806</v>
       </c>
       <c r="J138">
-        <f>1/I138</f>
+        <f t="shared" si="1"/>
         <v>9.1168476075593075E-3</v>
       </c>
       <c r="K138" s="65">
@@ -6317,7 +6315,7 @@
         <v>13.4776751384269</v>
       </c>
     </row>
-    <row r="139" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>7</v>
       </c>
@@ -6346,7 +6344,7 @@
         <v>101.92539873821507</v>
       </c>
       <c r="J139">
-        <f>1/I139</f>
+        <f t="shared" si="1"/>
         <v>9.8110972572047275E-3</v>
       </c>
       <c r="K139" s="65">
@@ -6362,7 +6360,7 @@
         <v>13.4776751384269</v>
       </c>
     </row>
-    <row r="140" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>7</v>
       </c>
@@ -6391,7 +6389,7 @@
         <v>105.12535345417746</v>
       </c>
       <c r="J140">
-        <f>1/I140</f>
+        <f t="shared" si="1"/>
         <v>9.5124531537093462E-3</v>
       </c>
       <c r="K140" s="65">
@@ -6407,7 +6405,7 @@
         <v>13.4776751384269</v>
       </c>
     </row>
-    <row r="141" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>7</v>
       </c>
@@ -6436,7 +6434,7 @@
         <v>107.03543913713405</v>
       </c>
       <c r="J141">
-        <f>1/I141</f>
+        <f t="shared" si="1"/>
         <v>9.3427000259119573E-3</v>
       </c>
       <c r="K141" s="65">
@@ -6452,7 +6450,7 @@
         <v>13.4776751384269</v>
       </c>
     </row>
-    <row r="142" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>7</v>
       </c>
@@ -6481,7 +6479,7 @@
         <v>107.76493102403833</v>
       </c>
       <c r="J142">
-        <f>1/I142</f>
+        <f t="shared" si="1"/>
         <v>9.2794565959211477E-3</v>
       </c>
       <c r="K142" s="65">
@@ -6497,7 +6495,7 @@
         <v>13.4776751384269</v>
       </c>
     </row>
-    <row r="143" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>7</v>
       </c>
@@ -6526,7 +6524,7 @@
         <v>118.31442839875311</v>
       </c>
       <c r="J143">
-        <f>1/I143</f>
+        <f t="shared" si="1"/>
         <v>8.4520545256721938E-3</v>
       </c>
       <c r="K143" s="65">
@@ -6542,7 +6540,7 @@
         <v>13.4776751384269</v>
       </c>
     </row>
-    <row r="144" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>7</v>
       </c>
@@ -6571,7 +6569,7 @@
         <v>112.28045557513214</v>
       </c>
       <c r="J144">
-        <f>1/I144</f>
+        <f t="shared" si="1"/>
         <v>8.906269527298569E-3</v>
       </c>
       <c r="K144" s="65">
@@ -6587,7 +6585,7 @@
         <v>13.4776751384269</v>
       </c>
     </row>
-    <row r="145" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>7</v>
       </c>
@@ -6616,7 +6614,7 @@
         <v>110.75284425865527</v>
       </c>
       <c r="J145">
-        <f>1/I145</f>
+        <f t="shared" si="1"/>
         <v>9.0291134886303429E-3</v>
       </c>
       <c r="K145" s="65">
@@ -6632,7 +6630,7 @@
         <v>13.4776751384269</v>
       </c>
     </row>
-    <row r="146" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>7</v>
       </c>
@@ -6661,7 +6659,7 @@
         <v>111.84443471325127</v>
       </c>
       <c r="J146">
-        <f>1/I146</f>
+        <f t="shared" si="1"/>
         <v>8.9409902474255204E-3</v>
       </c>
       <c r="K146" s="65">
@@ -6677,7 +6675,7 @@
         <v>13.4776751384269</v>
       </c>
     </row>
-    <row r="147" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>7</v>
       </c>
@@ -6706,7 +6704,7 @@
         <v>116.57595929209204</v>
       </c>
       <c r="J147">
-        <f>1/I147</f>
+        <f t="shared" si="1"/>
         <v>8.5780979721076615E-3</v>
       </c>
       <c r="K147" s="65">
@@ -6722,7 +6720,7 @@
         <v>13.420825268418511</v>
       </c>
     </row>
-    <row r="148" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>7</v>
       </c>
@@ -6751,7 +6749,7 @@
         <v>115.99301422615449</v>
       </c>
       <c r="J148">
-        <f>1/I148</f>
+        <f t="shared" si="1"/>
         <v>8.6212088432349471E-3</v>
       </c>
       <c r="K148" s="65">
@@ -6767,7 +6765,7 @@
         <v>13.420825268418511</v>
       </c>
     </row>
-    <row r="149" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>7</v>
       </c>
@@ -6796,7 +6794,7 @@
         <v>118.38891017486858</v>
       </c>
       <c r="J149">
-        <f>1/I149</f>
+        <f t="shared" si="1"/>
         <v>8.4467371016671323E-3</v>
       </c>
       <c r="K149" s="65">
@@ -6812,7 +6810,7 @@
         <v>13.420825268418501</v>
       </c>
     </row>
-    <row r="150" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>7</v>
       </c>
@@ -6841,7 +6839,7 @@
         <v>122.16304694182166</v>
       </c>
       <c r="J150">
-        <f>1/I150</f>
+        <f t="shared" si="1"/>
         <v>8.1857814210891059E-3</v>
       </c>
       <c r="K150" s="65">
@@ -6857,7 +6855,7 @@
         <v>13.420825268418501</v>
       </c>
     </row>
-    <row r="151" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>7</v>
       </c>
@@ -6886,7 +6884,7 @@
         <v>120.48106060606061</v>
       </c>
       <c r="J151">
-        <f>1/I151</f>
+        <f t="shared" ref="J151:J182" si="2">1/I151</f>
         <v>8.3000597352783975E-3</v>
       </c>
       <c r="K151" s="65">
@@ -6902,7 +6900,7 @@
         <v>13.420825268418501</v>
       </c>
     </row>
-    <row r="152" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>7</v>
       </c>
@@ -6931,7 +6929,7 @@
         <v>119.32590219759606</v>
       </c>
       <c r="J152">
-        <f>1/I152</f>
+        <f t="shared" si="2"/>
         <v>8.3804101337869117E-3</v>
       </c>
       <c r="K152" s="65">
@@ -6947,7 +6945,7 @@
         <v>13.420825268418501</v>
       </c>
     </row>
-    <row r="153" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>7</v>
       </c>
@@ -6976,7 +6974,7 @@
         <v>123.93587868769075</v>
       </c>
       <c r="J153">
-        <f>1/I153</f>
+        <f t="shared" si="2"/>
         <v>8.0686885072233684E-3</v>
       </c>
       <c r="K153" s="65">
@@ -6992,7 +6990,7 @@
         <v>13.420825268418501</v>
       </c>
     </row>
-    <row r="154" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>7</v>
       </c>
@@ -7021,7 +7019,7 @@
         <v>119.07983744722569</v>
       </c>
       <c r="J154">
-        <f>1/I154</f>
+        <f t="shared" si="2"/>
         <v>8.397727284799027E-3</v>
       </c>
       <c r="K154" s="65">
@@ -7037,7 +7035,7 @@
         <v>13.420825268418501</v>
       </c>
     </row>
-    <row r="155" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>7</v>
       </c>
@@ -7066,7 +7064,7 @@
         <v>116.76008846387465</v>
       </c>
       <c r="J155">
-        <f>1/I155</f>
+        <f t="shared" si="2"/>
         <v>8.5645704209054117E-3</v>
       </c>
       <c r="K155" s="65">
@@ -7082,7 +7080,7 @@
         <v>13.420825268418501</v>
       </c>
     </row>
-    <row r="156" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>7</v>
       </c>
@@ -7111,7 +7109,7 @@
         <v>123.10456724703508</v>
       </c>
       <c r="J156">
-        <f>1/I156</f>
+        <f t="shared" si="2"/>
         <v>8.1231754626397475E-3</v>
       </c>
       <c r="K156" s="65">
@@ -7127,7 +7125,7 @@
         <v>13.420825268418501</v>
       </c>
     </row>
-    <row r="157" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>7</v>
       </c>
@@ -7156,7 +7154,7 @@
         <v>126.34345734877658</v>
       </c>
       <c r="J157">
-        <f>1/I157</f>
+        <f t="shared" si="2"/>
         <v>7.9149330007604324E-3</v>
       </c>
       <c r="K157" s="65">
@@ -7172,7 +7170,7 @@
         <v>12.677881754313882</v>
       </c>
     </row>
-    <row r="158" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>7</v>
       </c>
@@ -7201,7 +7199,7 @@
         <v>118.90392408483048</v>
       </c>
       <c r="J158">
-        <f>1/I158</f>
+        <f t="shared" si="2"/>
         <v>8.4101513696601196E-3</v>
       </c>
       <c r="K158" s="65">
@@ -7217,7 +7215,7 @@
         <v>12.677881754313882</v>
       </c>
     </row>
-    <row r="159" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>7</v>
       </c>
@@ -7246,7 +7244,7 @@
         <v>127.22204008164184</v>
       </c>
       <c r="J159">
-        <f>1/I159</f>
+        <f t="shared" si="2"/>
         <v>7.8602732620721445E-3</v>
       </c>
       <c r="K159" s="65">
@@ -7262,7 +7260,7 @@
         <v>12.6778817543139</v>
       </c>
     </row>
-    <row r="160" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>7</v>
       </c>
@@ -7291,7 +7289,7 @@
         <v>122.77897065927046</v>
       </c>
       <c r="J160">
-        <f>1/I160</f>
+        <f t="shared" si="2"/>
         <v>8.1447172478351024E-3</v>
       </c>
       <c r="K160" s="65">
@@ -7307,7 +7305,7 @@
         <v>12.6778817543139</v>
       </c>
     </row>
-    <row r="161" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>7</v>
       </c>
@@ -7336,7 +7334,7 @@
         <v>117.70169751267241</v>
       </c>
       <c r="J161">
-        <f>1/I161</f>
+        <f t="shared" si="2"/>
         <v>8.4960541872587218E-3</v>
       </c>
       <c r="K161" s="65">
@@ -7352,7 +7350,7 @@
         <v>12.6778817543139</v>
       </c>
     </row>
-    <row r="162" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>7</v>
       </c>
@@ -7381,7 +7379,7 @@
         <v>130.21266486078423</v>
       </c>
       <c r="J162">
-        <f>1/I162</f>
+        <f t="shared" si="2"/>
         <v>7.6797445246139578E-3</v>
       </c>
       <c r="K162" s="65">
@@ -7397,7 +7395,7 @@
         <v>12.6778817543139</v>
       </c>
     </row>
-    <row r="163" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>7</v>
       </c>
@@ -7426,7 +7424,7 @@
         <v>128.33152626508385</v>
       </c>
       <c r="J163">
-        <f>1/I163</f>
+        <f t="shared" si="2"/>
         <v>7.7923175162304429E-3</v>
       </c>
       <c r="K163" s="65">
@@ -7442,7 +7440,7 @@
         <v>12.291954267803135</v>
       </c>
     </row>
-    <row r="164" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>7</v>
       </c>
@@ -7471,7 +7469,7 @@
         <v>134.8697342607455</v>
       </c>
       <c r="J164">
-        <f>1/I164</f>
+        <f t="shared" si="2"/>
         <v>7.4145619510652128E-3</v>
       </c>
       <c r="K164" s="65">
@@ -7487,7 +7485,7 @@
         <v>12.291954267803135</v>
       </c>
     </row>
-    <row r="165" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>7</v>
       </c>
@@ -7516,7 +7514,7 @@
         <v>135.79002322069402</v>
       </c>
       <c r="J165">
-        <f>1/I165</f>
+        <f t="shared" si="2"/>
         <v>7.3643112820942708E-3</v>
       </c>
       <c r="K165" s="65">
@@ -7532,7 +7530,7 @@
         <v>12.291954267803099</v>
       </c>
     </row>
-    <row r="166" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>7</v>
       </c>
@@ -7561,7 +7559,7 @@
         <v>130.47068937014382</v>
       </c>
       <c r="J166">
-        <f>1/I166</f>
+        <f t="shared" si="2"/>
         <v>7.6645567278564135E-3</v>
       </c>
       <c r="K166" s="65">
@@ -7577,7 +7575,7 @@
         <v>12.291954267803099</v>
       </c>
     </row>
-    <row r="167" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>7</v>
       </c>
@@ -7606,7 +7604,7 @@
         <v>130.9320958938097</v>
       </c>
       <c r="J167">
-        <f>1/I167</f>
+        <f t="shared" si="2"/>
         <v>7.6375467235400658E-3</v>
       </c>
       <c r="K167" s="65">
@@ -7622,7 +7620,7 @@
         <v>12.291954267803099</v>
       </c>
     </row>
-    <row r="168" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>7</v>
       </c>
@@ -7651,7 +7649,7 @@
         <v>134.08290532248535</v>
       </c>
       <c r="J168">
-        <f>1/I168</f>
+        <f t="shared" si="2"/>
         <v>7.4580722844189646E-3</v>
       </c>
       <c r="K168" s="65">
@@ -7667,7 +7665,7 @@
         <v>12.291954267803099</v>
       </c>
     </row>
-    <row r="169" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>7</v>
       </c>
@@ -7696,7 +7694,7 @@
         <v>141.80900710081772</v>
       </c>
       <c r="J169">
-        <f>1/I169</f>
+        <f t="shared" si="2"/>
         <v>7.0517382530508781E-3</v>
       </c>
       <c r="K169" s="65">
@@ -7712,7 +7710,7 @@
         <v>12.291954267803099</v>
       </c>
     </row>
-    <row r="170" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>7</v>
       </c>
@@ -7741,7 +7739,7 @@
         <v>136.96456900116536</v>
       </c>
       <c r="J170">
-        <f>1/I170</f>
+        <f t="shared" si="2"/>
         <v>7.3011583016881652E-3</v>
       </c>
       <c r="K170" s="65">
@@ -7757,7 +7755,7 @@
         <v>12.291954267803099</v>
       </c>
     </row>
-    <row r="171" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>7</v>
       </c>
@@ -7786,7 +7784,7 @@
         <v>132.65361273331044</v>
       </c>
       <c r="J171">
-        <f>1/I171</f>
+        <f t="shared" si="2"/>
         <v>7.5384301972266721E-3</v>
       </c>
       <c r="K171" s="65">
@@ -7802,7 +7800,7 @@
         <v>12.291954267803099</v>
       </c>
     </row>
-    <row r="172" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>7</v>
       </c>
@@ -7831,7 +7829,7 @@
         <v>139.63595651639417</v>
       </c>
       <c r="J172">
-        <f>1/I172</f>
+        <f t="shared" si="2"/>
         <v>7.1614792131466046E-3</v>
       </c>
       <c r="K172" s="65">
@@ -7847,7 +7845,7 @@
         <v>12.291954267803099</v>
       </c>
     </row>
-    <row r="173" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>7</v>
       </c>
@@ -7873,7 +7871,7 @@
         <v>7822756</v>
       </c>
       <c r="I173">
-        <f>1/J173</f>
+        <f t="shared" ref="I173:I183" si="3">1/J173</f>
         <v>118.72448019426317</v>
       </c>
       <c r="J173">
@@ -7892,7 +7890,7 @@
         <v>11.425130911221268</v>
       </c>
     </row>
-    <row r="174" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>7</v>
       </c>
@@ -7918,7 +7916,7 @@
         <v>7826867</v>
       </c>
       <c r="I174">
-        <f>1/J174</f>
+        <f t="shared" si="3"/>
         <v>122.91513419287969</v>
       </c>
       <c r="J174">
@@ -7937,7 +7935,7 @@
         <v>11.425130911221268</v>
       </c>
     </row>
-    <row r="175" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>7</v>
       </c>
@@ -7963,7 +7961,7 @@
         <v>7163169</v>
       </c>
       <c r="I175">
-        <f>1/J175</f>
+        <f t="shared" si="3"/>
         <v>134.2397818631585</v>
       </c>
       <c r="J175">
@@ -7982,7 +7980,7 @@
         <v>11.4251309112213</v>
       </c>
     </row>
-    <row r="176" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>7</v>
       </c>
@@ -8008,7 +8006,7 @@
         <v>8349939</v>
       </c>
       <c r="I176">
-        <f>1/J176</f>
+        <f t="shared" si="3"/>
         <v>126.72351307462324</v>
       </c>
       <c r="J176">
@@ -8027,7 +8025,7 @@
         <v>11.4251309112213</v>
       </c>
     </row>
-    <row r="177" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>7</v>
       </c>
@@ -8053,7 +8051,7 @@
         <v>8222130</v>
       </c>
       <c r="I177">
-        <f>1/J177</f>
+        <f t="shared" si="3"/>
         <v>118.00688912809471</v>
       </c>
       <c r="J177">
@@ -8072,7 +8070,7 @@
         <v>11.4251309112213</v>
       </c>
     </row>
-    <row r="178" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>7</v>
       </c>
@@ -8098,7 +8096,7 @@
         <v>7777251</v>
       </c>
       <c r="I178">
-        <f>1/J178</f>
+        <f t="shared" si="3"/>
         <v>112.92654276172499</v>
       </c>
       <c r="J178">
@@ -8117,7 +8115,7 @@
         <v>11.4251309112213</v>
       </c>
     </row>
-    <row r="179" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>7</v>
       </c>
@@ -8143,7 +8141,7 @@
         <v>8774493</v>
       </c>
       <c r="I179">
-        <f>1/J179</f>
+        <f t="shared" si="3"/>
         <v>125.2872563718141</v>
       </c>
       <c r="J179">
@@ -8162,7 +8160,7 @@
         <v>11.4251309112213</v>
       </c>
     </row>
-    <row r="180" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>7</v>
       </c>
@@ -8188,7 +8186,7 @@
         <v>8405927</v>
       </c>
       <c r="I180">
-        <f>1/J180</f>
+        <f t="shared" si="3"/>
         <v>116.54664818024264</v>
       </c>
       <c r="J180">
@@ -8207,7 +8205,7 @@
         <v>11.4251309112213</v>
       </c>
     </row>
-    <row r="181" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>7</v>
       </c>
@@ -8233,7 +8231,7 @@
         <v>8202145</v>
       </c>
       <c r="I181">
-        <f>1/J181</f>
+        <f t="shared" si="3"/>
         <v>125.76312117634433</v>
       </c>
       <c r="J181">
@@ -8252,7 +8250,7 @@
         <v>11.4251309112213</v>
       </c>
     </row>
-    <row r="182" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>7</v>
       </c>
@@ -8278,7 +8276,7 @@
         <v>7368620</v>
       </c>
       <c r="I182">
-        <f>1/J182</f>
+        <f t="shared" si="3"/>
         <v>134.66783632143574</v>
       </c>
       <c r="J182">
@@ -8297,7 +8295,7 @@
         <v>11.4251309112213</v>
       </c>
     </row>
-    <row r="183" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>7</v>
       </c>
@@ -8323,7 +8321,7 @@
         <v>8069978</v>
       </c>
       <c r="I183">
-        <f>1/J183</f>
+        <f t="shared" si="3"/>
         <v>126.37379811456668</v>
       </c>
       <c r="J183">
@@ -8342,7 +8340,7 @@
         <v>11.4251309112213</v>
       </c>
     </row>
-    <row r="184" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>7</v>
       </c>
@@ -8371,7 +8369,7 @@
         <v>112.85338648266986</v>
       </c>
       <c r="J184">
-        <f>1/I184</f>
+        <f t="shared" ref="J184:J193" si="4">1/I184</f>
         <v>8.8610544279374669E-3</v>
       </c>
       <c r="K184" s="65">
@@ -8387,7 +8385,7 @@
         <v>14.636954289225409</v>
       </c>
     </row>
-    <row r="185" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>7</v>
       </c>
@@ -8416,7 +8414,7 @@
         <v>109.70615794205104</v>
       </c>
       <c r="J185">
-        <f>1/I185</f>
+        <f t="shared" si="4"/>
         <v>9.1152586031517015E-3</v>
       </c>
       <c r="K185" s="65">
@@ -8432,7 +8430,7 @@
         <v>14.636954289225409</v>
       </c>
     </row>
-    <row r="186" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>7</v>
       </c>
@@ -8461,7 +8459,7 @@
         <v>118.70783689072954</v>
       </c>
       <c r="J186">
-        <f>1/I186</f>
+        <f t="shared" si="4"/>
         <v>8.424043653667947E-3</v>
       </c>
       <c r="K186" s="65">
@@ -8477,7 +8475,7 @@
         <v>14.6369542892254</v>
       </c>
     </row>
-    <row r="187" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>7</v>
       </c>
@@ -8506,7 +8504,7 @@
         <v>110.59049350825913</v>
       </c>
       <c r="J187">
-        <f>1/I187</f>
+        <f t="shared" si="4"/>
         <v>9.0423685461293105E-3</v>
       </c>
       <c r="K187" s="65">
@@ -8522,7 +8520,7 @@
         <v>14.6369542892254</v>
       </c>
     </row>
-    <row r="188" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>7</v>
       </c>
@@ -8551,7 +8549,7 @@
         <v>110.12890565112072</v>
       </c>
       <c r="J188">
-        <f>1/I188</f>
+        <f t="shared" si="4"/>
         <v>9.0802682010472108E-3</v>
       </c>
       <c r="K188" s="65">
@@ -8567,7 +8565,7 @@
         <v>14.6369542892254</v>
       </c>
     </row>
-    <row r="189" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>7</v>
       </c>
@@ -8596,7 +8594,7 @@
         <v>115.38123177583387</v>
       </c>
       <c r="J189">
-        <f>1/I189</f>
+        <f t="shared" si="4"/>
         <v>8.6669208207347803E-3</v>
       </c>
       <c r="K189" s="65">
@@ -8612,7 +8610,7 @@
         <v>14.6369542892254</v>
       </c>
     </row>
-    <row r="190" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>7</v>
       </c>
@@ -8641,7 +8639,7 @@
         <v>120.49537424843172</v>
       </c>
       <c r="J190">
-        <f>1/I190</f>
+        <f t="shared" si="4"/>
         <v>8.2990737713984509E-3</v>
       </c>
       <c r="K190" s="65">
@@ -8657,7 +8655,7 @@
         <v>14.6369542892254</v>
       </c>
     </row>
-    <row r="191" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>7</v>
       </c>
@@ -8686,7 +8684,7 @@
         <v>109.4952540305556</v>
       </c>
       <c r="J191">
-        <f>1/I191</f>
+        <f t="shared" si="4"/>
         <v>9.1328159275372908E-3</v>
       </c>
       <c r="K191" s="65">
@@ -8702,7 +8700,7 @@
         <v>14.6369542892254</v>
       </c>
     </row>
-    <row r="192" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>7</v>
       </c>
@@ -8731,7 +8729,7 @@
         <v>118.1518906138309</v>
       </c>
       <c r="J192">
-        <f>1/I192</f>
+        <f t="shared" si="4"/>
         <v>8.4636817473231329E-3</v>
       </c>
       <c r="K192" s="65">
@@ -8747,7 +8745,7 @@
         <v>14.6369542892254</v>
       </c>
     </row>
-    <row r="193" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>7</v>
       </c>
@@ -8776,7 +8774,7 @@
         <v>107.5591323570047</v>
       </c>
       <c r="J193">
-        <f>1/I193</f>
+        <f t="shared" si="4"/>
         <v>9.2972114788063918E-3</v>
       </c>
       <c r="K193" s="65">
@@ -8792,2766 +8790,2766 @@
         <v>14.6369542892254</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="0">
-        <v>0</v>
-      </c>
-      <c r="B195" s="0">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>0</v>
+      </c>
+      <c r="B194">
         <v>28</v>
       </c>
-      <c r="C195" s="0">
+      <c r="C194">
         <v>1</v>
       </c>
-      <c r="D195" s="0">
+      <c r="D194">
         <v>0.43322426770219091</v>
       </c>
-      <c r="E195" s="0">
-        <v>34</v>
-      </c>
-      <c r="F195" s="0">
-        <v>0</v>
-      </c>
-      <c r="G195" s="0">
+      <c r="E194">
+        <v>34</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194">
         <v>53053</v>
       </c>
-      <c r="H195" s="0">
+      <c r="H194">
         <v>6940128</v>
       </c>
-      <c r="I195" s="0">
+      <c r="I194">
         <v>130.8149963244303</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="0">
-        <v>0</v>
-      </c>
-      <c r="B196" s="0">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>0</v>
+      </c>
+      <c r="B195">
         <v>28</v>
       </c>
-      <c r="C196" s="0">
+      <c r="C195">
         <v>2</v>
       </c>
-      <c r="D196" s="0">
+      <c r="D195">
         <v>0.3576642326653563</v>
       </c>
-      <c r="E196" s="0">
-        <v>34</v>
-      </c>
-      <c r="F196" s="0">
-        <v>0</v>
-      </c>
-      <c r="G196" s="0">
+      <c r="E195">
+        <v>34</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195">
         <v>46888</v>
       </c>
-      <c r="H196" s="0">
+      <c r="H195">
         <v>5729678</v>
       </c>
-      <c r="I196" s="0">
+      <c r="I195">
         <v>122.19924074390036</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="0">
-        <v>0</v>
-      </c>
-      <c r="B197" s="0">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>0</v>
+      </c>
+      <c r="B196">
         <v>28</v>
       </c>
-      <c r="C197" s="0">
+      <c r="C196">
         <v>3</v>
       </c>
-      <c r="D197" s="0">
+      <c r="D196">
         <v>0.33601496706058137</v>
       </c>
-      <c r="E197" s="0">
-        <v>34</v>
-      </c>
-      <c r="F197" s="0">
-        <v>0</v>
-      </c>
-      <c r="G197" s="0">
+      <c r="E196">
+        <v>34</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196">
         <v>40215</v>
       </c>
-      <c r="H197" s="0">
+      <c r="H196">
         <v>5382863</v>
       </c>
-      <c r="I197" s="0">
+      <c r="I196">
         <v>133.85211985577521</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="0">
-        <v>0</v>
-      </c>
-      <c r="B198" s="0">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>0</v>
+      </c>
+      <c r="B197">
         <v>28</v>
       </c>
-      <c r="C198" s="0">
+      <c r="C197">
         <v>4</v>
       </c>
-      <c r="D198" s="0">
+      <c r="D197">
         <v>0.37055054422950923</v>
       </c>
-      <c r="E198" s="0">
-        <v>34</v>
-      </c>
-      <c r="F198" s="0">
-        <v>0</v>
-      </c>
-      <c r="G198" s="0">
+      <c r="E197">
+        <v>34</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+      <c r="G197">
         <v>43183</v>
       </c>
-      <c r="H198" s="0">
+      <c r="H197">
         <v>5936113</v>
       </c>
-      <c r="I198" s="0">
+      <c r="I197">
         <v>137.46411782414376</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="0">
-        <v>0</v>
-      </c>
-      <c r="B199" s="0">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>0</v>
+      </c>
+      <c r="B198">
         <v>28</v>
       </c>
-      <c r="C199" s="0">
+      <c r="C198">
         <v>5</v>
       </c>
-      <c r="D199" s="0">
+      <c r="D198">
         <v>0.32226634286558958</v>
       </c>
-      <c r="E199" s="0">
-        <v>34</v>
-      </c>
-      <c r="F199" s="0">
-        <v>0</v>
-      </c>
-      <c r="G199" s="0">
+      <c r="E198">
+        <v>34</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+      <c r="G198">
         <v>40668</v>
       </c>
-      <c r="H199" s="0">
+      <c r="H198">
         <v>5162614</v>
       </c>
-      <c r="I199" s="0">
+      <c r="I198">
         <v>126.94536244713288</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="0">
-        <v>0</v>
-      </c>
-      <c r="B200" s="0">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>0</v>
+      </c>
+      <c r="B199">
         <v>29</v>
       </c>
-      <c r="C200" s="0">
+      <c r="C199">
         <v>1</v>
       </c>
-      <c r="D200" s="0">
+      <c r="D199">
         <v>0.37069917361810251</v>
       </c>
-      <c r="E200" s="0">
-        <v>34</v>
-      </c>
-      <c r="F200" s="0">
-        <v>0</v>
-      </c>
-      <c r="G200" s="0">
+      <c r="E199">
+        <v>34</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+      <c r="G199">
         <v>46768</v>
       </c>
-      <c r="H200" s="0">
+      <c r="H199">
         <v>5938494</v>
       </c>
-      <c r="I200" s="0">
+      <c r="I199">
         <v>126.97771980841601</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="0">
-        <v>0</v>
-      </c>
-      <c r="B201" s="0">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>0</v>
+      </c>
+      <c r="B200">
         <v>29</v>
       </c>
-      <c r="C201" s="0">
+      <c r="C200">
         <v>2</v>
       </c>
-      <c r="D201" s="0">
+      <c r="D200">
         <v>0.3908048409359669</v>
       </c>
-      <c r="E201" s="0">
-        <v>34</v>
-      </c>
-      <c r="F201" s="0">
-        <v>0</v>
-      </c>
-      <c r="G201" s="0">
+      <c r="E200">
+        <v>34</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+      <c r="G200">
         <v>46131</v>
       </c>
-      <c r="H201" s="0">
+      <c r="H200">
         <v>6260581</v>
       </c>
-      <c r="I201" s="0">
+      <c r="I200">
         <v>135.71309965099391</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="0">
-        <v>0</v>
-      </c>
-      <c r="B202" s="0">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>0</v>
+      </c>
+      <c r="B201">
         <v>29</v>
       </c>
-      <c r="C202" s="0">
+      <c r="C201">
         <v>3</v>
       </c>
-      <c r="D202" s="0">
+      <c r="D201">
         <v>0.36375098378797321</v>
       </c>
-      <c r="E202" s="0">
-        <v>34</v>
-      </c>
-      <c r="F202" s="0">
-        <v>0</v>
-      </c>
-      <c r="G202" s="0">
+      <c r="E201">
+        <v>34</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+      <c r="G201">
         <v>47802</v>
       </c>
-      <c r="H202" s="0">
+      <c r="H201">
         <v>5827186</v>
       </c>
-      <c r="I202" s="0">
+      <c r="I201">
         <v>121.90255637839421</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="0">
-        <v>0</v>
-      </c>
-      <c r="B203" s="0">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>0</v>
+      </c>
+      <c r="B202">
         <v>29</v>
       </c>
-      <c r="C203" s="0">
+      <c r="C202">
         <v>4</v>
       </c>
-      <c r="D203" s="0">
+      <c r="D202">
         <v>0.38790116826070281</v>
       </c>
-      <c r="E203" s="0">
-        <v>34</v>
-      </c>
-      <c r="F203" s="0">
-        <v>0</v>
-      </c>
-      <c r="G203" s="0">
+      <c r="E202">
+        <v>34</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+      <c r="G202">
         <v>48661</v>
       </c>
-      <c r="H203" s="0">
+      <c r="H202">
         <v>6214065</v>
       </c>
-      <c r="I203" s="0">
+      <c r="I202">
         <v>127.70113643369433</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="0">
-        <v>0</v>
-      </c>
-      <c r="B204" s="0">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>0</v>
+      </c>
+      <c r="B203">
         <v>29</v>
       </c>
-      <c r="C204" s="0">
+      <c r="C203">
         <v>5</v>
       </c>
-      <c r="D204" s="0">
+      <c r="D203">
         <v>0.37318679636687602</v>
       </c>
-      <c r="E204" s="0">
-        <v>34</v>
-      </c>
-      <c r="F204" s="0">
-        <v>0</v>
-      </c>
-      <c r="G204" s="0">
+      <c r="E203">
+        <v>34</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
+      <c r="G203">
         <v>47256</v>
       </c>
-      <c r="H204" s="0">
+      <c r="H203">
         <v>5978345</v>
       </c>
-      <c r="I204" s="0">
+      <c r="I203">
         <v>126.50975537497884</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="0">
-        <v>7</v>
-      </c>
-      <c r="B205" s="0">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>7</v>
+      </c>
+      <c r="B204">
         <v>12</v>
       </c>
-      <c r="C205" s="0">
+      <c r="C204">
         <v>1</v>
       </c>
-      <c r="D205" s="0">
+      <c r="D204">
         <v>0.39357573968870352</v>
       </c>
-      <c r="E205" s="0">
-        <v>34</v>
-      </c>
-      <c r="F205" s="0">
-        <v>0</v>
-      </c>
-      <c r="G205" s="0">
+      <c r="E204">
+        <v>34</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+      <c r="G204">
         <v>50783</v>
       </c>
-      <c r="H205" s="0">
+      <c r="H204">
         <v>6304970</v>
       </c>
-      <c r="I205" s="0">
+      <c r="I204">
         <v>124.15513065395901</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" s="0">
-        <v>7</v>
-      </c>
-      <c r="B206" s="0">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>7</v>
+      </c>
+      <c r="B205">
         <v>12</v>
       </c>
-      <c r="C206" s="0">
+      <c r="C205">
         <v>2</v>
       </c>
-      <c r="D206" s="0">
+      <c r="D205">
         <v>0.39696038230899533</v>
       </c>
-      <c r="E206" s="0">
-        <v>34</v>
-      </c>
-      <c r="F206" s="0">
-        <v>0</v>
-      </c>
-      <c r="G206" s="0">
+      <c r="E205">
+        <v>34</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+      <c r="G205">
         <v>55412</v>
       </c>
-      <c r="H206" s="0">
+      <c r="H205">
         <v>6359191</v>
       </c>
-      <c r="I206" s="0">
+      <c r="I205">
         <v>114.76198296397892</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="0">
-        <v>7</v>
-      </c>
-      <c r="B207" s="0">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>7</v>
+      </c>
+      <c r="B206">
         <v>12</v>
       </c>
-      <c r="C207" s="0">
+      <c r="C206">
         <v>3</v>
       </c>
-      <c r="D207" s="0">
+      <c r="D206">
         <v>0.41878343380954663</v>
       </c>
-      <c r="E207" s="0">
-        <v>34</v>
-      </c>
-      <c r="F207" s="0">
-        <v>0</v>
-      </c>
-      <c r="G207" s="0">
+      <c r="E206">
+        <v>34</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
+      <c r="G206">
         <v>54978</v>
       </c>
-      <c r="H207" s="0">
+      <c r="H206">
         <v>6708790</v>
       </c>
-      <c r="I207" s="0">
+      <c r="I206">
         <v>122.02681072428972</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="0">
-        <v>7</v>
-      </c>
-      <c r="B208" s="0">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>7</v>
+      </c>
+      <c r="B207">
         <v>12</v>
       </c>
-      <c r="C208" s="0">
+      <c r="C207">
         <v>4</v>
       </c>
-      <c r="D208" s="0">
+      <c r="D207">
         <v>0.43431236466673057</v>
       </c>
-      <c r="E208" s="0">
-        <v>34</v>
-      </c>
-      <c r="F208" s="0">
-        <v>0</v>
-      </c>
-      <c r="G208" s="0">
+      <c r="E207">
+        <v>34</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+      <c r="G207">
         <v>57195</v>
       </c>
-      <c r="H208" s="0">
+      <c r="H207">
         <v>6957559</v>
       </c>
-      <c r="I208" s="0">
+      <c r="I207">
         <v>121.64628026925431</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="0">
-        <v>7</v>
-      </c>
-      <c r="B209" s="0">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>7</v>
+      </c>
+      <c r="B208">
         <v>12</v>
       </c>
-      <c r="C209" s="0">
+      <c r="C208">
         <v>5</v>
       </c>
-      <c r="D209" s="0">
+      <c r="D208">
         <v>0.36216649837400322</v>
       </c>
-      <c r="E209" s="0">
-        <v>34</v>
-      </c>
-      <c r="F209" s="0">
-        <v>0</v>
-      </c>
-      <c r="G209" s="0">
+      <c r="E208">
+        <v>34</v>
+      </c>
+      <c r="F208">
+        <v>0</v>
+      </c>
+      <c r="G208">
         <v>48544</v>
       </c>
-      <c r="H209" s="0">
+      <c r="H208">
         <v>5801803</v>
       </c>
-      <c r="I209" s="0">
+      <c r="I208">
         <v>119.51637689518788</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" s="0">
-        <v>7</v>
-      </c>
-      <c r="B210" s="0">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>7</v>
+      </c>
+      <c r="B209">
         <v>13</v>
       </c>
-      <c r="C210" s="0">
+      <c r="C209">
         <v>1</v>
       </c>
-      <c r="D210" s="0">
+      <c r="D209">
         <v>0.44913784966920756</v>
       </c>
-      <c r="E210" s="0">
-        <v>34</v>
-      </c>
-      <c r="F210" s="0">
-        <v>0</v>
-      </c>
-      <c r="G210" s="0">
+      <c r="E209">
+        <v>34</v>
+      </c>
+      <c r="F209">
+        <v>0</v>
+      </c>
+      <c r="G209">
         <v>58125</v>
       </c>
-      <c r="H210" s="0">
+      <c r="H209">
         <v>7195059</v>
       </c>
-      <c r="I210" s="0">
+      <c r="I209">
         <v>123.78596129032258</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="0">
-        <v>7</v>
-      </c>
-      <c r="B211" s="0">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>7</v>
+      </c>
+      <c r="B210">
         <v>13</v>
       </c>
-      <c r="C211" s="0">
+      <c r="C210">
         <v>2</v>
       </c>
-      <c r="D211" s="0">
+      <c r="D210">
         <v>0.52081217190421403</v>
       </c>
-      <c r="E211" s="0">
-        <v>34</v>
-      </c>
-      <c r="F211" s="0">
-        <v>0</v>
-      </c>
-      <c r="G211" s="0">
+      <c r="E210">
+        <v>34</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
+      <c r="G210">
         <v>67005</v>
       </c>
-      <c r="H211" s="0">
+      <c r="H210">
         <v>8343261</v>
       </c>
-      <c r="I211" s="0">
+      <c r="I210">
         <v>124.51699126930826</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" s="0">
-        <v>7</v>
-      </c>
-      <c r="B212" s="0">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>7</v>
+      </c>
+      <c r="B211">
         <v>13</v>
       </c>
-      <c r="C212" s="0">
+      <c r="C211">
         <v>3</v>
       </c>
-      <c r="D212" s="0">
+      <c r="D211">
         <v>0.51602869015373065</v>
       </c>
-      <c r="E212" s="0">
-        <v>34</v>
-      </c>
-      <c r="F212" s="0">
-        <v>0</v>
-      </c>
-      <c r="G212" s="0">
+      <c r="E211">
+        <v>34</v>
+      </c>
+      <c r="F211">
+        <v>0</v>
+      </c>
+      <c r="G211">
         <v>68324</v>
       </c>
-      <c r="H212" s="0">
+      <c r="H211">
         <v>8266631</v>
       </c>
-      <c r="I212" s="0">
+      <c r="I211">
         <v>120.99161348867162</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="0">
-        <v>7</v>
-      </c>
-      <c r="B213" s="0">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>7</v>
+      </c>
+      <c r="B212">
         <v>13</v>
       </c>
-      <c r="C213" s="0">
+      <c r="C212">
         <v>4</v>
       </c>
-      <c r="D213" s="0">
+      <c r="D212">
         <v>0.4703824263507359</v>
       </c>
-      <c r="E213" s="0">
-        <v>34</v>
-      </c>
-      <c r="F213" s="0">
-        <v>0</v>
-      </c>
-      <c r="G213" s="0">
+      <c r="E212">
+        <v>34</v>
+      </c>
+      <c r="F212">
+        <v>0</v>
+      </c>
+      <c r="G212">
         <v>59639</v>
       </c>
-      <c r="H213" s="0">
+      <c r="H212">
         <v>7535391</v>
       </c>
-      <c r="I213" s="0">
+      <c r="I212">
         <v>126.35005617129731</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" s="0">
-        <v>7</v>
-      </c>
-      <c r="B214" s="0">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>7</v>
+      </c>
+      <c r="B213">
         <v>13</v>
       </c>
-      <c r="C214" s="0">
+      <c r="C213">
         <v>5</v>
       </c>
-      <c r="D214" s="0">
+      <c r="D213">
         <v>0.44928984990491716</v>
       </c>
-      <c r="E214" s="0">
-        <v>34</v>
-      </c>
-      <c r="F214" s="0">
-        <v>0</v>
-      </c>
-      <c r="G214" s="0">
+      <c r="E213">
+        <v>34</v>
+      </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
+      <c r="G213">
         <v>57201</v>
       </c>
-      <c r="H214" s="0">
+      <c r="H213">
         <v>7197494</v>
       </c>
-      <c r="I214" s="0">
+      <c r="I213">
         <v>125.82811489309627</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" s="0">
-        <v>7</v>
-      </c>
-      <c r="B215" s="0">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>7</v>
+      </c>
+      <c r="B214">
         <v>14</v>
       </c>
-      <c r="C215" s="0">
+      <c r="C214">
         <v>1</v>
       </c>
-      <c r="D215" s="0">
+      <c r="D214">
         <v>0.47358710318887132</v>
       </c>
-      <c r="E215" s="0">
-        <v>34</v>
-      </c>
-      <c r="F215" s="0">
-        <v>0</v>
-      </c>
-      <c r="G215" s="0">
+      <c r="E214">
+        <v>34</v>
+      </c>
+      <c r="F214">
+        <v>0</v>
+      </c>
+      <c r="G214">
         <v>72250</v>
       </c>
-      <c r="H215" s="0">
+      <c r="H214">
         <v>7586729</v>
       </c>
-      <c r="I215" s="0">
+      <c r="I214">
         <v>105.00662975778546</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="0">
-        <v>7</v>
-      </c>
-      <c r="B216" s="0">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>7</v>
+      </c>
+      <c r="B215">
         <v>14</v>
       </c>
-      <c r="C216" s="0">
+      <c r="C215">
         <v>2</v>
       </c>
-      <c r="D216" s="0">
+      <c r="D215">
         <v>0.4565909799127475</v>
       </c>
-      <c r="E216" s="0">
-        <v>34</v>
-      </c>
-      <c r="F216" s="0">
-        <v>0</v>
-      </c>
-      <c r="G216" s="0">
+      <c r="E215">
+        <v>34</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
+      <c r="G215">
         <v>73567</v>
       </c>
-      <c r="H216" s="0">
+      <c r="H215">
         <v>7314456</v>
       </c>
-      <c r="I216" s="0">
+      <c r="I215">
         <v>99.42577514374652</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" s="0">
-        <v>7</v>
-      </c>
-      <c r="B217" s="0">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>7</v>
+      </c>
+      <c r="B216">
         <v>14</v>
       </c>
-      <c r="C217" s="0">
+      <c r="C216">
         <v>3</v>
       </c>
-      <c r="D217" s="0">
+      <c r="D216">
         <v>0.46251636733544271</v>
       </c>
-      <c r="E217" s="0">
-        <v>34</v>
-      </c>
-      <c r="F217" s="0">
-        <v>0</v>
-      </c>
-      <c r="G217" s="0">
+      <c r="E216">
+        <v>34</v>
+      </c>
+      <c r="F216">
+        <v>0</v>
+      </c>
+      <c r="G216">
         <v>71964</v>
       </c>
-      <c r="H217" s="0">
+      <c r="H216">
         <v>7409379</v>
       </c>
-      <c r="I217" s="0">
+      <c r="I216">
         <v>102.95952142738035</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="0">
-        <v>7</v>
-      </c>
-      <c r="B218" s="0">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>7</v>
+      </c>
+      <c r="B217">
         <v>14</v>
       </c>
-      <c r="C218" s="0">
+      <c r="C217">
         <v>4</v>
       </c>
-      <c r="D218" s="0">
+      <c r="D217">
         <v>0.41654100897694041</v>
       </c>
-      <c r="E218" s="0">
-        <v>34</v>
-      </c>
-      <c r="F218" s="0">
-        <v>0</v>
-      </c>
-      <c r="G218" s="0">
+      <c r="E217">
+        <v>34</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
+      <c r="G217">
         <v>61291</v>
       </c>
-      <c r="H218" s="0">
+      <c r="H217">
         <v>6672867</v>
       </c>
-      <c r="I218" s="0">
+      <c r="I217">
         <v>108.87188983700706</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" s="0">
-        <v>7</v>
-      </c>
-      <c r="B219" s="0">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>7</v>
+      </c>
+      <c r="B218">
         <v>14</v>
       </c>
-      <c r="C219" s="0">
+      <c r="C218">
         <v>5</v>
       </c>
-      <c r="D219" s="0">
+      <c r="D218">
         <v>0.41762423694008982</v>
       </c>
-      <c r="E219" s="0">
-        <v>34</v>
-      </c>
-      <c r="F219" s="0">
-        <v>0</v>
-      </c>
-      <c r="G219" s="0">
+      <c r="E218">
+        <v>34</v>
+      </c>
+      <c r="F218">
+        <v>0</v>
+      </c>
+      <c r="G218">
         <v>63148</v>
       </c>
-      <c r="H219" s="0">
+      <c r="H218">
         <v>6690220</v>
       </c>
-      <c r="I219" s="0">
+      <c r="I218">
         <v>105.94508139608538</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" s="0">
-        <v>7</v>
-      </c>
-      <c r="B220" s="0">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>7</v>
+      </c>
+      <c r="B219">
         <v>15</v>
       </c>
-      <c r="C220" s="0">
+      <c r="C219">
         <v>1</v>
       </c>
-      <c r="D220" s="0">
+      <c r="D219">
         <v>0.39819748320069676</v>
       </c>
-      <c r="E220" s="0">
-        <v>34</v>
-      </c>
-      <c r="F220" s="0">
-        <v>0</v>
-      </c>
-      <c r="G220" s="0">
+      <c r="E219">
+        <v>34</v>
+      </c>
+      <c r="F219">
+        <v>0</v>
+      </c>
+      <c r="G219">
         <v>53621</v>
       </c>
-      <c r="H220" s="0">
+      <c r="H219">
         <v>6379009</v>
       </c>
-      <c r="I220" s="0">
+      <c r="I219">
         <v>118.96475261557971</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" s="0">
-        <v>7</v>
-      </c>
-      <c r="B221" s="0">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>7</v>
+      </c>
+      <c r="B220">
         <v>15</v>
       </c>
-      <c r="C221" s="0">
+      <c r="C220">
         <v>2</v>
       </c>
-      <c r="D221" s="0">
+      <c r="D220">
         <v>0.42635142254742159</v>
       </c>
-      <c r="E221" s="0">
-        <v>34</v>
-      </c>
-      <c r="F221" s="0">
-        <v>0</v>
-      </c>
-      <c r="G221" s="0">
+      <c r="E220">
+        <v>34</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+      <c r="G220">
         <v>53821</v>
       </c>
-      <c r="H221" s="0">
+      <c r="H220">
         <v>6830027</v>
       </c>
-      <c r="I221" s="0">
+      <c r="I220">
         <v>126.90264023336616</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="0">
-        <v>7</v>
-      </c>
-      <c r="B222" s="0">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>7</v>
+      </c>
+      <c r="B221">
         <v>15</v>
       </c>
-      <c r="C222" s="0">
+      <c r="C221">
         <v>3</v>
       </c>
-      <c r="D222" s="0">
+      <c r="D221">
         <v>0.48297666025456637</v>
       </c>
-      <c r="E222" s="0">
-        <v>34</v>
-      </c>
-      <c r="F222" s="0">
-        <v>0</v>
-      </c>
-      <c r="G222" s="0">
+      <c r="E221">
+        <v>34</v>
+      </c>
+      <c r="F221">
+        <v>0</v>
+      </c>
+      <c r="G221">
         <v>58597</v>
       </c>
-      <c r="H222" s="0">
+      <c r="H221">
         <v>7737147</v>
       </c>
-      <c r="I222" s="0">
+      <c r="I221">
         <v>132.03998498216632</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" s="0">
-        <v>7</v>
-      </c>
-      <c r="B223" s="0">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>7</v>
+      </c>
+      <c r="B222">
         <v>15</v>
       </c>
-      <c r="C223" s="0">
+      <c r="C222">
         <v>4</v>
       </c>
-      <c r="D223" s="0">
+      <c r="D222">
         <v>0.45397445347332088</v>
       </c>
-      <c r="E223" s="0">
-        <v>34</v>
-      </c>
-      <c r="F223" s="0">
-        <v>0</v>
-      </c>
-      <c r="G223" s="0">
+      <c r="E222">
+        <v>34</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+      <c r="G222">
         <v>60617</v>
       </c>
-      <c r="H223" s="0">
+      <c r="H222">
         <v>7272540</v>
       </c>
-      <c r="I223" s="0">
+      <c r="I222">
         <v>119.97525446656879</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="0">
-        <v>7</v>
-      </c>
-      <c r="B224" s="0">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>7</v>
+      </c>
+      <c r="B223">
         <v>15</v>
       </c>
-      <c r="C224" s="0">
+      <c r="C223">
         <v>5</v>
       </c>
-      <c r="D224" s="0">
+      <c r="D223">
         <v>0.42840863805791263</v>
       </c>
-      <c r="E224" s="0">
-        <v>34</v>
-      </c>
-      <c r="F224" s="0">
-        <v>0</v>
-      </c>
-      <c r="G224" s="0">
+      <c r="E223">
+        <v>34</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+      <c r="G223">
         <v>55304</v>
       </c>
-      <c r="H224" s="0">
+      <c r="H223">
         <v>6862983</v>
       </c>
-      <c r="I224" s="0">
+      <c r="I223">
         <v>124.09559887169101</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" s="0">
-        <v>7</v>
-      </c>
-      <c r="B225" s="0">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>7</v>
+      </c>
+      <c r="B224">
         <v>16</v>
       </c>
-      <c r="C225" s="0">
+      <c r="C224">
         <v>1</v>
       </c>
-      <c r="D225" s="0">
+      <c r="D224">
         <v>0.49024233394458028</v>
       </c>
-      <c r="E225" s="0">
-        <v>34</v>
-      </c>
-      <c r="F225" s="0">
-        <v>0</v>
-      </c>
-      <c r="G225" s="0">
+      <c r="E224">
+        <v>34</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="G224">
         <v>56976</v>
       </c>
-      <c r="H225" s="0">
+      <c r="H224">
         <v>7853541</v>
       </c>
-      <c r="I225" s="0">
+      <c r="I224">
         <v>137.83945871946082</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" s="0">
-        <v>7</v>
-      </c>
-      <c r="B226" s="0">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>7</v>
+      </c>
+      <c r="B225">
         <v>16</v>
       </c>
-      <c r="C226" s="0">
+      <c r="C225">
         <v>2</v>
       </c>
-      <c r="D226" s="0">
+      <c r="D225">
         <v>0.48172576385892579</v>
       </c>
-      <c r="E226" s="0">
-        <v>34</v>
-      </c>
-      <c r="F226" s="0">
-        <v>0</v>
-      </c>
-      <c r="G226" s="0">
+      <c r="E225">
+        <v>34</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+      <c r="G225">
         <v>64945</v>
       </c>
-      <c r="H226" s="0">
+      <c r="H225">
         <v>7717108</v>
       </c>
-      <c r="I226" s="0">
+      <c r="I225">
         <v>118.82528293171144</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" s="0">
-        <v>7</v>
-      </c>
-      <c r="B227" s="0">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>7</v>
+      </c>
+      <c r="B226">
         <v>16</v>
       </c>
-      <c r="C227" s="0">
+      <c r="C226">
         <v>3</v>
       </c>
-      <c r="D227" s="0">
+      <c r="D226">
         <v>0.46595650408696487</v>
       </c>
-      <c r="E227" s="0">
-        <v>34</v>
-      </c>
-      <c r="F227" s="0">
-        <v>0</v>
-      </c>
-      <c r="G227" s="0">
+      <c r="E226">
+        <v>34</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226">
         <v>57985</v>
       </c>
-      <c r="H227" s="0">
+      <c r="H226">
         <v>7464489</v>
       </c>
-      <c r="I227" s="0">
+      <c r="I226">
         <v>128.73137880486334</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" s="0">
-        <v>7</v>
-      </c>
-      <c r="B228" s="0">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>7</v>
+      </c>
+      <c r="B227">
         <v>16</v>
       </c>
-      <c r="C228" s="0">
+      <c r="C227">
         <v>4</v>
       </c>
-      <c r="D228" s="0">
+      <c r="D227">
         <v>0.53513003230020617</v>
       </c>
-      <c r="E228" s="0">
-        <v>34</v>
-      </c>
-      <c r="F228" s="0">
-        <v>0</v>
-      </c>
-      <c r="G228" s="0">
+      <c r="E227">
+        <v>34</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+      <c r="G227">
         <v>54870</v>
       </c>
-      <c r="H228" s="0">
+      <c r="H227">
         <v>8572629</v>
       </c>
-      <c r="I228" s="0">
+      <c r="I227">
         <v>156.23526517222527</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" s="0">
-        <v>7</v>
-      </c>
-      <c r="B229" s="0">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>7</v>
+      </c>
+      <c r="B228">
         <v>16</v>
       </c>
-      <c r="C229" s="0">
+      <c r="C228">
         <v>5</v>
       </c>
-      <c r="D229" s="0">
+      <c r="D228">
         <v>0.55882977172123949</v>
       </c>
-      <c r="E229" s="0">
-        <v>34</v>
-      </c>
-      <c r="F229" s="0">
-        <v>0</v>
-      </c>
-      <c r="G229" s="0">
+      <c r="E228">
+        <v>34</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+      <c r="G228">
         <v>73546</v>
       </c>
-      <c r="H229" s="0">
+      <c r="H228">
         <v>8952292</v>
       </c>
-      <c r="I229" s="0">
+      <c r="I228">
         <v>121.72371033094934</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" s="0">
-        <v>7</v>
-      </c>
-      <c r="B230" s="0">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>7</v>
+      </c>
+      <c r="B229">
         <v>17</v>
       </c>
-      <c r="C230" s="0">
+      <c r="C229">
         <v>1</v>
       </c>
-      <c r="D230" s="0">
+      <c r="D229">
         <v>0.47628840019096474</v>
       </c>
-      <c r="E230" s="0">
-        <v>34</v>
-      </c>
-      <c r="F230" s="0">
-        <v>0</v>
-      </c>
-      <c r="G230" s="0">
+      <c r="E229">
+        <v>34</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+      <c r="G229">
         <v>72093</v>
       </c>
-      <c r="H230" s="0">
+      <c r="H229">
         <v>7630003</v>
       </c>
-      <c r="I230" s="0">
+      <c r="I229">
         <v>105.83555962437407</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" s="0">
-        <v>7</v>
-      </c>
-      <c r="B231" s="0">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>7</v>
+      </c>
+      <c r="B230">
         <v>17</v>
       </c>
-      <c r="C231" s="0">
+      <c r="C230">
         <v>2</v>
       </c>
-      <c r="D231" s="0">
+      <c r="D230">
         <v>0.44441148505041789</v>
       </c>
-      <c r="E231" s="0">
-        <v>34</v>
-      </c>
-      <c r="F231" s="0">
-        <v>0</v>
-      </c>
-      <c r="G231" s="0">
+      <c r="E230">
+        <v>34</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+      <c r="G230">
         <v>64251</v>
       </c>
-      <c r="H231" s="0">
+      <c r="H230">
         <v>7119344</v>
       </c>
-      <c r="I231" s="0">
+      <c r="I230">
         <v>110.80518591150333</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" s="0">
-        <v>7</v>
-      </c>
-      <c r="B232" s="0">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>7</v>
+      </c>
+      <c r="B231">
         <v>17</v>
       </c>
-      <c r="C232" s="0">
+      <c r="C231">
         <v>3</v>
       </c>
-      <c r="D232" s="0">
+      <c r="D231">
         <v>0.4223359945547086</v>
       </c>
-      <c r="E232" s="0">
-        <v>34</v>
-      </c>
-      <c r="F232" s="0">
-        <v>0</v>
-      </c>
-      <c r="G232" s="0">
+      <c r="E231">
+        <v>34</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="G231">
         <v>63185</v>
       </c>
-      <c r="H232" s="0">
+      <c r="H231">
         <v>6765701</v>
       </c>
-      <c r="I232" s="0">
+      <c r="I231">
         <v>107.07764501068291</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" s="0">
-        <v>7</v>
-      </c>
-      <c r="B233" s="0">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>7</v>
+      </c>
+      <c r="B232">
         <v>17</v>
       </c>
-      <c r="C233" s="0">
+      <c r="C232">
         <v>4</v>
       </c>
-      <c r="D233" s="0">
+      <c r="D232">
         <v>0.42324287727519694</v>
       </c>
-      <c r="E233" s="0">
-        <v>34</v>
-      </c>
-      <c r="F233" s="0">
-        <v>0</v>
-      </c>
-      <c r="G233" s="0">
+      <c r="E232">
+        <v>34</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+      <c r="G232">
         <v>62351</v>
       </c>
-      <c r="H233" s="0">
+      <c r="H232">
         <v>6780229</v>
       </c>
-      <c r="I233" s="0">
+      <c r="I232">
         <v>108.74290709050376</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" s="0">
-        <v>7</v>
-      </c>
-      <c r="B234" s="0">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>7</v>
+      </c>
+      <c r="B233">
         <v>17</v>
       </c>
-      <c r="C234" s="0">
+      <c r="C233">
         <v>5</v>
       </c>
-      <c r="D234" s="0">
+      <c r="D233">
         <v>0.45076884028876424</v>
       </c>
-      <c r="E234" s="0">
-        <v>34</v>
-      </c>
-      <c r="F234" s="0">
-        <v>0</v>
-      </c>
-      <c r="G234" s="0">
+      <c r="E233">
+        <v>34</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+      <c r="G233">
         <v>60849</v>
       </c>
-      <c r="H234" s="0">
+      <c r="H233">
         <v>7221187</v>
       </c>
-      <c r="I234" s="0">
+      <c r="I233">
         <v>118.67388124702131</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" s="0">
-        <v>7</v>
-      </c>
-      <c r="B235" s="0">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>7</v>
+      </c>
+      <c r="B234">
         <v>18</v>
       </c>
-      <c r="C235" s="0">
+      <c r="C234">
         <v>1</v>
       </c>
-      <c r="D235" s="0">
+      <c r="D234">
         <v>0.48911771946961341</v>
       </c>
-      <c r="E235" s="0">
-        <v>34</v>
-      </c>
-      <c r="F235" s="0">
-        <v>0</v>
-      </c>
-      <c r="G235" s="0">
+      <c r="E234">
+        <v>34</v>
+      </c>
+      <c r="F234">
+        <v>0</v>
+      </c>
+      <c r="G234">
         <v>60649</v>
       </c>
-      <c r="H235" s="0">
+      <c r="H234">
         <v>7835525</v>
       </c>
-      <c r="I235" s="0">
+      <c r="I234">
         <v>129.19462810598691</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" s="0">
-        <v>7</v>
-      </c>
-      <c r="B236" s="0">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>7</v>
+      </c>
+      <c r="B235">
         <v>18</v>
       </c>
-      <c r="C236" s="0">
+      <c r="C235">
         <v>2</v>
       </c>
-      <c r="D236" s="0">
+      <c r="D235">
         <v>0.51163972236204991</v>
       </c>
-      <c r="E236" s="0">
-        <v>34</v>
-      </c>
-      <c r="F236" s="0">
-        <v>0</v>
-      </c>
-      <c r="G236" s="0">
+      <c r="E235">
+        <v>34</v>
+      </c>
+      <c r="F235">
+        <v>0</v>
+      </c>
+      <c r="G235">
         <v>63075</v>
       </c>
-      <c r="H236" s="0">
+      <c r="H235">
         <v>8196321</v>
       </c>
-      <c r="I236" s="0">
+      <c r="I235">
         <v>129.94563614744351</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" s="0">
-        <v>7</v>
-      </c>
-      <c r="B237" s="0">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>7</v>
+      </c>
+      <c r="B236">
         <v>18</v>
       </c>
-      <c r="C237" s="0">
+      <c r="C236">
         <v>3</v>
       </c>
-      <c r="D237" s="0">
+      <c r="D236">
         <v>0.52948960630503217</v>
       </c>
-      <c r="E237" s="0">
-        <v>34</v>
-      </c>
-      <c r="F237" s="0">
-        <v>0</v>
-      </c>
-      <c r="G237" s="0">
+      <c r="E236">
+        <v>34</v>
+      </c>
+      <c r="F236">
+        <v>0</v>
+      </c>
+      <c r="G236">
         <v>67598</v>
       </c>
-      <c r="H237" s="0">
+      <c r="H236">
         <v>8482271</v>
       </c>
-      <c r="I237" s="0">
+      <c r="I236">
         <v>125.48109411521051</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" s="0">
-        <v>7</v>
-      </c>
-      <c r="B238" s="0">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>7</v>
+      </c>
+      <c r="B237">
         <v>18</v>
       </c>
-      <c r="C238" s="0">
+      <c r="C237">
         <v>4</v>
       </c>
-      <c r="D238" s="0">
+      <c r="D237">
         <v>0.53263429454911548</v>
       </c>
-      <c r="E238" s="0">
-        <v>34</v>
-      </c>
-      <c r="F238" s="0">
-        <v>0</v>
-      </c>
-      <c r="G238" s="0">
+      <c r="E237">
+        <v>34</v>
+      </c>
+      <c r="F237">
+        <v>0</v>
+      </c>
+      <c r="G237">
         <v>65531</v>
       </c>
-      <c r="H238" s="0">
+      <c r="H237">
         <v>8532648</v>
       </c>
-      <c r="I238" s="0">
+      <c r="I237">
         <v>130.20781004410125</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" s="0">
-        <v>7</v>
-      </c>
-      <c r="B239" s="0">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>7</v>
+      </c>
+      <c r="B238">
         <v>18</v>
       </c>
-      <c r="C239" s="0">
+      <c r="C238">
         <v>5</v>
       </c>
-      <c r="D239" s="0">
+      <c r="D238">
         <v>0.47381288752257217</v>
       </c>
-      <c r="E239" s="0">
-        <v>34</v>
-      </c>
-      <c r="F239" s="0">
-        <v>0</v>
-      </c>
-      <c r="G239" s="0">
+      <c r="E238">
+        <v>34</v>
+      </c>
+      <c r="F238">
+        <v>0</v>
+      </c>
+      <c r="G238">
         <v>65226</v>
       </c>
-      <c r="H239" s="0">
+      <c r="H238">
         <v>7590346</v>
       </c>
-      <c r="I239" s="0">
+      <c r="I238">
         <v>116.36994450065924</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" s="0">
-        <v>7</v>
-      </c>
-      <c r="B240" s="0">
-        <v>19</v>
-      </c>
-      <c r="C240" s="0">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>7</v>
+      </c>
+      <c r="B239">
+        <v>19</v>
+      </c>
+      <c r="C239">
         <v>1</v>
       </c>
-      <c r="D240" s="0">
+      <c r="D239">
         <v>0.53566212675983194</v>
       </c>
-      <c r="E240" s="0">
-        <v>34</v>
-      </c>
-      <c r="F240" s="0">
-        <v>0</v>
-      </c>
-      <c r="G240" s="0">
+      <c r="E239">
+        <v>34</v>
+      </c>
+      <c r="F239">
+        <v>0</v>
+      </c>
+      <c r="G239">
         <v>66656</v>
       </c>
-      <c r="H240" s="0">
+      <c r="H239">
         <v>8581153</v>
       </c>
-      <c r="I240" s="0">
+      <c r="I239">
         <v>128.73789306289007</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" s="0">
-        <v>7</v>
-      </c>
-      <c r="B241" s="0">
-        <v>19</v>
-      </c>
-      <c r="C241" s="0">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>7</v>
+      </c>
+      <c r="B240">
+        <v>19</v>
+      </c>
+      <c r="C240">
         <v>2</v>
       </c>
-      <c r="D241" s="0">
+      <c r="D240">
         <v>0.50444533584623741</v>
       </c>
-      <c r="E241" s="0">
-        <v>34</v>
-      </c>
-      <c r="F241" s="0">
-        <v>0</v>
-      </c>
-      <c r="G241" s="0">
+      <c r="E240">
+        <v>34</v>
+      </c>
+      <c r="F240">
+        <v>0</v>
+      </c>
+      <c r="G240">
         <v>64647</v>
       </c>
-      <c r="H241" s="0">
+      <c r="H240">
         <v>8081069</v>
       </c>
-      <c r="I241" s="0">
+      <c r="I240">
         <v>125.00300091264869</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" s="0">
-        <v>7</v>
-      </c>
-      <c r="B242" s="0">
-        <v>19</v>
-      </c>
-      <c r="C242" s="0">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>7</v>
+      </c>
+      <c r="B241">
+        <v>19</v>
+      </c>
+      <c r="C241">
         <v>3</v>
       </c>
-      <c r="D242" s="0">
+      <c r="D241">
         <v>0.48986417483660133</v>
       </c>
-      <c r="E242" s="0">
-        <v>34</v>
-      </c>
-      <c r="F242" s="0">
-        <v>0</v>
-      </c>
-      <c r="G242" s="0">
+      <c r="E241">
+        <v>34</v>
+      </c>
+      <c r="F241">
+        <v>0</v>
+      </c>
+      <c r="G241">
         <v>61285</v>
       </c>
-      <c r="H242" s="0">
+      <c r="H241">
         <v>7847483</v>
       </c>
-      <c r="I242" s="0">
+      <c r="I241">
         <v>128.04900057110223</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" s="0">
-        <v>7</v>
-      </c>
-      <c r="B243" s="0">
-        <v>19</v>
-      </c>
-      <c r="C243" s="0">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>7</v>
+      </c>
+      <c r="B242">
+        <v>19</v>
+      </c>
+      <c r="C242">
         <v>4</v>
       </c>
-      <c r="D243" s="0">
+      <c r="D242">
         <v>0.47712112427489334</v>
       </c>
-      <c r="E243" s="0">
-        <v>34</v>
-      </c>
-      <c r="F243" s="0">
-        <v>0</v>
-      </c>
-      <c r="G243" s="0">
+      <c r="E242">
+        <v>34</v>
+      </c>
+      <c r="F242">
+        <v>0</v>
+      </c>
+      <c r="G242">
         <v>60976</v>
       </c>
-      <c r="H243" s="0">
+      <c r="H242">
         <v>7643343</v>
       </c>
-      <c r="I243" s="0">
+      <c r="I242">
         <v>125.35002295985306</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" s="0">
-        <v>7</v>
-      </c>
-      <c r="B244" s="0">
-        <v>19</v>
-      </c>
-      <c r="C244" s="0">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>7</v>
+      </c>
+      <c r="B243">
+        <v>19</v>
+      </c>
+      <c r="C243">
         <v>5</v>
       </c>
-      <c r="D244" s="0">
+      <c r="D243">
         <v>0.56104510493072535</v>
       </c>
-      <c r="E244" s="0">
-        <v>34</v>
-      </c>
-      <c r="F244" s="0">
-        <v>0</v>
-      </c>
-      <c r="G244" s="0">
+      <c r="E243">
+        <v>34</v>
+      </c>
+      <c r="F243">
+        <v>0</v>
+      </c>
+      <c r="G243">
         <v>69237</v>
       </c>
-      <c r="H244" s="0">
+      <c r="H243">
         <v>8987781</v>
       </c>
-      <c r="I244" s="0">
+      <c r="I243">
         <v>129.81182026950907</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" s="0">
-        <v>7</v>
-      </c>
-      <c r="B245" s="0">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>7</v>
+      </c>
+      <c r="B244">
         <v>20</v>
       </c>
-      <c r="C245" s="0">
+      <c r="C244">
         <v>1</v>
       </c>
-      <c r="D245" s="0">
+      <c r="D244">
         <v>0.41936858789970755</v>
       </c>
-      <c r="E245" s="0">
-        <v>34</v>
-      </c>
-      <c r="F245" s="0">
-        <v>0</v>
-      </c>
-      <c r="G245" s="0">
+      <c r="E244">
+        <v>34</v>
+      </c>
+      <c r="F244">
+        <v>0</v>
+      </c>
+      <c r="G244">
         <v>57612</v>
       </c>
-      <c r="H245" s="0">
+      <c r="H244">
         <v>6718164</v>
       </c>
-      <c r="I245" s="0">
+      <c r="I244">
         <v>116.61049781295563</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" s="0">
-        <v>7</v>
-      </c>
-      <c r="B246" s="0">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>7</v>
+      </c>
+      <c r="B245">
         <v>20</v>
       </c>
-      <c r="C246" s="0">
+      <c r="C245">
         <v>2</v>
       </c>
-      <c r="D246" s="0">
+      <c r="D245">
         <v>0.41570741096968533</v>
       </c>
-      <c r="E246" s="0">
-        <v>34</v>
-      </c>
-      <c r="F246" s="0">
-        <v>0</v>
-      </c>
-      <c r="G246" s="0">
+      <c r="E245">
+        <v>34</v>
+      </c>
+      <c r="F245">
+        <v>0</v>
+      </c>
+      <c r="G245">
         <v>57258</v>
       </c>
-      <c r="H246" s="0">
+      <c r="H245">
         <v>6659513</v>
       </c>
-      <c r="I246" s="0">
+      <c r="I245">
         <v>116.30711865590834</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" s="0">
-        <v>7</v>
-      </c>
-      <c r="B247" s="0">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>7</v>
+      </c>
+      <c r="B246">
         <v>20</v>
       </c>
-      <c r="C247" s="0">
+      <c r="C246">
         <v>3</v>
       </c>
-      <c r="D247" s="0">
+      <c r="D246">
         <v>0.43310753651501349</v>
       </c>
-      <c r="E247" s="0">
-        <v>34</v>
-      </c>
-      <c r="F247" s="0">
-        <v>0</v>
-      </c>
-      <c r="G247" s="0">
+      <c r="E246">
+        <v>34</v>
+      </c>
+      <c r="F246">
+        <v>0</v>
+      </c>
+      <c r="G246">
         <v>60802</v>
       </c>
-      <c r="H247" s="0">
+      <c r="H246">
         <v>6938258</v>
       </c>
-      <c r="I247" s="0">
+      <c r="I246">
         <v>114.11233183118976</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" s="0">
-        <v>7</v>
-      </c>
-      <c r="B248" s="0">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>7</v>
+      </c>
+      <c r="B247">
         <v>20</v>
       </c>
-      <c r="C248" s="0">
+      <c r="C247">
         <v>4</v>
       </c>
-      <c r="D248" s="0">
+      <c r="D247">
         <v>0.3946604033830321</v>
       </c>
-      <c r="E248" s="0">
-        <v>34</v>
-      </c>
-      <c r="F248" s="0">
-        <v>0</v>
-      </c>
-      <c r="G248" s="0">
+      <c r="E247">
+        <v>34</v>
+      </c>
+      <c r="F247">
+        <v>0</v>
+      </c>
+      <c r="G247">
         <v>51813</v>
       </c>
-      <c r="H248" s="0">
+      <c r="H247">
         <v>6322346</v>
       </c>
-      <c r="I248" s="0">
+      <c r="I247">
         <v>122.02238820373266</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" s="0">
-        <v>7</v>
-      </c>
-      <c r="B249" s="0">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>7</v>
+      </c>
+      <c r="B248">
         <v>20</v>
       </c>
-      <c r="C249" s="0">
+      <c r="C248">
         <v>5</v>
       </c>
-      <c r="D249" s="0">
+      <c r="D248">
         <v>0.36797590368665806</v>
       </c>
-      <c r="E249" s="0">
-        <v>34</v>
-      </c>
-      <c r="F249" s="0">
-        <v>0</v>
-      </c>
-      <c r="G249" s="0">
+      <c r="E248">
+        <v>34</v>
+      </c>
+      <c r="F248">
+        <v>0</v>
+      </c>
+      <c r="G248">
         <v>49744</v>
       </c>
-      <c r="H249" s="0">
+      <c r="H248">
         <v>5894868</v>
       </c>
-      <c r="I249" s="0">
+      <c r="I248">
         <v>118.50410099710518</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" s="0">
-        <v>7</v>
-      </c>
-      <c r="B250" s="0">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>7</v>
+      </c>
+      <c r="B249">
         <v>21</v>
       </c>
-      <c r="C250" s="0">
+      <c r="C249">
         <v>1</v>
       </c>
-      <c r="D250" s="0">
+      <c r="D249">
         <v>0.51268050262077125</v>
       </c>
-      <c r="E250" s="0">
-        <v>34</v>
-      </c>
-      <c r="F250" s="0">
-        <v>0</v>
-      </c>
-      <c r="G250" s="0">
+      <c r="E249">
+        <v>34</v>
+      </c>
+      <c r="F249">
+        <v>0</v>
+      </c>
+      <c r="G249">
         <v>68081</v>
       </c>
-      <c r="H250" s="0">
+      <c r="H249">
         <v>8212994</v>
       </c>
-      <c r="I250" s="0">
+      <c r="I249">
         <v>120.63562521114555</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" s="0">
-        <v>7</v>
-      </c>
-      <c r="B251" s="0">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>7</v>
+      </c>
+      <c r="B250">
         <v>21</v>
       </c>
-      <c r="C251" s="0">
+      <c r="C250">
         <v>2</v>
       </c>
-      <c r="D251" s="0">
+      <c r="D250">
         <v>0.44394630814836122</v>
       </c>
-      <c r="E251" s="0">
-        <v>34</v>
-      </c>
-      <c r="F251" s="0">
-        <v>0</v>
-      </c>
-      <c r="G251" s="0">
+      <c r="E250">
+        <v>34</v>
+      </c>
+      <c r="F250">
+        <v>0</v>
+      </c>
+      <c r="G250">
         <v>55815</v>
       </c>
-      <c r="H251" s="0">
+      <c r="H250">
         <v>7111892</v>
       </c>
-      <c r="I251" s="0">
+      <c r="I250">
         <v>127.41900922691033</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" s="0">
-        <v>7</v>
-      </c>
-      <c r="B252" s="0">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>7</v>
+      </c>
+      <c r="B251">
         <v>21</v>
       </c>
-      <c r="C252" s="0">
+      <c r="C251">
         <v>3</v>
       </c>
-      <c r="D252" s="0">
+      <c r="D251">
         <v>0.45641207532320183</v>
       </c>
-      <c r="E252" s="0">
-        <v>34</v>
-      </c>
-      <c r="F252" s="0">
-        <v>0</v>
-      </c>
-      <c r="G252" s="0">
+      <c r="E251">
+        <v>34</v>
+      </c>
+      <c r="F251">
+        <v>0</v>
+      </c>
+      <c r="G251">
         <v>58008</v>
       </c>
-      <c r="H252" s="0">
+      <c r="H251">
         <v>7311590</v>
       </c>
-      <c r="I252" s="0">
+      <c r="I251">
         <v>126.04451110191698</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" s="0">
-        <v>7</v>
-      </c>
-      <c r="B253" s="0">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>7</v>
+      </c>
+      <c r="B252">
         <v>21</v>
       </c>
-      <c r="C253" s="0">
+      <c r="C252">
         <v>4</v>
       </c>
-      <c r="D253" s="0">
+      <c r="D252">
         <v>0.44830643647026863</v>
       </c>
-      <c r="E253" s="0">
-        <v>34</v>
-      </c>
-      <c r="F253" s="0">
-        <v>0</v>
-      </c>
-      <c r="G253" s="0">
+      <c r="E252">
+        <v>34</v>
+      </c>
+      <c r="F252">
+        <v>0</v>
+      </c>
+      <c r="G252">
         <v>56099</v>
       </c>
-      <c r="H253" s="0">
+      <c r="H252">
         <v>7181740</v>
       </c>
-      <c r="I253" s="0">
+      <c r="I252">
         <v>128.01903777250931</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" s="0">
-        <v>7</v>
-      </c>
-      <c r="B254" s="0">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>7</v>
+      </c>
+      <c r="B253">
         <v>21</v>
       </c>
-      <c r="C254" s="0">
+      <c r="C253">
         <v>5</v>
       </c>
-      <c r="D254" s="0">
+      <c r="D253">
         <v>0.50777579522028859</v>
       </c>
-      <c r="E254" s="0">
-        <v>34</v>
-      </c>
-      <c r="F254" s="0">
-        <v>0</v>
-      </c>
-      <c r="G254" s="0">
+      <c r="E253">
+        <v>34</v>
+      </c>
+      <c r="F253">
+        <v>0</v>
+      </c>
+      <c r="G253">
         <v>62982</v>
       </c>
-      <c r="H254" s="0">
+      <c r="H253">
         <v>8134422</v>
       </c>
-      <c r="I254" s="0">
+      <c r="I253">
         <v>129.15471086977232</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" s="0">
-        <v>7</v>
-      </c>
-      <c r="B255" s="0">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>7</v>
+      </c>
+      <c r="B254">
         <v>22</v>
       </c>
-      <c r="C255" s="0">
+      <c r="C254">
         <v>1</v>
       </c>
-      <c r="D255" s="0">
+      <c r="D254">
         <v>0.45175737241718206</v>
       </c>
-      <c r="E255" s="0">
-        <v>34</v>
-      </c>
-      <c r="F255" s="0">
-        <v>0</v>
-      </c>
-      <c r="G255" s="0">
+      <c r="E254">
+        <v>34</v>
+      </c>
+      <c r="F254">
+        <v>0</v>
+      </c>
+      <c r="G254">
         <v>70128</v>
       </c>
-      <c r="H255" s="0">
+      <c r="H254">
         <v>7237023</v>
       </c>
-      <c r="I255" s="0">
+      <c r="I254">
         <v>103.19733915126626</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" s="0">
-        <v>7</v>
-      </c>
-      <c r="B256" s="0">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>7</v>
+      </c>
+      <c r="B255">
         <v>22</v>
       </c>
-      <c r="C256" s="0">
+      <c r="C255">
         <v>2</v>
       </c>
-      <c r="D256" s="0">
+      <c r="D255">
         <v>0.45464138181760072</v>
       </c>
-      <c r="E256" s="0">
-        <v>34</v>
-      </c>
-      <c r="F256" s="0">
-        <v>0</v>
-      </c>
-      <c r="G256" s="0">
+      <c r="E255">
+        <v>34</v>
+      </c>
+      <c r="F255">
+        <v>0</v>
+      </c>
+      <c r="G255">
         <v>64936</v>
       </c>
-      <c r="H256" s="0">
+      <c r="H255">
         <v>7283224</v>
       </c>
-      <c r="I256" s="0">
+      <c r="I255">
         <v>112.16003449550327</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" s="0">
-        <v>7</v>
-      </c>
-      <c r="B257" s="0">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>7</v>
+      </c>
+      <c r="B256">
         <v>22</v>
       </c>
-      <c r="C257" s="0">
+      <c r="C256">
         <v>3</v>
       </c>
-      <c r="D257" s="0">
+      <c r="D256">
         <v>0.46434879728174888</v>
       </c>
-      <c r="E257" s="0">
-        <v>34</v>
-      </c>
-      <c r="F257" s="0">
-        <v>0</v>
-      </c>
-      <c r="G257" s="0">
+      <c r="E256">
+        <v>34</v>
+      </c>
+      <c r="F256">
+        <v>0</v>
+      </c>
+      <c r="G256">
         <v>70671</v>
       </c>
-      <c r="H257" s="0">
+      <c r="H256">
         <v>7438734</v>
       </c>
-      <c r="I257" s="0">
+      <c r="I256">
         <v>105.2586492337734</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" s="0">
-        <v>7</v>
-      </c>
-      <c r="B258" s="0">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>7</v>
+      </c>
+      <c r="B257">
         <v>22</v>
       </c>
-      <c r="C258" s="0">
+      <c r="C257">
         <v>4</v>
       </c>
-      <c r="D258" s="0">
+      <c r="D257">
         <v>0.41102293224747111</v>
       </c>
-      <c r="E258" s="0">
-        <v>34</v>
-      </c>
-      <c r="F258" s="0">
-        <v>0</v>
-      </c>
-      <c r="G258" s="0">
+      <c r="E257">
+        <v>34</v>
+      </c>
+      <c r="F257">
+        <v>0</v>
+      </c>
+      <c r="G257">
         <v>63469</v>
       </c>
-      <c r="H258" s="0">
+      <c r="H257">
         <v>6584469</v>
       </c>
-      <c r="I258" s="0">
+      <c r="I257">
         <v>103.74307142069357</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" s="0">
-        <v>7</v>
-      </c>
-      <c r="B259" s="0">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>7</v>
+      </c>
+      <c r="B258">
         <v>22</v>
       </c>
-      <c r="C259" s="0">
+      <c r="C258">
         <v>5</v>
       </c>
-      <c r="D259" s="0">
+      <c r="D258">
         <v>0.40701967675823386</v>
       </c>
-      <c r="E259" s="0">
-        <v>34</v>
-      </c>
-      <c r="F259" s="0">
-        <v>0</v>
-      </c>
-      <c r="G259" s="0">
+      <c r="E258">
+        <v>34</v>
+      </c>
+      <c r="F258">
+        <v>0</v>
+      </c>
+      <c r="G258">
         <v>63111</v>
       </c>
-      <c r="H259" s="0">
+      <c r="H258">
         <v>6520338</v>
       </c>
-      <c r="I259" s="0">
+      <c r="I258">
         <v>103.31539668203641</v>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" s="0">
-        <v>7</v>
-      </c>
-      <c r="B260" s="0">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>7</v>
+      </c>
+      <c r="B259">
         <v>23</v>
       </c>
-      <c r="C260" s="0">
+      <c r="C259">
         <v>1</v>
       </c>
-      <c r="D260" s="0">
+      <c r="D259">
         <v>0.44254228790130556</v>
       </c>
-      <c r="E260" s="0">
-        <v>34</v>
-      </c>
-      <c r="F260" s="0">
-        <v>0</v>
-      </c>
-      <c r="G260" s="0">
+      <c r="E259">
+        <v>34</v>
+      </c>
+      <c r="F259">
+        <v>0</v>
+      </c>
+      <c r="G259">
         <v>56878</v>
       </c>
-      <c r="H260" s="0">
+      <c r="H259">
         <v>7089400</v>
       </c>
-      <c r="I260" s="0">
+      <c r="I259">
         <v>124.64221667428531</v>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" s="0">
-        <v>7</v>
-      </c>
-      <c r="B261" s="0">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>7</v>
+      </c>
+      <c r="B260">
         <v>23</v>
       </c>
-      <c r="C261" s="0">
+      <c r="C260">
         <v>2</v>
       </c>
-      <c r="D261" s="0">
+      <c r="D260">
         <v>0.49708490389839716</v>
       </c>
-      <c r="E261" s="0">
-        <v>34</v>
-      </c>
-      <c r="F261" s="0">
-        <v>0</v>
-      </c>
-      <c r="G261" s="0">
+      <c r="E260">
+        <v>34</v>
+      </c>
+      <c r="F260">
+        <v>0</v>
+      </c>
+      <c r="G260">
         <v>61511</v>
       </c>
-      <c r="H261" s="0">
+      <c r="H260">
         <v>7963157</v>
       </c>
-      <c r="I261" s="0">
+      <c r="I260">
         <v>129.45907236104111</v>
       </c>
     </row>
-    <row r="262">
-      <c r="A262" s="0">
-        <v>7</v>
-      </c>
-      <c r="B262" s="0">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>7</v>
+      </c>
+      <c r="B261">
         <v>23</v>
       </c>
-      <c r="C262" s="0">
+      <c r="C261">
         <v>3</v>
       </c>
-      <c r="D262" s="0">
+      <c r="D261">
         <v>0.45766646741214823</v>
       </c>
-      <c r="E262" s="0">
-        <v>34</v>
-      </c>
-      <c r="F262" s="0">
-        <v>0</v>
-      </c>
-      <c r="G262" s="0">
+      <c r="E261">
+        <v>34</v>
+      </c>
+      <c r="F261">
+        <v>0</v>
+      </c>
+      <c r="G261">
         <v>53913</v>
       </c>
-      <c r="H262" s="0">
+      <c r="H261">
         <v>7331685</v>
       </c>
-      <c r="I262" s="0">
+      <c r="I261">
         <v>135.99104112180737</v>
       </c>
     </row>
-    <row r="263">
-      <c r="A263" s="0">
-        <v>7</v>
-      </c>
-      <c r="B263" s="0">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>7</v>
+      </c>
+      <c r="B262">
         <v>23</v>
       </c>
-      <c r="C263" s="0">
+      <c r="C262">
         <v>4</v>
       </c>
-      <c r="D263" s="0">
+      <c r="D262">
         <v>0.43219915564025119</v>
       </c>
-      <c r="E263" s="0">
-        <v>34</v>
-      </c>
-      <c r="F263" s="0">
-        <v>0</v>
-      </c>
-      <c r="G263" s="0">
+      <c r="E262">
+        <v>34</v>
+      </c>
+      <c r="F262">
+        <v>0</v>
+      </c>
+      <c r="G262">
         <v>52680</v>
       </c>
-      <c r="H263" s="0">
+      <c r="H262">
         <v>6923706</v>
       </c>
-      <c r="I263" s="0">
+      <c r="I262">
         <v>131.42949886104785</v>
       </c>
     </row>
-    <row r="264">
-      <c r="A264" s="0">
-        <v>7</v>
-      </c>
-      <c r="B264" s="0">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>7</v>
+      </c>
+      <c r="B263">
         <v>23</v>
       </c>
-      <c r="C264" s="0">
+      <c r="C263">
         <v>5</v>
       </c>
-      <c r="D264" s="0">
+      <c r="D263">
         <v>0.44639010988462213</v>
       </c>
-      <c r="E264" s="0">
-        <v>34</v>
-      </c>
-      <c r="F264" s="0">
-        <v>0</v>
-      </c>
-      <c r="G264" s="0">
+      <c r="E263">
+        <v>34</v>
+      </c>
+      <c r="F263">
+        <v>0</v>
+      </c>
+      <c r="G263">
         <v>52047</v>
       </c>
-      <c r="H264" s="0">
+      <c r="H263">
         <v>7151041</v>
       </c>
-      <c r="I264" s="0">
+      <c r="I263">
         <v>137.39583453417103</v>
       </c>
     </row>
-    <row r="265">
-      <c r="A265" s="0">
-        <v>7</v>
-      </c>
-      <c r="B265" s="0">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>7</v>
+      </c>
+      <c r="B264">
         <v>24</v>
       </c>
-      <c r="C265" s="0">
+      <c r="C264">
         <v>1</v>
       </c>
-      <c r="D265" s="0">
+      <c r="D264">
         <v>0.50773784197868221</v>
       </c>
-      <c r="E265" s="0">
-        <v>34</v>
-      </c>
-      <c r="F265" s="0">
-        <v>0</v>
-      </c>
-      <c r="G265" s="0">
+      <c r="E264">
+        <v>34</v>
+      </c>
+      <c r="F264">
+        <v>0</v>
+      </c>
+      <c r="G264">
         <v>62335</v>
       </c>
-      <c r="H265" s="0">
+      <c r="H264">
         <v>8133814</v>
       </c>
-      <c r="I265" s="0">
+      <c r="I264">
         <v>130.48550573514078</v>
       </c>
     </row>
-    <row r="266">
-      <c r="A266" s="0">
-        <v>7</v>
-      </c>
-      <c r="B266" s="0">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>7</v>
+      </c>
+      <c r="B265">
         <v>24</v>
       </c>
-      <c r="C266" s="0">
+      <c r="C265">
         <v>2</v>
       </c>
-      <c r="D266" s="0">
+      <c r="D265">
         <v>0.42721623210205029</v>
       </c>
-      <c r="E266" s="0">
-        <v>34</v>
-      </c>
-      <c r="F266" s="0">
-        <v>0</v>
-      </c>
-      <c r="G266" s="0">
+      <c r="E265">
+        <v>34</v>
+      </c>
+      <c r="F265">
+        <v>0</v>
+      </c>
+      <c r="G265">
         <v>49827</v>
       </c>
-      <c r="H266" s="0">
+      <c r="H265">
         <v>6843881</v>
       </c>
-      <c r="I266" s="0">
+      <c r="I265">
         <v>137.35286089870954</v>
       </c>
     </row>
-    <row r="267">
-      <c r="A267" s="0">
-        <v>7</v>
-      </c>
-      <c r="B267" s="0">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>7</v>
+      </c>
+      <c r="B266">
         <v>24</v>
       </c>
-      <c r="C267" s="0">
+      <c r="C266">
         <v>3</v>
       </c>
-      <c r="D267" s="0">
+      <c r="D266">
         <v>0.44454344747271363</v>
       </c>
-      <c r="E267" s="0">
-        <v>34</v>
-      </c>
-      <c r="F267" s="0">
-        <v>0</v>
-      </c>
-      <c r="G267" s="0">
+      <c r="E266">
+        <v>34</v>
+      </c>
+      <c r="F266">
+        <v>0</v>
+      </c>
+      <c r="G266">
         <v>49293</v>
       </c>
-      <c r="H267" s="0">
+      <c r="H266">
         <v>7121458</v>
       </c>
-      <c r="I267" s="0">
+      <c r="I266">
         <v>144.47199399509057</v>
       </c>
     </row>
-    <row r="268">
-      <c r="A268" s="0">
-        <v>7</v>
-      </c>
-      <c r="B268" s="0">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>7</v>
+      </c>
+      <c r="B267">
         <v>24</v>
       </c>
-      <c r="C268" s="0">
+      <c r="C267">
         <v>4</v>
       </c>
-      <c r="D268" s="0">
+      <c r="D267">
         <v>0.52314717018633039</v>
       </c>
-      <c r="E268" s="0">
-        <v>34</v>
-      </c>
-      <c r="F268" s="0">
-        <v>0</v>
-      </c>
-      <c r="G268" s="0">
+      <c r="E267">
+        <v>34</v>
+      </c>
+      <c r="F267">
+        <v>0</v>
+      </c>
+      <c r="G267">
         <v>55642</v>
       </c>
-      <c r="H268" s="0">
+      <c r="H267">
         <v>8380667</v>
       </c>
-      <c r="I268" s="0">
+      <c r="I267">
         <v>150.61764494446641</v>
       </c>
     </row>
-    <row r="269">
-      <c r="A269" s="0">
-        <v>7</v>
-      </c>
-      <c r="B269" s="0">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>7</v>
+      </c>
+      <c r="B268">
         <v>24</v>
       </c>
-      <c r="C269" s="0">
+      <c r="C268">
         <v>5</v>
       </c>
-      <c r="D269" s="0">
+      <c r="D268">
         <v>0.57858206189973949</v>
       </c>
-      <c r="E269" s="0">
-        <v>34</v>
-      </c>
-      <c r="F269" s="0">
-        <v>0</v>
-      </c>
-      <c r="G269" s="0">
+      <c r="E268">
+        <v>34</v>
+      </c>
+      <c r="F268">
+        <v>0</v>
+      </c>
+      <c r="G268">
         <v>63489</v>
       </c>
-      <c r="H269" s="0">
+      <c r="H268">
         <v>9268718</v>
       </c>
-      <c r="I269" s="0">
+      <c r="I268">
         <v>145.98935248625747</v>
       </c>
     </row>
-    <row r="270">
-      <c r="A270" s="0">
-        <v>7</v>
-      </c>
-      <c r="B270" s="0">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>7</v>
+      </c>
+      <c r="B269">
         <v>2</v>
       </c>
-      <c r="C270" s="0">
+      <c r="C269">
         <v>1</v>
       </c>
-      <c r="D270" s="0">
+      <c r="D269">
         <v>0.48581441414177734</v>
       </c>
-      <c r="E270" s="0">
-        <v>34</v>
-      </c>
-      <c r="F270" s="0">
-        <v>0</v>
-      </c>
-      <c r="G270" s="0">
+      <c r="E269">
+        <v>34</v>
+      </c>
+      <c r="F269">
+        <v>0</v>
+      </c>
+      <c r="G269">
         <v>69311</v>
       </c>
-      <c r="H270" s="0">
+      <c r="H269">
         <v>7782607</v>
       </c>
-      <c r="I270" s="0">
+      <c r="I269">
         <v>112.28530824833</v>
       </c>
     </row>
-    <row r="271">
-      <c r="A271" s="0">
-        <v>7</v>
-      </c>
-      <c r="B271" s="0">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>7</v>
+      </c>
+      <c r="B270">
         <v>2</v>
       </c>
-      <c r="C271" s="0">
+      <c r="C270">
         <v>2</v>
       </c>
-      <c r="D271" s="0">
+      <c r="D270">
         <v>0.48995362713137414</v>
       </c>
-      <c r="E271" s="0">
-        <v>34</v>
-      </c>
-      <c r="F271" s="0">
-        <v>0</v>
-      </c>
-      <c r="G271" s="0">
+      <c r="E270">
+        <v>34</v>
+      </c>
+      <c r="F270">
+        <v>0</v>
+      </c>
+      <c r="G270">
         <v>65530</v>
       </c>
-      <c r="H271" s="0">
+      <c r="H270">
         <v>7848916</v>
       </c>
-      <c r="I271" s="0">
+      <c r="I270">
         <v>119.775919426217</v>
       </c>
     </row>
-    <row r="272">
-      <c r="A272" s="0">
-        <v>7</v>
-      </c>
-      <c r="B272" s="0">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>7</v>
+      </c>
+      <c r="B271">
         <v>2</v>
       </c>
-      <c r="C272" s="0">
+      <c r="C271">
         <v>3</v>
       </c>
-      <c r="D272" s="0">
+      <c r="D271">
         <v>0.46645938453824887</v>
       </c>
-      <c r="E272" s="0">
-        <v>34</v>
-      </c>
-      <c r="F272" s="0">
-        <v>0</v>
-      </c>
-      <c r="G272" s="0">
+      <c r="E271">
+        <v>34</v>
+      </c>
+      <c r="F271">
+        <v>0</v>
+      </c>
+      <c r="G271">
         <v>57594</v>
       </c>
-      <c r="H272" s="0">
+      <c r="H271">
         <v>7472545</v>
       </c>
-      <c r="I272" s="0">
+      <c r="I271">
         <v>129.74519915268951</v>
       </c>
     </row>
-    <row r="273">
-      <c r="A273" s="0">
-        <v>7</v>
-      </c>
-      <c r="B273" s="0">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>7</v>
+      </c>
+      <c r="B272">
         <v>2</v>
       </c>
-      <c r="C273" s="0">
+      <c r="C272">
         <v>4</v>
       </c>
-      <c r="D273" s="0">
+      <c r="D272">
         <v>0.50021716994662579</v>
       </c>
-      <c r="E273" s="0">
-        <v>34</v>
-      </c>
-      <c r="F273" s="0">
-        <v>0</v>
-      </c>
-      <c r="G273" s="0">
+      <c r="E272">
+        <v>34</v>
+      </c>
+      <c r="F272">
+        <v>0</v>
+      </c>
+      <c r="G272">
         <v>63939</v>
       </c>
-      <c r="H273" s="0">
+      <c r="H272">
         <v>8013335</v>
       </c>
-      <c r="I273" s="0">
+      <c r="I272">
         <v>125.32781244623781</v>
       </c>
     </row>
-    <row r="274">
-      <c r="A274" s="0">
-        <v>7</v>
-      </c>
-      <c r="B274" s="0">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>7</v>
+      </c>
+      <c r="B273">
         <v>2</v>
       </c>
-      <c r="C274" s="0">
+      <c r="C273">
         <v>5</v>
       </c>
-      <c r="D274" s="0">
+      <c r="D273">
         <v>0.45513358791968295</v>
       </c>
-      <c r="E274" s="0">
-        <v>34</v>
-      </c>
-      <c r="F274" s="0">
-        <v>0</v>
-      </c>
-      <c r="G274" s="0">
+      <c r="E273">
+        <v>34</v>
+      </c>
+      <c r="F273">
+        <v>0</v>
+      </c>
+      <c r="G273">
         <v>59252</v>
       </c>
-      <c r="H274" s="0">
+      <c r="H273">
         <v>7291109</v>
       </c>
-      <c r="I274" s="0">
+      <c r="I273">
         <v>123.05253831094309</v>
       </c>
     </row>
-    <row r="275">
-      <c r="A275" s="0">
-        <v>7</v>
-      </c>
-      <c r="B275" s="0">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>7</v>
+      </c>
+      <c r="B274">
         <v>4</v>
       </c>
-      <c r="C275" s="0">
+      <c r="C274">
         <v>1</v>
       </c>
-      <c r="D275" s="0">
+      <c r="D274">
         <v>0.35386647400402704</v>
       </c>
-      <c r="E275" s="0">
-        <v>34</v>
-      </c>
-      <c r="F275" s="0">
-        <v>0</v>
-      </c>
-      <c r="G275" s="0">
+      <c r="E274">
+        <v>34</v>
+      </c>
+      <c r="F274">
+        <v>0</v>
+      </c>
+      <c r="G274">
         <v>57138</v>
       </c>
-      <c r="H275" s="0">
+      <c r="H274">
         <v>5668839</v>
       </c>
-      <c r="I275" s="0">
+      <c r="I274">
         <v>99.213115614827259</v>
       </c>
     </row>
-    <row r="276">
-      <c r="A276" s="0">
-        <v>7</v>
-      </c>
-      <c r="B276" s="0">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>7</v>
+      </c>
+      <c r="B275">
         <v>4</v>
       </c>
-      <c r="C276" s="0">
+      <c r="C275">
         <v>2</v>
       </c>
-      <c r="D276" s="0">
+      <c r="D275">
         <v>0.40205004933921407</v>
       </c>
-      <c r="E276" s="0">
-        <v>34</v>
-      </c>
-      <c r="F276" s="0">
-        <v>0</v>
-      </c>
-      <c r="G276" s="0">
+      <c r="E275">
+        <v>34</v>
+      </c>
+      <c r="F275">
+        <v>0</v>
+      </c>
+      <c r="G275">
         <v>62287</v>
       </c>
-      <c r="H276" s="0">
+      <c r="H275">
         <v>6440726</v>
       </c>
-      <c r="I276" s="0">
+      <c r="I275">
         <v>103.40401688955961</v>
       </c>
     </row>
-    <row r="277">
-      <c r="A277" s="0">
-        <v>7</v>
-      </c>
-      <c r="B277" s="0">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>7</v>
+      </c>
+      <c r="B276">
         <v>4</v>
       </c>
-      <c r="C277" s="0">
+      <c r="C276">
         <v>3</v>
       </c>
-      <c r="D277" s="0">
+      <c r="D276">
         <v>0.4048226335155089</v>
       </c>
-      <c r="E277" s="0">
-        <v>34</v>
-      </c>
-      <c r="F277" s="0">
-        <v>0</v>
-      </c>
-      <c r="G277" s="0">
+      <c r="E276">
+        <v>34</v>
+      </c>
+      <c r="F276">
+        <v>0</v>
+      </c>
+      <c r="G276">
         <v>64272</v>
       </c>
-      <c r="H277" s="0">
+      <c r="H276">
         <v>6485142</v>
       </c>
-      <c r="I277" s="0">
+      <c r="I276">
         <v>100.90151232262883</v>
       </c>
     </row>
-    <row r="278">
-      <c r="A278" s="0">
-        <v>7</v>
-      </c>
-      <c r="B278" s="0">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>7</v>
+      </c>
+      <c r="B277">
         <v>4</v>
       </c>
-      <c r="C278" s="0">
+      <c r="C277">
         <v>4</v>
       </c>
-      <c r="D278" s="0">
+      <c r="D277">
         <v>0.44574627808539879</v>
       </c>
-      <c r="E278" s="0">
-        <v>34</v>
-      </c>
-      <c r="F278" s="0">
-        <v>0</v>
-      </c>
-      <c r="G278" s="0">
+      <c r="E277">
+        <v>34</v>
+      </c>
+      <c r="F277">
+        <v>0</v>
+      </c>
+      <c r="G277">
         <v>70626</v>
       </c>
-      <c r="H278" s="0">
+      <c r="H277">
         <v>7140727</v>
       </c>
-      <c r="I278" s="0">
+      <c r="I277">
         <v>101.10620734573669</v>
       </c>
     </row>
-    <row r="279">
-      <c r="A279" s="0">
-        <v>7</v>
-      </c>
-      <c r="B279" s="0">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>7</v>
+      </c>
+      <c r="B278">
         <v>4</v>
       </c>
-      <c r="C279" s="0">
+      <c r="C278">
         <v>5</v>
       </c>
-      <c r="D279" s="0">
+      <c r="D278">
         <v>0.40575436062770665</v>
       </c>
-      <c r="E279" s="0">
-        <v>34</v>
-      </c>
-      <c r="F279" s="0">
-        <v>0</v>
-      </c>
-      <c r="G279" s="0">
+      <c r="E278">
+        <v>34</v>
+      </c>
+      <c r="F278">
+        <v>0</v>
+      </c>
+      <c r="G278">
         <v>68117</v>
       </c>
-      <c r="H279" s="0">
+      <c r="H278">
         <v>6500068</v>
       </c>
-      <c r="I279" s="0">
+      <c r="I278">
         <v>95.425048079040479</v>
       </c>
     </row>
-    <row r="280">
-      <c r="A280" s="0">
-        <v>7</v>
-      </c>
-      <c r="B280" s="0">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>7</v>
+      </c>
+      <c r="B279">
         <v>9</v>
       </c>
-      <c r="C280" s="0">
+      <c r="C279">
         <v>1</v>
       </c>
-      <c r="D280" s="0">
+      <c r="D279">
         <v>0.63592641365837288</v>
       </c>
-      <c r="E280" s="0">
-        <v>34</v>
-      </c>
-      <c r="F280" s="0">
-        <v>0</v>
-      </c>
-      <c r="G280" s="0">
+      <c r="E279">
+        <v>34</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+      <c r="G279">
         <v>78551</v>
       </c>
-      <c r="H280" s="0">
+      <c r="H279">
         <v>10187358</v>
       </c>
-      <c r="I280" s="0">
+      <c r="I279">
         <v>129.6910032972209</v>
       </c>
     </row>
-    <row r="281">
-      <c r="A281" s="0">
-        <v>7</v>
-      </c>
-      <c r="B281" s="0">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>7</v>
+      </c>
+      <c r="B280">
         <v>9</v>
       </c>
-      <c r="C281" s="0">
+      <c r="C280">
         <v>2</v>
       </c>
-      <c r="D281" s="0">
+      <c r="D280">
         <v>0.57619955964252045</v>
       </c>
-      <c r="E281" s="0">
-        <v>34</v>
-      </c>
-      <c r="F281" s="0">
-        <v>0</v>
-      </c>
-      <c r="G281" s="0">
+      <c r="E280">
+        <v>34</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+      <c r="G280">
         <v>67112</v>
       </c>
-      <c r="H281" s="0">
+      <c r="H280">
         <v>9230551</v>
       </c>
-      <c r="I281" s="0">
+      <c r="I280">
         <v>137.53950113243533</v>
       </c>
     </row>
-    <row r="282">
-      <c r="A282" s="0">
-        <v>7</v>
-      </c>
-      <c r="B282" s="0">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>7</v>
+      </c>
+      <c r="B281">
         <v>9</v>
       </c>
-      <c r="C282" s="0">
+      <c r="C281">
         <v>3</v>
       </c>
-      <c r="D282" s="0">
+      <c r="D281">
         <v>0.55953777446186304</v>
       </c>
-      <c r="E282" s="0">
-        <v>34</v>
-      </c>
-      <c r="F282" s="0">
-        <v>0</v>
-      </c>
-      <c r="G282" s="0">
+      <c r="E281">
+        <v>34</v>
+      </c>
+      <c r="F281">
+        <v>0</v>
+      </c>
+      <c r="G281">
         <v>64072</v>
       </c>
-      <c r="H282" s="0">
+      <c r="H281">
         <v>8963634</v>
       </c>
-      <c r="I282" s="0">
+      <c r="I281">
         <v>139.89939443126482</v>
       </c>
     </row>
-    <row r="283">
-      <c r="A283" s="0">
-        <v>7</v>
-      </c>
-      <c r="B283" s="0">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>7</v>
+      </c>
+      <c r="B282">
         <v>9</v>
       </c>
-      <c r="C283" s="0">
+      <c r="C282">
         <v>4</v>
       </c>
-      <c r="D283" s="0">
+      <c r="D282">
         <v>0.53128907685731175</v>
       </c>
-      <c r="E283" s="0">
-        <v>34</v>
-      </c>
-      <c r="F283" s="0">
-        <v>0</v>
-      </c>
-      <c r="G283" s="0">
+      <c r="E282">
+        <v>34</v>
+      </c>
+      <c r="F282">
+        <v>0</v>
+      </c>
+      <c r="G282">
         <v>61490</v>
       </c>
-      <c r="H283" s="0">
+      <c r="H282">
         <v>8511098</v>
       </c>
-      <c r="I283" s="0">
+      <c r="I282">
         <v>138.41434379573914</v>
       </c>
     </row>
-    <row r="284">
-      <c r="A284" s="0">
-        <v>7</v>
-      </c>
-      <c r="B284" s="0">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>7</v>
+      </c>
+      <c r="B283">
         <v>9</v>
       </c>
-      <c r="C284" s="0">
+      <c r="C283">
         <v>5</v>
       </c>
-      <c r="D284" s="0">
+      <c r="D283">
         <v>0.62628547879013052</v>
       </c>
-      <c r="E284" s="0">
-        <v>34</v>
-      </c>
-      <c r="F284" s="0">
-        <v>0</v>
-      </c>
-      <c r="G284" s="0">
+      <c r="E283">
+        <v>34</v>
+      </c>
+      <c r="F283">
+        <v>0</v>
+      </c>
+      <c r="G283">
         <v>66784</v>
       </c>
-      <c r="H284" s="0">
+      <c r="H283">
         <v>10032913</v>
       </c>
-      <c r="I284" s="0">
+      <c r="I283">
         <v>150.22929144705319</v>
       </c>
     </row>
-    <row r="285">
-      <c r="A285" s="0">
-        <v>7</v>
-      </c>
-      <c r="B285" s="0">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>7</v>
+      </c>
+      <c r="B284">
         <v>10</v>
       </c>
-      <c r="C285" s="0">
+      <c r="C284">
         <v>1</v>
       </c>
-      <c r="D285" s="0">
+      <c r="D284">
         <v>0.48832063897278555</v>
       </c>
-      <c r="E285" s="0">
-        <v>34</v>
-      </c>
-      <c r="F285" s="0">
-        <v>0</v>
-      </c>
-      <c r="G285" s="0">
+      <c r="E284">
+        <v>34</v>
+      </c>
+      <c r="F284">
+        <v>0</v>
+      </c>
+      <c r="G284">
         <v>65890</v>
       </c>
-      <c r="H285" s="0">
+      <c r="H284">
         <v>7822756</v>
       </c>
-      <c r="I285" s="0">
+      <c r="I284">
         <v>118.72448019426317</v>
       </c>
     </row>
-    <row r="286">
-      <c r="A286" s="0">
-        <v>7</v>
-      </c>
-      <c r="B286" s="0">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>7</v>
+      </c>
+      <c r="B285">
         <v>10</v>
       </c>
-      <c r="C286" s="0">
+      <c r="C285">
         <v>2</v>
       </c>
-      <c r="D286" s="0">
+      <c r="D285">
         <v>0.48857726031529158</v>
       </c>
-      <c r="E286" s="0">
-        <v>34</v>
-      </c>
-      <c r="F286" s="0">
-        <v>0</v>
-      </c>
-      <c r="G286" s="0">
+      <c r="E285">
+        <v>34</v>
+      </c>
+      <c r="F285">
+        <v>0</v>
+      </c>
+      <c r="G285">
         <v>63677</v>
       </c>
-      <c r="H286" s="0">
+      <c r="H285">
         <v>7826867</v>
       </c>
-      <c r="I286" s="0">
+      <c r="I285">
         <v>122.91513419287969</v>
       </c>
     </row>
-    <row r="287">
-      <c r="A287" s="0">
-        <v>7</v>
-      </c>
-      <c r="B287" s="0">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>7</v>
+      </c>
+      <c r="B286">
         <v>10</v>
       </c>
-      <c r="C287" s="0">
+      <c r="C286">
         <v>3</v>
       </c>
-      <c r="D287" s="0">
+      <c r="D286">
         <v>0.44714717717771707</v>
       </c>
-      <c r="E287" s="0">
-        <v>34</v>
-      </c>
-      <c r="F287" s="0">
-        <v>0</v>
-      </c>
-      <c r="G287" s="0">
+      <c r="E286">
+        <v>34</v>
+      </c>
+      <c r="F286">
+        <v>0</v>
+      </c>
+      <c r="G286">
         <v>53361</v>
       </c>
-      <c r="H287" s="0">
+      <c r="H286">
         <v>7163169</v>
       </c>
-      <c r="I287" s="0">
+      <c r="I286">
         <v>134.2397818631585</v>
       </c>
     </row>
-    <row r="288">
-      <c r="A288" s="0">
-        <v>7</v>
-      </c>
-      <c r="B288" s="0">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>7</v>
+      </c>
+      <c r="B287">
         <v>10</v>
       </c>
-      <c r="C288" s="0">
+      <c r="C287">
         <v>4</v>
       </c>
-      <c r="D288" s="0">
+      <c r="D287">
         <v>0.52122903333093629</v>
       </c>
-      <c r="E288" s="0">
-        <v>34</v>
-      </c>
-      <c r="F288" s="0">
-        <v>0</v>
-      </c>
-      <c r="G288" s="0">
+      <c r="E287">
+        <v>34</v>
+      </c>
+      <c r="F287">
+        <v>0</v>
+      </c>
+      <c r="G287">
         <v>65891</v>
       </c>
-      <c r="H288" s="0">
+      <c r="H287">
         <v>8349939</v>
       </c>
-      <c r="I288" s="0">
+      <c r="I287">
         <v>126.72351307462324</v>
       </c>
     </row>
-    <row r="289">
-      <c r="A289" s="0">
-        <v>7</v>
-      </c>
-      <c r="B289" s="0">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>7</v>
+      </c>
+      <c r="B288">
         <v>10</v>
       </c>
-      <c r="C289" s="0">
+      <c r="C288">
         <v>5</v>
       </c>
-      <c r="D289" s="0">
+      <c r="D288">
         <v>0.51325080001438228</v>
       </c>
-      <c r="E289" s="0">
-        <v>34</v>
-      </c>
-      <c r="F289" s="0">
-        <v>0</v>
-      </c>
-      <c r="G289" s="0">
+      <c r="E288">
+        <v>34</v>
+      </c>
+      <c r="F288">
+        <v>0</v>
+      </c>
+      <c r="G288">
         <v>69675</v>
       </c>
-      <c r="H289" s="0">
+      <c r="H288">
         <v>8222130</v>
       </c>
-      <c r="I289" s="0">
+      <c r="I288">
         <v>118.00688912809473</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:N268">
-    <sortCondition ref="A2:A268"/>
-    <sortCondition ref="B2:B268"/>
-    <sortCondition ref="C2:C268"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N267">
+    <sortCondition ref="A2:A267"/>
+    <sortCondition ref="B2:B267"/>
+    <sortCondition ref="C2:C267"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11563,12 +11561,12 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="16" thickBot="true" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -11606,7 +11604,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>217</v>
       </c>
@@ -11647,7 +11645,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>218</v>
       </c>
@@ -11688,7 +11686,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>219</v>
       </c>
@@ -11729,7 +11727,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>208</v>
       </c>
@@ -11770,7 +11768,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>209</v>
       </c>
@@ -11811,7 +11809,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>207</v>
       </c>
@@ -11849,7 +11847,7 @@
         <v>14.720949160232598</v>
       </c>
     </row>
-    <row r="8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>220</v>
       </c>
@@ -11887,7 +11885,7 @@
         <v>18.421045373317131</v>
       </c>
     </row>
-    <row r="9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>213</v>
       </c>
@@ -11925,7 +11923,7 @@
         <v>10.927999498069793</v>
       </c>
     </row>
-    <row r="10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>212</v>
       </c>
@@ -11963,7 +11961,7 @@
         <v>13.95401098646094</v>
       </c>
     </row>
-    <row r="11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>199</v>
       </c>
@@ -12001,7 +11999,7 @@
         <v>15.420216090510136</v>
       </c>
     </row>
-    <row r="12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>203</v>
       </c>
@@ -12039,7 +12037,7 @@
         <v>18.337374858653217</v>
       </c>
     </row>
-    <row r="13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>202</v>
       </c>
@@ -12077,7 +12075,7 @@
         <v>17.866595414461671</v>
       </c>
     </row>
-    <row r="14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>216</v>
       </c>
@@ -12115,7 +12113,7 @@
         <v>9.9570764158111853</v>
       </c>
     </row>
-    <row r="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>215</v>
       </c>
@@ -12153,7 +12151,7 @@
         <v>14.060836152911216</v>
       </c>
     </row>
-    <row r="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>214</v>
       </c>
@@ -12191,7 +12189,7 @@
         <v>18.192307051083571</v>
       </c>
     </row>
-    <row r="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>206</v>
       </c>
@@ -12229,7 +12227,7 @@
         <v>21.573363295670738</v>
       </c>
     </row>
-    <row r="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>210</v>
       </c>
@@ -12267,7 +12265,7 @@
         <v>14.613959584011379</v>
       </c>
     </row>
-    <row r="19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>205</v>
       </c>
@@ -12303,7 +12301,7 @@
         <v>20.616310010007961</v>
       </c>
     </row>
-    <row r="20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>317</v>
       </c>
@@ -12341,7 +12339,7 @@
         <v>14.115362655943249</v>
       </c>
     </row>
-    <row r="21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>318</v>
       </c>
@@ -12379,7 +12377,7 @@
         <v>21.343022174092379</v>
       </c>
     </row>
-    <row r="22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>211</v>
       </c>
@@ -12417,7 +12415,7 @@
         <v>15.2939192827381</v>
       </c>
     </row>
-    <row r="23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>201</v>
       </c>
@@ -12455,7 +12453,7 @@
         <v>15.48794895712108</v>
       </c>
     </row>
-    <row r="24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>200</v>
       </c>
@@ -12493,7 +12491,7 @@
         <v>18.170848434635761</v>
       </c>
     </row>
-    <row r="25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="17">
         <v>204</v>
       </c>
@@ -12521,7 +12519,7 @@
       <c r="M25" s="18"/>
       <c r="N25" s="18"/>
     </row>
-    <row r="26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="17"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
@@ -12534,7 +12532,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I28" t="s">
         <v>33</v>
       </c>
@@ -12549,6 +12547,150 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60ECFE1F-47FE-2649-A759-44CA079F289E}">
+  <dimension ref="A1:A26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="63">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="61">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="61">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="62">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="62">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="62">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="64">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="62">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="64">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="64">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="64">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="64">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="64">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="64">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="64">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="64">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="64">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="64">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="64">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="64">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="64">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="64">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="21"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="22"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A28">
+    <sortCondition ref="A1:A28"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4AE4827-4420-E84F-933E-83FF9CDB4E70}">
   <dimension ref="A1:O26"/>
   <sheetViews>
@@ -12558,7 +12700,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="17" thickBot="true" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>9</v>
       </c>
@@ -12603,7 +12745,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="27">
         <v>217</v>
       </c>
@@ -12648,7 +12790,7 @@
         <v>36.349373589999999</v>
       </c>
     </row>
-    <row r="3" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="34">
         <v>218</v>
       </c>
@@ -12693,7 +12835,7 @@
         <v>25.26471154</v>
       </c>
     </row>
-    <row r="4" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="34">
         <v>219</v>
       </c>
@@ -12738,7 +12880,7 @@
         <v>18.980193509999999</v>
       </c>
     </row>
-    <row r="5" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="34">
         <v>208</v>
       </c>
@@ -12783,7 +12925,7 @@
         <v>30.515518459999999</v>
       </c>
     </row>
-    <row r="6" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="34">
         <v>209</v>
       </c>
@@ -12828,7 +12970,7 @@
         <v>22.066696230000002</v>
       </c>
     </row>
-    <row r="7" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="34">
         <v>207</v>
       </c>
@@ -12873,7 +13015,7 @@
         <v>29.31375418</v>
       </c>
     </row>
-    <row r="8" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="34">
         <v>220</v>
       </c>
@@ -12918,7 +13060,7 @@
         <v>29.078108709999999</v>
       </c>
     </row>
-    <row r="9" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="34">
         <v>213</v>
       </c>
@@ -12963,7 +13105,7 @@
         <v>22.563280850000002</v>
       </c>
     </row>
-    <row r="10" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="34">
         <v>212</v>
       </c>
@@ -13008,7 +13150,7 @@
         <v>20.997673219999999</v>
       </c>
     </row>
-    <row r="11" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="34">
         <v>199</v>
       </c>
@@ -13053,7 +13195,7 @@
         <v>23.512876210000002</v>
       </c>
     </row>
-    <row r="12" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="34">
         <v>203</v>
       </c>
@@ -13098,7 +13240,7 @@
         <v>32.109248440000002</v>
       </c>
     </row>
-    <row r="13" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="34">
         <v>202</v>
       </c>
@@ -13143,7 +13285,7 @@
         <v>15.89621037</v>
       </c>
     </row>
-    <row r="14" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="34">
         <v>216</v>
       </c>
@@ -13188,7 +13330,7 @@
         <v>38.263251840000002</v>
       </c>
     </row>
-    <row r="15" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="34">
         <v>215</v>
       </c>
@@ -13233,7 +13375,7 @@
         <v>35.393663490000002</v>
       </c>
     </row>
-    <row r="16" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="34">
         <v>214</v>
       </c>
@@ -13278,7 +13420,7 @@
         <v>21.516547580000001</v>
       </c>
     </row>
-    <row r="17" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="34">
         <v>206</v>
       </c>
@@ -13323,7 +13465,7 @@
         <v>33.930421510000002</v>
       </c>
     </row>
-    <row r="18" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="34">
         <v>210</v>
       </c>
@@ -13368,7 +13510,7 @@
         <v>28.414697029999999</v>
       </c>
     </row>
-    <row r="19" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="34">
         <v>205</v>
       </c>
@@ -13413,7 +13555,7 @@
         <v>34.975110540000003</v>
       </c>
     </row>
-    <row r="20" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="34">
         <v>317</v>
       </c>
@@ -13458,7 +13600,7 @@
         <v>21.896100820000001</v>
       </c>
     </row>
-    <row r="21" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="34">
         <v>318</v>
       </c>
@@ -13503,7 +13645,7 @@
         <v>37.771244889999998</v>
       </c>
     </row>
-    <row r="22" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="34">
         <v>211</v>
       </c>
@@ -13548,7 +13690,7 @@
         <v>39.789910079999999</v>
       </c>
     </row>
-    <row r="23" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="34">
         <v>201</v>
       </c>
@@ -13593,7 +13735,7 @@
         <v>36.066911660000002</v>
       </c>
     </row>
-    <row r="24" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="34">
         <v>200</v>
       </c>
@@ -13638,7 +13780,7 @@
         <v>14.898635609999999</v>
       </c>
     </row>
-    <row r="25" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="45">
         <v>204</v>
       </c>
@@ -13669,7 +13811,7 @@
       <c r="N25" s="46"/>
       <c r="O25" s="46"/>
     </row>
-    <row r="26" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="45"/>
       <c r="B26" s="46"/>
       <c r="C26" s="46"/>
@@ -13691,7 +13833,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90EEEE4-3CCF-6347-B354-EF3FB256023C}">
   <dimension ref="A1:N49"/>
   <sheetViews>
@@ -13701,7 +13843,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="17" thickBot="true" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -13745,7 +13887,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>7</v>
       </c>
@@ -13790,7 +13932,7 @@
         <v>14.636954289225409</v>
       </c>
     </row>
-    <row r="3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>7</v>
       </c>
@@ -13835,7 +13977,7 @@
         <v>14.636954289225409</v>
       </c>
     </row>
-    <row r="4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>7</v>
       </c>
@@ -13880,7 +14022,7 @@
         <v>14.6369542892254</v>
       </c>
     </row>
-    <row r="5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>7</v>
       </c>
@@ -13925,7 +14067,7 @@
         <v>14.6369542892254</v>
       </c>
     </row>
-    <row r="6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>7</v>
       </c>
@@ -13970,7 +14112,7 @@
         <v>14.6369542892254</v>
       </c>
     </row>
-    <row r="7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -14015,7 +14157,7 @@
         <v>14.6369542892254</v>
       </c>
     </row>
-    <row r="8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -14060,7 +14202,7 @@
         <v>14.6369542892254</v>
       </c>
     </row>
-    <row r="9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -14105,7 +14247,7 @@
         <v>14.6369542892254</v>
       </c>
     </row>
-    <row r="10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -14150,7 +14292,7 @@
         <v>14.6369542892254</v>
       </c>
     </row>
-    <row r="11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -14195,7 +14337,7 @@
         <v>16.085750398747635</v>
       </c>
     </row>
-    <row r="12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -14240,7 +14382,7 @@
         <v>16.085750398747635</v>
       </c>
     </row>
-    <row r="13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -14285,7 +14427,7 @@
         <v>16.085750398747599</v>
       </c>
     </row>
-    <row r="14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -14330,7 +14472,7 @@
         <v>16.085750398747599</v>
       </c>
     </row>
-    <row r="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -14375,7 +14517,7 @@
         <v>16.085750398747599</v>
       </c>
     </row>
-    <row r="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -14420,7 +14562,7 @@
         <v>16.085750398747599</v>
       </c>
     </row>
-    <row r="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -14465,7 +14607,7 @@
         <v>16.085750398747599</v>
       </c>
     </row>
-    <row r="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -14510,7 +14652,7 @@
         <v>16.085750398747599</v>
       </c>
     </row>
-    <row r="19" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -14555,7 +14697,7 @@
         <v>16.085750398747599</v>
       </c>
     </row>
-    <row r="20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>7</v>
       </c>
@@ -14600,7 +14742,7 @@
         <v>11.425130911221268</v>
       </c>
     </row>
-    <row r="21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>7</v>
       </c>
@@ -14645,7 +14787,7 @@
         <v>11.425130911221268</v>
       </c>
     </row>
-    <row r="22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>7</v>
       </c>
@@ -14690,7 +14832,7 @@
         <v>11.4251309112213</v>
       </c>
     </row>
-    <row r="23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>7</v>
       </c>
@@ -14735,7 +14877,7 @@
         <v>11.4251309112213</v>
       </c>
     </row>
-    <row r="24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>7</v>
       </c>
@@ -14780,7 +14922,7 @@
         <v>11.4251309112213</v>
       </c>
     </row>
-    <row r="25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>7</v>
       </c>
@@ -14825,7 +14967,7 @@
         <v>11.4251309112213</v>
       </c>
     </row>
-    <row r="26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>7</v>
       </c>
@@ -14870,7 +15012,7 @@
         <v>11.4251309112213</v>
       </c>
     </row>
-    <row r="27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>7</v>
       </c>
@@ -14915,7 +15057,7 @@
         <v>11.4251309112213</v>
       </c>
     </row>
-    <row r="28" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>7</v>
       </c>
@@ -14960,7 +15102,7 @@
         <v>11.4251309112213</v>
       </c>
     </row>
-    <row r="29" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>7</v>
       </c>
@@ -15005,7 +15147,7 @@
         <v>11.4251309112213</v>
       </c>
     </row>
-    <row r="30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>7</v>
       </c>
@@ -15050,7 +15192,7 @@
         <v>11.4251309112213</v>
       </c>
     </row>
-    <row r="31" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1</v>
       </c>
@@ -15095,7 +15237,7 @@
         <v>18.337374858653217</v>
       </c>
     </row>
-    <row r="32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1</v>
       </c>
@@ -15140,7 +15282,7 @@
         <v>18.337374858653217</v>
       </c>
     </row>
-    <row r="33" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1</v>
       </c>
@@ -15185,7 +15327,7 @@
         <v>18.337374858653199</v>
       </c>
     </row>
-    <row r="34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1</v>
       </c>
@@ -15230,7 +15372,7 @@
         <v>18.337374858653199</v>
       </c>
     </row>
-    <row r="35" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1</v>
       </c>
@@ -15275,7 +15417,7 @@
         <v>18.337374858653199</v>
       </c>
     </row>
-    <row r="36" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1</v>
       </c>
@@ -15320,7 +15462,7 @@
         <v>18.337374858653199</v>
       </c>
     </row>
-    <row r="37" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1</v>
       </c>
@@ -15365,7 +15507,7 @@
         <v>18.337374858653199</v>
       </c>
     </row>
-    <row r="38" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1</v>
       </c>
@@ -15410,7 +15552,7 @@
         <v>18.337374858653199</v>
       </c>
     </row>
-    <row r="39" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1</v>
       </c>
@@ -15455,7 +15597,7 @@
         <v>18.337374858653199</v>
       </c>
     </row>
-    <row r="40" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1</v>
       </c>
@@ -15500,7 +15642,7 @@
         <v>18.337374858653199</v>
       </c>
     </row>
-    <row r="41" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>7</v>
       </c>
@@ -15545,7 +15687,7 @@
         <v>14.636954289225409</v>
       </c>
     </row>
-    <row r="42" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>7</v>
       </c>
@@ -15590,7 +15732,7 @@
         <v>14.636954289225409</v>
       </c>
     </row>
-    <row r="43" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>7</v>
       </c>
@@ -15635,7 +15777,7 @@
         <v>14.6369542892254</v>
       </c>
     </row>
-    <row r="44" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>7</v>
       </c>
@@ -15680,7 +15822,7 @@
         <v>14.6369542892254</v>
       </c>
     </row>
-    <row r="45" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>7</v>
       </c>
@@ -15725,7 +15867,7 @@
         <v>14.6369542892254</v>
       </c>
     </row>
-    <row r="46" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>7</v>
       </c>
@@ -15770,7 +15912,7 @@
         <v>14.6369542892254</v>
       </c>
     </row>
-    <row r="47" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>7</v>
       </c>
@@ -15815,7 +15957,7 @@
         <v>14.6369542892254</v>
       </c>
     </row>
-    <row r="48" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>7</v>
       </c>
@@ -15860,7 +16002,7 @@
         <v>14.6369542892254</v>
       </c>
     </row>
-    <row r="49" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>7</v>
       </c>

--- a/Image_Analysis/tissue_image_data.xlsx
+++ b/Image_Analysis/tissue_image_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tfai/Documents/GitHub/Minimal-Lung-Model/Image_Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C1C421-787D-9242-909E-2544B81A75C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7C66F0-547D-204E-8F0F-A02A92097E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1198,9 +1198,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z288"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A280" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H295" sqref="H295"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6884,7 +6884,7 @@
         <v>120.48106060606061</v>
       </c>
       <c r="J151">
-        <f t="shared" ref="J151:J182" si="2">1/I151</f>
+        <f t="shared" ref="J151:J172" si="2">1/I151</f>
         <v>8.3000597352783975E-3</v>
       </c>
       <c r="K151" s="65">
@@ -11560,8 +11560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E74E1D8-73D4-144E-9DC4-801AA327A535}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
